--- a/weight_adjusted_dk_by_category.xlsx
+++ b/weight_adjusted_dk_by_category.xlsx
@@ -481,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +946,7 @@
         <v>0.04956950772589217</v>
       </c>
       <c r="S9">
-        <v>0.0438034952284044</v>
+        <v>0.04380349522840441</v>
       </c>
       <c r="T9">
         <v>0.09877648027492315</v>
@@ -960,58 +960,58 @@
         <v>40360</v>
       </c>
       <c r="C10">
-        <v>0.01893081800909422</v>
+        <v>0.01893081800909424</v>
       </c>
       <c r="D10">
-        <v>0.01530707613079047</v>
+        <v>0.01530707613079048</v>
       </c>
       <c r="E10">
-        <v>0.01272921692524158</v>
+        <v>0.01272921692524159</v>
       </c>
       <c r="F10">
-        <v>0.009155743789492066</v>
+        <v>0.009155743789492075</v>
       </c>
       <c r="G10">
-        <v>0.01034706418342331</v>
+        <v>0.01034706418342332</v>
       </c>
       <c r="H10">
-        <v>0.02616366038437528</v>
+        <v>0.0261636603843753</v>
       </c>
       <c r="I10">
-        <v>0.03441115048558136</v>
+        <v>0.03441115048558141</v>
       </c>
       <c r="J10">
-        <v>0.02786742912473331</v>
+        <v>0.02786742912473334</v>
       </c>
       <c r="K10">
-        <v>0.03161562274431216</v>
+        <v>0.03161562274431219</v>
       </c>
       <c r="L10">
-        <v>0.03110415048997379</v>
+        <v>0.03110415048997383</v>
       </c>
       <c r="M10">
-        <v>0.02944040152524146</v>
+        <v>0.02944040152524149</v>
       </c>
       <c r="N10">
-        <v>0.05916191757195133</v>
+        <v>0.0591619175719514</v>
       </c>
       <c r="O10">
-        <v>0.04473869282723604</v>
+        <v>0.04473869282723608</v>
       </c>
       <c r="P10">
-        <v>0.04354249197286264</v>
+        <v>0.04354249197286267</v>
       </c>
       <c r="Q10">
-        <v>0.04301833052137464</v>
+        <v>0.04301833052137468</v>
       </c>
       <c r="R10">
-        <v>0.04491292526502116</v>
+        <v>0.0449129252650212</v>
       </c>
       <c r="S10">
-        <v>0.04339949448190736</v>
+        <v>0.04339949448190738</v>
       </c>
       <c r="T10">
-        <v>0.07216785660426338</v>
+        <v>0.07216785660426345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1368,7 +1368,7 @@
         <v>0.07141712855109546</v>
       </c>
       <c r="O16">
-        <v>0.04660825382481486</v>
+        <v>0.04660825382481485</v>
       </c>
       <c r="P16">
         <v>0.05165575043804364</v>
@@ -1383,7 +1383,7 @@
         <v>0.04683892112102205</v>
       </c>
       <c r="T16">
-        <v>0.09317533591254938</v>
+        <v>0.0931753359125494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1406,46 +1406,46 @@
         <v>0.01473641591565471</v>
       </c>
       <c r="G17">
-        <v>0.01429542210787918</v>
+        <v>0.01429542210787919</v>
       </c>
       <c r="H17">
-        <v>0.02544844543324714</v>
+        <v>0.02544844543324715</v>
       </c>
       <c r="I17">
-        <v>0.02945757253000231</v>
+        <v>0.02945757253000238</v>
       </c>
       <c r="J17">
-        <v>0.03291889070983214</v>
+        <v>0.03291889070983222</v>
       </c>
       <c r="K17">
-        <v>0.03292906357737023</v>
+        <v>0.03292906357737031</v>
       </c>
       <c r="L17">
-        <v>0.0331289604244934</v>
+        <v>0.03312896042449348</v>
       </c>
       <c r="M17">
-        <v>0.03699210687207719</v>
+        <v>0.03699210687207728</v>
       </c>
       <c r="N17">
-        <v>0.06446851344903949</v>
+        <v>0.06446851344903964</v>
       </c>
       <c r="O17">
-        <v>0.03893970236224156</v>
+        <v>0.03893970236224157</v>
       </c>
       <c r="P17">
-        <v>0.04837605429055943</v>
+        <v>0.04837605429055945</v>
       </c>
       <c r="Q17">
-        <v>0.04472297755763689</v>
+        <v>0.04472297755763691</v>
       </c>
       <c r="R17">
-        <v>0.04601391444821855</v>
+        <v>0.04601391444821857</v>
       </c>
       <c r="S17">
-        <v>0.05310135126199505</v>
+        <v>0.05310135126199506</v>
       </c>
       <c r="T17">
-        <v>0.09066161278607369</v>
+        <v>0.09066161278607372</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1480,13 +1480,13 @@
         <v>0.03826317036364269</v>
       </c>
       <c r="K18">
-        <v>0.03465458170490652</v>
+        <v>0.03465458170490653</v>
       </c>
       <c r="L18">
-        <v>0.03654467138307806</v>
+        <v>0.03654467138307805</v>
       </c>
       <c r="M18">
-        <v>0.03709417633613946</v>
+        <v>0.03709417633613945</v>
       </c>
       <c r="N18">
         <v>0.06506501524876251</v>
@@ -1843,40 +1843,40 @@
         <v>0.01661567041438263</v>
       </c>
       <c r="H24">
-        <v>0.0354787549098084</v>
+        <v>0.03547875490980839</v>
       </c>
       <c r="I24">
-        <v>0.04024023400455255</v>
+        <v>0.04024023400455259</v>
       </c>
       <c r="J24">
-        <v>0.03619691449671979</v>
+        <v>0.03619691449671982</v>
       </c>
       <c r="K24">
-        <v>0.03333541825832117</v>
+        <v>0.0333354182583212</v>
       </c>
       <c r="L24">
-        <v>0.03742963694703168</v>
+        <v>0.03742963694703171</v>
       </c>
       <c r="M24">
-        <v>0.03117055707760706</v>
+        <v>0.03117055707760708</v>
       </c>
       <c r="N24">
-        <v>0.06906917553202942</v>
+        <v>0.06906917553202947</v>
       </c>
       <c r="O24">
         <v>0.04799083713452296</v>
       </c>
       <c r="P24">
-        <v>0.04399132637441084</v>
+        <v>0.04399132637441082</v>
       </c>
       <c r="Q24">
-        <v>0.04645702450479019</v>
+        <v>0.0464570245047902</v>
       </c>
       <c r="R24">
-        <v>0.05463685207052042</v>
+        <v>0.0546368520705204</v>
       </c>
       <c r="S24">
-        <v>0.04620961903355875</v>
+        <v>0.04620961903355877</v>
       </c>
       <c r="T24">
         <v>0.09382263737271085</v>
@@ -1908,22 +1908,22 @@
         <v>0.03282384130636744</v>
       </c>
       <c r="I25">
-        <v>0.03930431805192942</v>
+        <v>0.03930431805192941</v>
       </c>
       <c r="J25">
-        <v>0.04427066942267361</v>
+        <v>0.04427066942267362</v>
       </c>
       <c r="K25">
-        <v>0.0480230014124116</v>
+        <v>0.04802300141241161</v>
       </c>
       <c r="L25">
-        <v>0.0400858021163515</v>
+        <v>0.04008580211635149</v>
       </c>
       <c r="M25">
-        <v>0.03923130568766317</v>
+        <v>0.03923130568766316</v>
       </c>
       <c r="N25">
-        <v>0.07881659545863091</v>
+        <v>0.07881659545863098</v>
       </c>
       <c r="O25">
         <v>0.04752802793604118</v>
@@ -2174,7 +2174,7 @@
         <v>0.06792629637695793</v>
       </c>
       <c r="O29">
-        <v>0.04208617137970518</v>
+        <v>0.04208617137970516</v>
       </c>
       <c r="P29">
         <v>0.04496734207008724</v>
@@ -2183,13 +2183,13 @@
         <v>0.03642672895216901</v>
       </c>
       <c r="R29">
-        <v>0.04922715892993086</v>
+        <v>0.04922715892993085</v>
       </c>
       <c r="S29">
-        <v>0.03472739769546309</v>
+        <v>0.0347273976954631</v>
       </c>
       <c r="T29">
-        <v>0.085276258713943</v>
+        <v>0.08527625871394301</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2239,7 +2239,7 @@
         <v>0.05331551420077923</v>
       </c>
       <c r="P30">
-        <v>0.04909460311392752</v>
+        <v>0.04909460311392751</v>
       </c>
       <c r="Q30">
         <v>0.05468705432868886</v>
@@ -2248,10 +2248,10 @@
         <v>0.04936764345222451</v>
       </c>
       <c r="S30">
-        <v>0.04811897147654851</v>
+        <v>0.0481189714765485</v>
       </c>
       <c r="T30">
-        <v>0.08767471534325799</v>
+        <v>0.08767471534325802</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2262,55 +2262,55 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.02942577406821183</v>
+        <v>0.02942577406821184</v>
       </c>
       <c r="D31">
-        <v>0.02267529915082886</v>
+        <v>0.02267529915082887</v>
       </c>
       <c r="E31">
-        <v>0.02548073763622832</v>
+        <v>0.02548073763622833</v>
       </c>
       <c r="F31">
-        <v>0.03342430079272612</v>
+        <v>0.03342430079272614</v>
       </c>
       <c r="G31">
-        <v>0.02048525374521198</v>
+        <v>0.02048525374521199</v>
       </c>
       <c r="H31">
-        <v>0.0489028631570582</v>
+        <v>0.04890286315705822</v>
       </c>
       <c r="I31">
-        <v>0.03828325707994963</v>
+        <v>0.03828325707994967</v>
       </c>
       <c r="J31">
-        <v>0.03805248467503122</v>
+        <v>0.03805248467503126</v>
       </c>
       <c r="K31">
-        <v>0.03765716594166094</v>
+        <v>0.03765716594166098</v>
       </c>
       <c r="L31">
-        <v>0.04457473434428288</v>
+        <v>0.04457473434428293</v>
       </c>
       <c r="M31">
-        <v>0.03884872588670348</v>
+        <v>0.03884872588670352</v>
       </c>
       <c r="N31">
-        <v>0.07970563018441927</v>
+        <v>0.07970563018441935</v>
       </c>
       <c r="O31">
-        <v>0.05194111177280584</v>
+        <v>0.05194111177280585</v>
       </c>
       <c r="P31">
-        <v>0.05514085012886069</v>
+        <v>0.05514085012886071</v>
       </c>
       <c r="Q31">
-        <v>0.05571854528819298</v>
+        <v>0.055718545288193</v>
       </c>
       <c r="R31">
-        <v>0.06850832894797843</v>
+        <v>0.06850832894797845</v>
       </c>
       <c r="S31">
-        <v>0.05007200812237357</v>
+        <v>0.05007200812237359</v>
       </c>
       <c r="T31">
         <v>0.1152685238156614</v>
@@ -2339,25 +2339,25 @@
         <v>0.01808969291827713</v>
       </c>
       <c r="H32">
-        <v>0.04336817951932121</v>
+        <v>0.0433681795193212</v>
       </c>
       <c r="I32">
-        <v>0.04848308149525186</v>
+        <v>0.04848308149525185</v>
       </c>
       <c r="J32">
         <v>0.0443405578030439</v>
       </c>
       <c r="K32">
-        <v>0.04438646010661926</v>
+        <v>0.04438646010661927</v>
       </c>
       <c r="L32">
         <v>0.03642132678292494</v>
       </c>
       <c r="M32">
-        <v>0.03836675329755032</v>
+        <v>0.03836675329755033</v>
       </c>
       <c r="N32">
-        <v>0.07743081239197873</v>
+        <v>0.0774308123919787</v>
       </c>
       <c r="O32">
         <v>0.05111474275557846</v>
@@ -2395,13 +2395,13 @@
         <v>0.01741948756100072</v>
       </c>
       <c r="F33">
-        <v>0.02158313383376187</v>
+        <v>0.02158313383376188</v>
       </c>
       <c r="G33">
         <v>0.01670600319628834</v>
       </c>
       <c r="H33">
-        <v>0.05096537309440565</v>
+        <v>0.05096537309440566</v>
       </c>
       <c r="I33">
         <v>0.04632812999675531</v>
@@ -2608,22 +2608,22 @@
         <v>0.08271371994942833</v>
       </c>
       <c r="O36">
-        <v>0.05970876502130168</v>
+        <v>0.05970876502130169</v>
       </c>
       <c r="P36">
-        <v>0.06611134270945133</v>
+        <v>0.06611134270945135</v>
       </c>
       <c r="Q36">
-        <v>0.06036183800912241</v>
+        <v>0.0603618380091224</v>
       </c>
       <c r="R36">
-        <v>0.06818609543859279</v>
+        <v>0.06818609543859275</v>
       </c>
       <c r="S36">
         <v>0.05252489145061721</v>
       </c>
       <c r="T36">
-        <v>0.1074022163849982</v>
+        <v>0.1074022163849981</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2634,55 +2634,55 @@
         <v>42826</v>
       </c>
       <c r="C37">
-        <v>0.04104835773874952</v>
+        <v>0.04104835773874953</v>
       </c>
       <c r="D37">
-        <v>0.02779853291691748</v>
+        <v>0.02779853291691749</v>
       </c>
       <c r="E37">
-        <v>0.02529273103539907</v>
+        <v>0.02529273103539909</v>
       </c>
       <c r="F37">
-        <v>0.0274908662589759</v>
+        <v>0.02749086625897591</v>
       </c>
       <c r="G37">
-        <v>0.02173647683592511</v>
+        <v>0.02173647683592512</v>
       </c>
       <c r="H37">
-        <v>0.04154831913786732</v>
+        <v>0.04154831913786734</v>
       </c>
       <c r="I37">
-        <v>0.05049277634585804</v>
+        <v>0.05049277634585806</v>
       </c>
       <c r="J37">
-        <v>0.04566144268463599</v>
+        <v>0.04566144268463602</v>
       </c>
       <c r="K37">
-        <v>0.04604681505864448</v>
+        <v>0.0460468150586445</v>
       </c>
       <c r="L37">
-        <v>0.04441279976328184</v>
+        <v>0.04441279976328186</v>
       </c>
       <c r="M37">
-        <v>0.04811639054621115</v>
+        <v>0.04811639054621116</v>
       </c>
       <c r="N37">
-        <v>0.07981105910345213</v>
+        <v>0.07981105910345207</v>
       </c>
       <c r="O37">
-        <v>0.05675492447138523</v>
+        <v>0.05675492447138526</v>
       </c>
       <c r="P37">
-        <v>0.05713209275450598</v>
+        <v>0.057132092754506</v>
       </c>
       <c r="Q37">
-        <v>0.05539956886128607</v>
+        <v>0.05539956886128609</v>
       </c>
       <c r="R37">
-        <v>0.06053346550788407</v>
+        <v>0.0605334655078841</v>
       </c>
       <c r="S37">
-        <v>0.05740730288152231</v>
+        <v>0.05740730288152233</v>
       </c>
       <c r="T37">
         <v>0.1017908688009098</v>
@@ -2696,22 +2696,22 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.03645123748122986</v>
+        <v>0.03645123748122991</v>
       </c>
       <c r="D38">
-        <v>0.03382159868800836</v>
+        <v>0.03382159868800841</v>
       </c>
       <c r="E38">
-        <v>0.02348636459993488</v>
+        <v>0.02348636459993492</v>
       </c>
       <c r="F38">
-        <v>0.0301503587666449</v>
+        <v>0.03015035876664494</v>
       </c>
       <c r="G38">
-        <v>0.01973485416460634</v>
+        <v>0.01973485416460637</v>
       </c>
       <c r="H38">
-        <v>0.05162622339919286</v>
+        <v>0.05162622339919293</v>
       </c>
       <c r="I38">
         <v>0.04347079461927138</v>
@@ -2732,22 +2732,22 @@
         <v>0.08920556677815386</v>
       </c>
       <c r="O38">
-        <v>0.05596061216476096</v>
+        <v>0.05596061216476105</v>
       </c>
       <c r="P38">
-        <v>0.06082172754392223</v>
+        <v>0.06082172754392233</v>
       </c>
       <c r="Q38">
-        <v>0.05980277717877164</v>
+        <v>0.05980277717877173</v>
       </c>
       <c r="R38">
-        <v>0.06301417311904477</v>
+        <v>0.06301417311904485</v>
       </c>
       <c r="S38">
-        <v>0.05355279779542206</v>
+        <v>0.05355279779542214</v>
       </c>
       <c r="T38">
-        <v>0.1081538260127718</v>
+        <v>0.1081538260127719</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2859,13 +2859,13 @@
         <v>0.05738059184206212</v>
       </c>
       <c r="P40">
-        <v>0.05865434286253637</v>
+        <v>0.05865434286253635</v>
       </c>
       <c r="Q40">
         <v>0.0537502883637247</v>
       </c>
       <c r="R40">
-        <v>0.06698065206581637</v>
+        <v>0.06698065206581638</v>
       </c>
       <c r="S40">
         <v>0.05054307114555327</v>
@@ -3009,7 +3009,7 @@
         <v>0.03127382002605901</v>
       </c>
       <c r="D43">
-        <v>0.03872448734296758</v>
+        <v>0.03872448734296759</v>
       </c>
       <c r="E43">
         <v>0.02970760599318078</v>
@@ -3021,25 +3021,25 @@
         <v>0.02198930916359969</v>
       </c>
       <c r="H43">
-        <v>0.05581265826329586</v>
+        <v>0.05581265826329584</v>
       </c>
       <c r="I43">
         <v>0.04982888180466354</v>
       </c>
       <c r="J43">
-        <v>0.06623926433189448</v>
+        <v>0.06623926433189445</v>
       </c>
       <c r="K43">
         <v>0.04857744703727123</v>
       </c>
       <c r="L43">
-        <v>0.05408190257170683</v>
+        <v>0.0540819025717068</v>
       </c>
       <c r="M43">
-        <v>0.05145257194516535</v>
+        <v>0.05145257194516534</v>
       </c>
       <c r="N43">
-        <v>0.09322124519960098</v>
+        <v>0.09322124519960097</v>
       </c>
       <c r="O43">
         <v>0.05838605260935359</v>
@@ -3068,58 +3068,58 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.03848731339176278</v>
+        <v>0.03848731339176274</v>
       </c>
       <c r="D44">
-        <v>0.03663546347554922</v>
+        <v>0.03663546347554918</v>
       </c>
       <c r="E44">
-        <v>0.0339465011571348</v>
+        <v>0.03394650115713475</v>
       </c>
       <c r="F44">
-        <v>0.0262501451269592</v>
+        <v>0.02625014512695917</v>
       </c>
       <c r="G44">
-        <v>0.02699973283103034</v>
+        <v>0.02699973283103031</v>
       </c>
       <c r="H44">
-        <v>0.05772527537400182</v>
+        <v>0.05772527537400176</v>
       </c>
       <c r="I44">
-        <v>0.05168854234797053</v>
+        <v>0.05168854234797064</v>
       </c>
       <c r="J44">
-        <v>0.0550644679488289</v>
+        <v>0.05506446794882901</v>
       </c>
       <c r="K44">
-        <v>0.05819475666640384</v>
+        <v>0.05819475666640396</v>
       </c>
       <c r="L44">
-        <v>0.05340980200829579</v>
+        <v>0.0534098020082959</v>
       </c>
       <c r="M44">
-        <v>0.05302261734395423</v>
+        <v>0.05302261734395435</v>
       </c>
       <c r="N44">
-        <v>0.0942236592124464</v>
+        <v>0.09422365921244659</v>
       </c>
       <c r="O44">
-        <v>0.06126197959578616</v>
+        <v>0.0612619795957861</v>
       </c>
       <c r="P44">
-        <v>0.06523012979218573</v>
+        <v>0.06523012979218566</v>
       </c>
       <c r="Q44">
-        <v>0.06363413744233516</v>
+        <v>0.06363413744233509</v>
       </c>
       <c r="R44">
-        <v>0.06667435160033632</v>
+        <v>0.06667435160033625</v>
       </c>
       <c r="S44">
-        <v>0.06630011199575025</v>
+        <v>0.06630011199575019</v>
       </c>
       <c r="T44">
-        <v>0.1179348090077879</v>
+        <v>0.1179348090077877</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3166,22 +3166,22 @@
         <v>0.09167034433978524</v>
       </c>
       <c r="O45">
-        <v>0.05580944073712795</v>
+        <v>0.05580944073712796</v>
       </c>
       <c r="P45">
         <v>0.07575847089468009</v>
       </c>
       <c r="Q45">
-        <v>0.06675760430893994</v>
+        <v>0.0667576043089399</v>
       </c>
       <c r="R45">
-        <v>0.07129551898390958</v>
+        <v>0.07129551898390962</v>
       </c>
       <c r="S45">
-        <v>0.06658814855488709</v>
+        <v>0.06658814855488707</v>
       </c>
       <c r="T45">
-        <v>0.105277855808758</v>
+        <v>0.1052778558087579</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3254,13 +3254,13 @@
         <v>43739</v>
       </c>
       <c r="C47">
-        <v>0.03592879818770441</v>
+        <v>0.03592879818770442</v>
       </c>
       <c r="D47">
         <v>0.03766688201464995</v>
       </c>
       <c r="E47">
-        <v>0.04704432197974256</v>
+        <v>0.04704432197974255</v>
       </c>
       <c r="F47">
         <v>0.03563854328003605</v>
@@ -3269,7 +3269,7 @@
         <v>0.0270900056912387</v>
       </c>
       <c r="H47">
-        <v>0.06525132922936358</v>
+        <v>0.06525132922936359</v>
       </c>
       <c r="I47">
         <v>0.0516636988786107</v>
@@ -3319,7 +3319,7 @@
         <v>0.03511465450029892</v>
       </c>
       <c r="D48">
-        <v>0.04080594524047298</v>
+        <v>0.04080594524047297</v>
       </c>
       <c r="E48">
         <v>0.02695704920245607</v>
@@ -3328,16 +3328,16 @@
         <v>0.03711808510842932</v>
       </c>
       <c r="G48">
-        <v>0.03265794089509814</v>
+        <v>0.03265794089509813</v>
       </c>
       <c r="H48">
-        <v>0.0552615746405536</v>
+        <v>0.05526157464055359</v>
       </c>
       <c r="I48">
         <v>0.05125666563389124</v>
       </c>
       <c r="J48">
-        <v>0.05999169486548208</v>
+        <v>0.05999169486548206</v>
       </c>
       <c r="K48">
         <v>0.0496173209211194</v>
@@ -3346,10 +3346,10 @@
         <v>0.05798018779658966</v>
       </c>
       <c r="M48">
-        <v>0.05417167059762908</v>
+        <v>0.05417167059762907</v>
       </c>
       <c r="N48">
-        <v>0.08850093229955751</v>
+        <v>0.08850093229955749</v>
       </c>
       <c r="O48">
         <v>0.06228452561229098</v>
@@ -3416,58 +3416,58 @@
         <v>44013</v>
       </c>
       <c r="C50">
-        <v>0.02379929675723159</v>
+        <v>0.02379929675723158</v>
       </c>
       <c r="D50">
-        <v>0.02480300010437078</v>
+        <v>0.02480300010437076</v>
       </c>
       <c r="E50">
-        <v>0.02458930106905524</v>
+        <v>0.02458930106905522</v>
       </c>
       <c r="F50">
-        <v>0.03175585356359695</v>
+        <v>0.03175585356359693</v>
       </c>
       <c r="G50">
-        <v>0.02516437645028304</v>
+        <v>0.02516437645028302</v>
       </c>
       <c r="H50">
-        <v>0.02246367305614292</v>
+        <v>0.02246367305614291</v>
       </c>
       <c r="I50">
-        <v>0.0353801137059</v>
+        <v>0.03538011370589998</v>
       </c>
       <c r="J50">
-        <v>0.04183911690642809</v>
+        <v>0.04183911690642807</v>
       </c>
       <c r="K50">
-        <v>0.04245679869838476</v>
+        <v>0.04245679869838474</v>
       </c>
       <c r="L50">
-        <v>0.05647832390930801</v>
+        <v>0.05647832390930797</v>
       </c>
       <c r="M50">
-        <v>0.05642232110075696</v>
+        <v>0.05642232110075693</v>
       </c>
       <c r="N50">
-        <v>0.05715936422966508</v>
+        <v>0.05715936422966505</v>
       </c>
       <c r="O50">
-        <v>0.02863307376109618</v>
+        <v>0.02863307376109616</v>
       </c>
       <c r="P50">
-        <v>0.03892578827015945</v>
+        <v>0.03892578827015942</v>
       </c>
       <c r="Q50">
-        <v>0.04026978945025344</v>
+        <v>0.04026978945025342</v>
       </c>
       <c r="R50">
-        <v>0.04911278854951596</v>
+        <v>0.04911278854951593</v>
       </c>
       <c r="S50">
-        <v>0.05025266968638121</v>
+        <v>0.05025266968638118</v>
       </c>
       <c r="T50">
-        <v>0.06151304215013846</v>
+        <v>0.06151304215013842</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3478,22 +3478,22 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.02364945616569032</v>
+        <v>0.02364945616569038</v>
       </c>
       <c r="D51">
-        <v>0.02433390333894674</v>
+        <v>0.02433390333894679</v>
       </c>
       <c r="E51">
-        <v>0.03064588691388669</v>
+        <v>0.03064588691388677</v>
       </c>
       <c r="F51">
-        <v>0.02718016470902466</v>
+        <v>0.02718016470902473</v>
       </c>
       <c r="G51">
-        <v>0.01752374809072802</v>
+        <v>0.01752374809072806</v>
       </c>
       <c r="H51">
-        <v>0.02952712280291511</v>
+        <v>0.02952712280291519</v>
       </c>
       <c r="I51">
         <v>0.0335009105790027</v>
@@ -3514,22 +3514,22 @@
         <v>0.07308700282151315</v>
       </c>
       <c r="O51">
-        <v>0.0273543313748189</v>
+        <v>0.02735433137481898</v>
       </c>
       <c r="P51">
-        <v>0.03715686229110858</v>
+        <v>0.03715686229110867</v>
       </c>
       <c r="Q51">
-        <v>0.04823363318280052</v>
+        <v>0.04823363318280063</v>
       </c>
       <c r="R51">
-        <v>0.05071402706837232</v>
+        <v>0.05071402706837244</v>
       </c>
       <c r="S51">
-        <v>0.04529001571120661</v>
+        <v>0.04529001571120673</v>
       </c>
       <c r="T51">
-        <v>0.0663672073178327</v>
+        <v>0.06636720731783287</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3582,16 +3582,16 @@
         <v>0.03069075253498896</v>
       </c>
       <c r="Q52">
-        <v>0.03761600811477788</v>
+        <v>0.03761600811477786</v>
       </c>
       <c r="R52">
-        <v>0.04605290214209621</v>
+        <v>0.04605290214209617</v>
       </c>
       <c r="S52">
-        <v>0.03644337880420075</v>
+        <v>0.03644337880420076</v>
       </c>
       <c r="T52">
-        <v>0.064487348859914</v>
+        <v>0.06448734885991395</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3673,10 +3673,10 @@
         <v>0.02298574081937228</v>
       </c>
       <c r="F54">
-        <v>0.02495562035006369</v>
+        <v>0.02495562035006368</v>
       </c>
       <c r="G54">
-        <v>0.02151986128644881</v>
+        <v>0.0215198612864488</v>
       </c>
       <c r="H54">
         <v>0.02316791575213501</v>
@@ -3688,16 +3688,16 @@
         <v>0.04229124781979076</v>
       </c>
       <c r="K54">
-        <v>0.04353769644137425</v>
+        <v>0.04353769644137424</v>
       </c>
       <c r="L54">
-        <v>0.04960403609564203</v>
+        <v>0.04960403609564205</v>
       </c>
       <c r="M54">
         <v>0.04150588068420782</v>
       </c>
       <c r="N54">
-        <v>0.05589447140879332</v>
+        <v>0.05589447140879333</v>
       </c>
       <c r="O54">
         <v>0.02584137765349258</v>
@@ -3744,22 +3744,22 @@
         <v>0.01509377393164524</v>
       </c>
       <c r="I55">
-        <v>0.02220912477978991</v>
+        <v>0.02220912477978992</v>
       </c>
       <c r="J55">
-        <v>0.02985953315248266</v>
+        <v>0.02985953315248265</v>
       </c>
       <c r="K55">
-        <v>0.04445575892527985</v>
+        <v>0.04445575892527987</v>
       </c>
       <c r="L55">
         <v>0.04691733602704243</v>
       </c>
       <c r="M55">
-        <v>0.04544543374444943</v>
+        <v>0.04544543374444944</v>
       </c>
       <c r="N55">
-        <v>0.07800607655292587</v>
+        <v>0.07800607655292581</v>
       </c>
       <c r="O55">
         <v>0.02473759483260243</v>
@@ -3788,58 +3788,58 @@
         <v>44562</v>
       </c>
       <c r="C56">
-        <v>0.01395712652575815</v>
+        <v>0.01395712652575811</v>
       </c>
       <c r="D56">
-        <v>0.02546367038712475</v>
+        <v>0.02546367038712467</v>
       </c>
       <c r="E56">
-        <v>0.02912106850107147</v>
+        <v>0.02912106850107139</v>
       </c>
       <c r="F56">
-        <v>0.02471681405111989</v>
+        <v>0.02471681405111982</v>
       </c>
       <c r="G56">
-        <v>0.01587900595084904</v>
+        <v>0.01587900595084899</v>
       </c>
       <c r="H56">
-        <v>0.01697058762357252</v>
+        <v>0.01697058762357247</v>
       </c>
       <c r="I56">
-        <v>0.04589677038290518</v>
+        <v>0.04589677038290506</v>
       </c>
       <c r="J56">
-        <v>0.04063851282873235</v>
+        <v>0.04063851282873224</v>
       </c>
       <c r="K56">
-        <v>0.04926670409696328</v>
+        <v>0.04926670409696314</v>
       </c>
       <c r="L56">
-        <v>0.05841591128497356</v>
+        <v>0.05841591128497339</v>
       </c>
       <c r="M56">
-        <v>0.04705830515316876</v>
+        <v>0.04705830515316863</v>
       </c>
       <c r="N56">
-        <v>0.0234353777270134</v>
+        <v>0.02343537772701334</v>
       </c>
       <c r="O56">
-        <v>0.04506340132253824</v>
+        <v>0.0450634013225381</v>
       </c>
       <c r="P56">
-        <v>0.03959684725610484</v>
+        <v>0.03959684725610473</v>
       </c>
       <c r="Q56">
-        <v>0.04638996498372081</v>
+        <v>0.04638996498372067</v>
       </c>
       <c r="R56">
-        <v>0.06030550929785478</v>
+        <v>0.06030550929785462</v>
       </c>
       <c r="S56">
-        <v>0.0470856567186374</v>
+        <v>0.04708565671863727</v>
       </c>
       <c r="T56">
-        <v>0.02182975985909928</v>
+        <v>0.02182975985909922</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -4072,22 +4072,22 @@
         <v>0.02309412861117902</v>
       </c>
       <c r="O60">
-        <v>0.04673293479364643</v>
+        <v>0.04673293479364642</v>
       </c>
       <c r="P60">
         <v>0.03431549264859245</v>
       </c>
       <c r="Q60">
-        <v>0.04174647605280795</v>
+        <v>0.04174647605280794</v>
       </c>
       <c r="R60">
-        <v>0.05430240990172942</v>
+        <v>0.05430240990172944</v>
       </c>
       <c r="S60">
-        <v>0.04831614948428079</v>
+        <v>0.04831614948428081</v>
       </c>
       <c r="T60">
-        <v>0.02257671181805253</v>
+        <v>0.02257671181805252</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4107,7 +4107,7 @@
         <v>0.02808241055103233</v>
       </c>
       <c r="F61">
-        <v>0.0305845961669909</v>
+        <v>0.03058459616699089</v>
       </c>
       <c r="G61">
         <v>0.01994373099612343</v>
@@ -4116,13 +4116,13 @@
         <v>0.02106213480152713</v>
       </c>
       <c r="I61">
-        <v>0.04138755383001244</v>
+        <v>0.04138755383001246</v>
       </c>
       <c r="J61">
         <v>0.03540327243311179</v>
       </c>
       <c r="K61">
-        <v>0.04435520331806612</v>
+        <v>0.04435520331806613</v>
       </c>
       <c r="L61">
         <v>0.04911722472518444</v>
@@ -4166,7 +4166,7 @@
         <v>0.02303893752782357</v>
       </c>
       <c r="E62">
-        <v>0.02263984864580268</v>
+        <v>0.02263984864580267</v>
       </c>
       <c r="F62">
         <v>0.02511429467025739</v>
@@ -4178,16 +4178,16 @@
         <v>0.01134846269204515</v>
       </c>
       <c r="I62">
-        <v>0.04154569015510105</v>
+        <v>0.04154569015510107</v>
       </c>
       <c r="J62">
         <v>0.03100020008506292</v>
       </c>
       <c r="K62">
-        <v>0.04322565479160266</v>
+        <v>0.04322565479160267</v>
       </c>
       <c r="L62">
-        <v>0.04764862191584965</v>
+        <v>0.04764862191584964</v>
       </c>
       <c r="M62">
         <v>0.03286455331052335</v>
@@ -4222,58 +4222,58 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.02162659226430352</v>
+        <v>0.0216265922643035</v>
       </c>
       <c r="D63">
-        <v>0.02452721711643488</v>
+        <v>0.02452721711643486</v>
       </c>
       <c r="E63">
-        <v>0.02618596166205141</v>
+        <v>0.02618596166205138</v>
       </c>
       <c r="F63">
-        <v>0.02565179761384581</v>
+        <v>0.02565179761384578</v>
       </c>
       <c r="G63">
-        <v>0.0259781902414981</v>
+        <v>0.02597819024149807</v>
       </c>
       <c r="H63">
-        <v>0.01645959162905425</v>
+        <v>0.01645959162905423</v>
       </c>
       <c r="I63">
-        <v>0.04552762445813482</v>
+        <v>0.04552762445813475</v>
       </c>
       <c r="J63">
-        <v>0.03691426930207473</v>
+        <v>0.03691426930207466</v>
       </c>
       <c r="K63">
-        <v>0.04071339519503281</v>
+        <v>0.04071339519503274</v>
       </c>
       <c r="L63">
-        <v>0.04117344155465974</v>
+        <v>0.04117344155465967</v>
       </c>
       <c r="M63">
-        <v>0.04347895485537855</v>
+        <v>0.04347895485537848</v>
       </c>
       <c r="N63">
-        <v>0.02761712827272832</v>
+        <v>0.02761712827272828</v>
       </c>
       <c r="O63">
-        <v>0.05265937073087202</v>
+        <v>0.05265937073087196</v>
       </c>
       <c r="P63">
-        <v>0.03454742024327725</v>
+        <v>0.03454742024327721</v>
       </c>
       <c r="Q63">
-        <v>0.03502785428704455</v>
+        <v>0.0350278542870445</v>
       </c>
       <c r="R63">
-        <v>0.04208824449743502</v>
+        <v>0.04208824449743498</v>
       </c>
       <c r="S63">
-        <v>0.04343103597786747</v>
+        <v>0.04343103597786743</v>
       </c>
       <c r="T63">
-        <v>0.02137582536135987</v>
+        <v>0.02137582536135985</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4532,58 +4532,120 @@
         <v>45658</v>
       </c>
       <c r="C68">
-        <v>0.01399931988055627</v>
+        <v>0.01399932045105246</v>
       </c>
       <c r="D68">
-        <v>0.02170925816519008</v>
+        <v>0.02170925817222094</v>
       </c>
       <c r="E68">
-        <v>0.02796854597809208</v>
+        <v>0.02796854507065975</v>
       </c>
       <c r="F68">
-        <v>0.02858054701229597</v>
+        <v>0.02858054661761712</v>
       </c>
       <c r="G68">
-        <v>0.01979216037954854</v>
+        <v>0.01979216039300457</v>
       </c>
       <c r="H68">
-        <v>0.01631945262368689</v>
+        <v>0.01631945307889348</v>
       </c>
       <c r="I68">
-        <v>0.03912311059223294</v>
+        <v>0.03912311083187545</v>
       </c>
       <c r="J68">
-        <v>0.03628974919200853</v>
+        <v>0.03628974876501358</v>
       </c>
       <c r="K68">
-        <v>0.04491425422326017</v>
+        <v>0.04491425295180999</v>
       </c>
       <c r="L68">
-        <v>0.05243729137602227</v>
+        <v>0.0524372907428422</v>
       </c>
       <c r="M68">
-        <v>0.04426067115124547</v>
+        <v>0.04426067088954246</v>
       </c>
       <c r="N68">
-        <v>0.02573824977734802</v>
+        <v>0.02573825078024461</v>
       </c>
       <c r="O68">
-        <v>0.0448890151141265</v>
+        <v>0.04488901529367714</v>
       </c>
       <c r="P68">
-        <v>0.03395522646993299</v>
+        <v>0.03395522667578389</v>
       </c>
       <c r="Q68">
-        <v>0.04424105158895779</v>
+        <v>0.04424105067872828</v>
       </c>
       <c r="R68">
-        <v>0.05414749149174261</v>
+        <v>0.05414749121483089</v>
       </c>
       <c r="S68">
-        <v>0.04641795232259961</v>
+        <v>0.04641795164350397</v>
       </c>
       <c r="T68">
-        <v>0.02352445754549799</v>
+        <v>0.02352445822288532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C69">
+        <v>0.01213838712924318</v>
+      </c>
+      <c r="D69">
+        <v>0.02129235422958572</v>
+      </c>
+      <c r="E69">
+        <v>0.02220291925167717</v>
+      </c>
+      <c r="F69">
+        <v>0.02640310488415385</v>
+      </c>
+      <c r="G69">
+        <v>0.01936177148964015</v>
+      </c>
+      <c r="H69">
+        <v>0.01367998632291664</v>
+      </c>
+      <c r="I69">
+        <v>0.03441897732496967</v>
+      </c>
+      <c r="J69">
+        <v>0.03623313515753619</v>
+      </c>
+      <c r="K69">
+        <v>0.03247719145282665</v>
+      </c>
+      <c r="L69">
+        <v>0.04541979384528386</v>
+      </c>
+      <c r="M69">
+        <v>0.03688733395573792</v>
+      </c>
+      <c r="N69">
+        <v>0.02044620362852128</v>
+      </c>
+      <c r="O69">
+        <v>0.04818450452264023</v>
+      </c>
+      <c r="P69">
+        <v>0.03123249257850106</v>
+      </c>
+      <c r="Q69">
+        <v>0.03132868273989683</v>
+      </c>
+      <c r="R69">
+        <v>0.04459261708062302</v>
+      </c>
+      <c r="S69">
+        <v>0.04212494154048522</v>
+      </c>
+      <c r="T69">
+        <v>0.01715957690133406</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +4660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4813,22 +4875,22 @@
         <v>40360</v>
       </c>
       <c r="C10">
-        <v>0.04182017748282439</v>
+        <v>0.04182017748282443</v>
       </c>
       <c r="D10">
-        <v>0.05081340193959254</v>
+        <v>0.05081340193959259</v>
       </c>
       <c r="E10">
-        <v>0.1083135227309884</v>
+        <v>0.1083135227309886</v>
       </c>
       <c r="F10">
         <v>0.1052871492108051</v>
       </c>
       <c r="G10">
-        <v>0.1523933533985327</v>
+        <v>0.1523933533985329</v>
       </c>
       <c r="H10">
-        <v>0.1393864382741324</v>
+        <v>0.1393864382741325</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4865,7 +4927,7 @@
         <v>40544</v>
       </c>
       <c r="C12">
-        <v>0.04322780580001841</v>
+        <v>0.04322780580001842</v>
       </c>
       <c r="D12">
         <v>0.05177446193989241</v>
@@ -4995,16 +5057,16 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.05019801486662859</v>
+        <v>0.05019801486662862</v>
       </c>
       <c r="D17">
-        <v>0.05640855049862308</v>
+        <v>0.0564085504986231</v>
       </c>
       <c r="E17">
-        <v>0.1102001308230764</v>
+        <v>0.1102001308230767</v>
       </c>
       <c r="F17">
-        <v>0.1196949767397383</v>
+        <v>0.1196949767397385</v>
       </c>
       <c r="G17">
         <v>0.1609347644523384</v>
@@ -5076,7 +5138,7 @@
         <v>0.04935286544159784</v>
       </c>
       <c r="D20">
-        <v>0.05673438837929923</v>
+        <v>0.05673438837929925</v>
       </c>
       <c r="E20">
         <v>0.1120578221863562</v>
@@ -5177,19 +5239,19 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.0706579390187296</v>
+        <v>0.07065793901872959</v>
       </c>
       <c r="D24">
         <v>0.07460629736820848</v>
       </c>
       <c r="E24">
-        <v>0.1213540296324395</v>
+        <v>0.1213540296324396</v>
       </c>
       <c r="F24">
-        <v>0.1260879066838221</v>
+        <v>0.1260879066838222</v>
       </c>
       <c r="G24">
-        <v>0.1669098094370121</v>
+        <v>0.166909809437012</v>
       </c>
       <c r="H24">
         <v>0.1661984870535023</v>
@@ -5258,7 +5320,7 @@
         <v>0.09162208606394415</v>
       </c>
       <c r="D27">
-        <v>0.08972443884345915</v>
+        <v>0.08972443884345911</v>
       </c>
       <c r="E27">
         <v>0.1336315648954072</v>
@@ -5345,10 +5407,10 @@
         <v>0.12293007388179</v>
       </c>
       <c r="G30">
-        <v>0.1875533586643256</v>
+        <v>0.1875533586643257</v>
       </c>
       <c r="H30">
-        <v>0.154705143251101</v>
+        <v>0.1547051432511009</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5359,22 +5421,22 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.09029721753686876</v>
+        <v>0.0902972175368688</v>
       </c>
       <c r="D31">
-        <v>0.09009701101339662</v>
+        <v>0.09009701101339665</v>
       </c>
       <c r="E31">
-        <v>0.1410742786579336</v>
+        <v>0.1410742786579338</v>
       </c>
       <c r="F31">
-        <v>0.1360477194541138</v>
+        <v>0.1360477194541139</v>
       </c>
       <c r="G31">
-        <v>0.209421117865605</v>
+        <v>0.2094211178656051</v>
       </c>
       <c r="H31">
-        <v>0.1872282502102679</v>
+        <v>0.187228250210268</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5385,10 +5447,10 @@
         <v>42370</v>
       </c>
       <c r="C32">
-        <v>0.09585007107508332</v>
+        <v>0.09585007107508331</v>
       </c>
       <c r="D32">
-        <v>0.08412387684663529</v>
+        <v>0.08412387684663522</v>
       </c>
       <c r="E32">
         <v>0.1562940767515195</v>
@@ -5411,7 +5473,7 @@
         <v>42461</v>
       </c>
       <c r="C33">
-        <v>0.08384526143042109</v>
+        <v>0.08384526143042108</v>
       </c>
       <c r="D33">
         <v>0.08593970285886246</v>
@@ -5478,7 +5540,7 @@
         <v>0.2240227521371659</v>
       </c>
       <c r="H35">
-        <v>0.184437519730668</v>
+        <v>0.1844375197306679</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5504,7 +5566,7 @@
         <v>0.2283823759018214</v>
       </c>
       <c r="H36">
-        <v>0.1859127731122624</v>
+        <v>0.1859127731122623</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5515,22 +5577,22 @@
         <v>42826</v>
       </c>
       <c r="C37">
-        <v>0.1033244554612777</v>
+        <v>0.1033244554612778</v>
       </c>
       <c r="D37">
-        <v>0.08159082846255669</v>
+        <v>0.08159082846255672</v>
       </c>
       <c r="E37">
         <v>0.1750406621676056</v>
       </c>
       <c r="F37">
-        <v>0.1395006213344779</v>
+        <v>0.139500621334478</v>
       </c>
       <c r="G37">
-        <v>0.2173216177328597</v>
+        <v>0.2173216177328598</v>
       </c>
       <c r="H37">
-        <v>0.1716966055446338</v>
+        <v>0.1716966055446339</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5541,10 +5603,10 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.1054072201412949</v>
+        <v>0.1054072201412951</v>
       </c>
       <c r="D38">
-        <v>0.08986341695832224</v>
+        <v>0.08986341695832241</v>
       </c>
       <c r="E38">
         <v>0.1744587738875957</v>
@@ -5553,10 +5615,10 @@
         <v>0.1481379017000529</v>
       </c>
       <c r="G38">
-        <v>0.2210740794291412</v>
+        <v>0.2210740794291416</v>
       </c>
       <c r="H38">
-        <v>0.1802318343855519</v>
+        <v>0.1802318343855522</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5605,7 +5667,7 @@
         <v>0.1311489926540899</v>
       </c>
       <c r="G40">
-        <v>0.2092862014504513</v>
+        <v>0.2092862014504515</v>
       </c>
       <c r="H40">
         <v>0.1741284880492124</v>
@@ -5677,7 +5739,7 @@
         <v>0.09524562039194648</v>
       </c>
       <c r="E43">
-        <v>0.2067202618970775</v>
+        <v>0.2067202618970774</v>
       </c>
       <c r="F43">
         <v>0.1566810509932249</v>
@@ -5697,22 +5759,22 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.117899386339994</v>
+        <v>0.1178993863399939</v>
       </c>
       <c r="D44">
-        <v>0.1021450450164441</v>
+        <v>0.1021450450164439</v>
       </c>
       <c r="E44">
-        <v>0.2043829074363583</v>
+        <v>0.2043829074363588</v>
       </c>
       <c r="F44">
-        <v>0.1612209380915411</v>
+        <v>0.1612209380915414</v>
       </c>
       <c r="G44">
-        <v>0.242683622724802</v>
+        <v>0.2426836227248018</v>
       </c>
       <c r="H44">
-        <v>0.1983518967093793</v>
+        <v>0.1983518967093791</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5738,7 +5800,7 @@
         <v>0.2514861855211624</v>
       </c>
       <c r="H45">
-        <v>0.1900008537671401</v>
+        <v>0.1900008537671402</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5775,7 +5837,7 @@
         <v>43739</v>
       </c>
       <c r="C47">
-        <v>0.141483581740652</v>
+        <v>0.1414835817406519</v>
       </c>
       <c r="D47">
         <v>0.1071362986420834</v>
@@ -5804,10 +5866,10 @@
         <v>0.1246560476102104</v>
       </c>
       <c r="D48">
-        <v>0.1032592019770985</v>
+        <v>0.1032592019770984</v>
       </c>
       <c r="E48">
-        <v>0.204927797575793</v>
+        <v>0.2049277975757929</v>
       </c>
       <c r="F48">
         <v>0.1565906745384759</v>
@@ -5850,22 +5912,22 @@
         <v>44013</v>
       </c>
       <c r="C50">
-        <v>0.0817970758690988</v>
+        <v>0.08179707586909875</v>
       </c>
       <c r="D50">
-        <v>0.07077842513158177</v>
+        <v>0.07077842513158172</v>
       </c>
       <c r="E50">
-        <v>0.1600328480431457</v>
+        <v>0.1600328480431455</v>
       </c>
       <c r="F50">
-        <v>0.1297031905072973</v>
+        <v>0.1297031905072972</v>
       </c>
       <c r="G50">
-        <v>0.148238171226702</v>
+        <v>0.1482381712267019</v>
       </c>
       <c r="H50">
-        <v>0.1204689806408427</v>
+        <v>0.1204689806408426</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5876,10 +5938,10 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.08192613893388542</v>
+        <v>0.08192613893388563</v>
       </c>
       <c r="D51">
-        <v>0.07093414308730615</v>
+        <v>0.07093414308730633</v>
       </c>
       <c r="E51">
         <v>0.1535435980469124</v>
@@ -5888,10 +5950,10 @@
         <v>0.1395274888275033</v>
       </c>
       <c r="G51">
-        <v>0.1432400798835877</v>
+        <v>0.1432400798835881</v>
       </c>
       <c r="H51">
-        <v>0.1318759970625517</v>
+        <v>0.131875997062552</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5914,10 +5976,10 @@
         <v>0.1167654787427145</v>
       </c>
       <c r="G52">
-        <v>0.1271958528309703</v>
+        <v>0.1271958528309704</v>
       </c>
       <c r="H52">
-        <v>0.1096575953721603</v>
+        <v>0.1096575953721604</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5954,13 +6016,13 @@
         <v>44378</v>
       </c>
       <c r="C54">
-        <v>0.07867728928840885</v>
+        <v>0.07867728928840886</v>
       </c>
       <c r="D54">
-        <v>0.06246449308031669</v>
+        <v>0.0624644930803167</v>
       </c>
       <c r="E54">
-        <v>0.1417383346247195</v>
+        <v>0.1417383346247196</v>
       </c>
       <c r="F54">
         <v>0.1183287386256478</v>
@@ -6006,22 +6068,22 @@
         <v>44562</v>
       </c>
       <c r="C56">
-        <v>0.05498673351173373</v>
+        <v>0.05498673351173357</v>
       </c>
       <c r="D56">
-        <v>0.0711215395277621</v>
+        <v>0.0711215395277619</v>
       </c>
       <c r="E56">
-        <v>0.1084484562392645</v>
+        <v>0.1084484562392642</v>
       </c>
       <c r="F56">
-        <v>0.1562631252344919</v>
+        <v>0.1562631252344915</v>
       </c>
       <c r="G56">
-        <v>0.1086202929915709</v>
+        <v>0.1086202929915706</v>
       </c>
       <c r="H56">
-        <v>0.1516508464463844</v>
+        <v>0.151650846446384</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6122,7 +6184,7 @@
         <v>0.1274968951072239</v>
       </c>
       <c r="G60">
-        <v>0.1092843250580439</v>
+        <v>0.1092843250580441</v>
       </c>
       <c r="H60">
         <v>0.1387058496410656</v>
@@ -6136,13 +6198,13 @@
         <v>45017</v>
       </c>
       <c r="C61">
-        <v>0.05884928640111309</v>
+        <v>0.05884928640111307</v>
       </c>
       <c r="D61">
-        <v>0.08265113120167204</v>
+        <v>0.08265113120167203</v>
       </c>
       <c r="E61">
-        <v>0.100302319515977</v>
+        <v>0.1003023195159768</v>
       </c>
       <c r="F61">
         <v>0.1385812547758043</v>
@@ -6168,7 +6230,7 @@
         <v>0.06519268664255302</v>
       </c>
       <c r="E62">
-        <v>0.0960097013218066</v>
+        <v>0.09600970132180658</v>
       </c>
       <c r="F62">
         <v>0.123903623895937</v>
@@ -6188,22 +6250,22 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.05395336306751233</v>
+        <v>0.05395336306751226</v>
       </c>
       <c r="D63">
-        <v>0.08647598745967566</v>
+        <v>0.08647598745967557</v>
       </c>
       <c r="E63">
-        <v>0.09527948065550852</v>
+        <v>0.09527948065550836</v>
       </c>
       <c r="F63">
-        <v>0.1401453329825002</v>
+        <v>0.1401453329825</v>
       </c>
       <c r="G63">
-        <v>0.08985179832897656</v>
+        <v>0.08985179832897647</v>
       </c>
       <c r="H63">
-        <v>0.1392779527688794</v>
+        <v>0.1392779527688793</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6318,22 +6380,48 @@
         <v>45658</v>
       </c>
       <c r="C68">
-        <v>0.05237068253928102</v>
+        <v>0.05237068174972755</v>
       </c>
       <c r="D68">
-        <v>0.07599860150008876</v>
+        <v>0.07599860203372077</v>
       </c>
       <c r="E68">
-        <v>0.09907328603935499</v>
+        <v>0.099073284260342</v>
       </c>
       <c r="F68">
-        <v>0.1436900402727626</v>
+        <v>0.1436900407009861</v>
       </c>
       <c r="G68">
-        <v>0.09776489856696111</v>
+        <v>0.09776489699763107</v>
       </c>
       <c r="H68">
-        <v>0.1494102959658966</v>
+        <v>0.1494102967317782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C69">
+        <v>0.04535142040686154</v>
+      </c>
+      <c r="D69">
+        <v>0.06972710290035516</v>
+      </c>
+      <c r="E69">
+        <v>0.07808586537512791</v>
+      </c>
+      <c r="F69">
+        <v>0.1277967699897478</v>
+      </c>
+      <c r="G69">
+        <v>0.08163407826878762</v>
+      </c>
+      <c r="H69">
+        <v>0.1329887370946928</v>
       </c>
     </row>
   </sheetData>
@@ -6348,7 +6436,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6695,40 +6783,40 @@
         <v>40360</v>
       </c>
       <c r="C10">
-        <v>0.01602011140139003</v>
+        <v>0.01602011140139005</v>
       </c>
       <c r="D10">
-        <v>0.02272244772660829</v>
+        <v>0.02272244772660831</v>
       </c>
       <c r="E10">
-        <v>0.01782100130454705</v>
+        <v>0.01782100130454707</v>
       </c>
       <c r="F10">
-        <v>0.03607001898987155</v>
+        <v>0.03607001898987159</v>
       </c>
       <c r="G10">
-        <v>0.04366303934578404</v>
+        <v>0.04366303934578403</v>
       </c>
       <c r="H10">
-        <v>0.05235172307096141</v>
+        <v>0.05235172307096139</v>
       </c>
       <c r="I10">
-        <v>0.04378017039639587</v>
+        <v>0.04378017039639586</v>
       </c>
       <c r="J10">
-        <v>0.07380573912865236</v>
+        <v>0.07380573912865232</v>
       </c>
       <c r="K10">
-        <v>0.04921456309874095</v>
+        <v>0.049214563098741</v>
       </c>
       <c r="L10">
-        <v>0.08359057426913875</v>
+        <v>0.08359057426913882</v>
       </c>
       <c r="M10">
-        <v>0.06213460602727099</v>
+        <v>0.06213460602727103</v>
       </c>
       <c r="N10">
-        <v>0.09684004827751459</v>
+        <v>0.09684004827751465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6786,13 +6874,13 @@
         <v>0.01063241692207374</v>
       </c>
       <c r="D12">
-        <v>0.02932001907853913</v>
+        <v>0.02932001907853914</v>
       </c>
       <c r="E12">
         <v>0.01850282334891482</v>
       </c>
       <c r="F12">
-        <v>0.03654700839038314</v>
+        <v>0.03654700839038315</v>
       </c>
       <c r="G12">
         <v>0.04255155608698553</v>
@@ -6983,16 +7071,16 @@
         <v>0.08926138167599065</v>
       </c>
       <c r="K16">
-        <v>0.05631739397683893</v>
+        <v>0.05631739397683894</v>
       </c>
       <c r="L16">
-        <v>0.08166097344238228</v>
+        <v>0.08166097344238227</v>
       </c>
       <c r="M16">
         <v>0.07302467374697397</v>
       </c>
       <c r="N16">
-        <v>0.1224766805656472</v>
+        <v>0.1224766805656471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7003,37 +7091,37 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.01043787073744133</v>
+        <v>0.01043787073744136</v>
       </c>
       <c r="D17">
-        <v>0.02306545121245319</v>
+        <v>0.02306545121245325</v>
       </c>
       <c r="E17">
-        <v>0.0229571101731727</v>
+        <v>0.02295711017317276</v>
       </c>
       <c r="F17">
-        <v>0.0501461332421844</v>
+        <v>0.05014613324218452</v>
       </c>
       <c r="G17">
-        <v>0.03247789690205669</v>
+        <v>0.03247789690205662</v>
       </c>
       <c r="H17">
-        <v>0.05408913669994222</v>
+        <v>0.0540891366999421</v>
       </c>
       <c r="I17">
-        <v>0.05416797642336228</v>
+        <v>0.05416797642336217</v>
       </c>
       <c r="J17">
-        <v>0.08916009753745412</v>
+        <v>0.08916009753745396</v>
       </c>
       <c r="K17">
-        <v>0.05710386599485046</v>
+        <v>0.05710386599485048</v>
       </c>
       <c r="L17">
-        <v>0.07806455091367609</v>
+        <v>0.07806455091367612</v>
       </c>
       <c r="M17">
-        <v>0.06829452893010927</v>
+        <v>0.06829452893010929</v>
       </c>
       <c r="N17">
         <v>0.1183526668680894</v>
@@ -7059,16 +7147,16 @@
         <v>0.04779552609656051</v>
       </c>
       <c r="G18">
-        <v>0.04031137231604417</v>
+        <v>0.04031137231604419</v>
       </c>
       <c r="H18">
-        <v>0.06305932217008844</v>
+        <v>0.06305932217008842</v>
       </c>
       <c r="I18">
-        <v>0.04431446405900648</v>
+        <v>0.04431446405900647</v>
       </c>
       <c r="J18">
-        <v>0.09108096437082466</v>
+        <v>0.09108096437082464</v>
       </c>
       <c r="K18">
         <v>0.04309725874788561</v>
@@ -7144,7 +7232,7 @@
         <v>0.02361558585031003</v>
       </c>
       <c r="F20">
-        <v>0.03967305484883777</v>
+        <v>0.03967305484883778</v>
       </c>
       <c r="G20">
         <v>0.04166538328066327</v>
@@ -7311,40 +7399,40 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.02363342663161629</v>
+        <v>0.0236334266316163</v>
       </c>
       <c r="D24">
-        <v>0.03395532470005566</v>
+        <v>0.03395532470005568</v>
       </c>
       <c r="E24">
-        <v>0.02551846893238081</v>
+        <v>0.02551846893238083</v>
       </c>
       <c r="F24">
-        <v>0.0621570161228853</v>
+        <v>0.06215701612288535</v>
       </c>
       <c r="G24">
-        <v>0.05293717395086284</v>
+        <v>0.0529371739508628</v>
       </c>
       <c r="H24">
-        <v>0.0585649520395505</v>
+        <v>0.05856495203955045</v>
       </c>
       <c r="I24">
-        <v>0.04858744643874133</v>
+        <v>0.04858744643874129</v>
       </c>
       <c r="J24">
-        <v>0.08735236388710714</v>
+        <v>0.08735236388710706</v>
       </c>
       <c r="K24">
-        <v>0.06760576077435629</v>
+        <v>0.0676057607743563</v>
       </c>
       <c r="L24">
-        <v>0.08671346521370187</v>
+        <v>0.08671346521370188</v>
       </c>
       <c r="M24">
-        <v>0.06847130007903299</v>
+        <v>0.06847130007903295</v>
       </c>
       <c r="N24">
-        <v>0.1103177704234229</v>
+        <v>0.1103177704234228</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7367,16 +7455,16 @@
         <v>0.05700352221715892</v>
       </c>
       <c r="G25">
-        <v>0.05086695888396824</v>
+        <v>0.05086695888396825</v>
       </c>
       <c r="H25">
-        <v>0.07487090658697408</v>
+        <v>0.07487090658697411</v>
       </c>
       <c r="I25">
-        <v>0.06849667541975815</v>
+        <v>0.06849667541975817</v>
       </c>
       <c r="J25">
-        <v>0.09549715125895973</v>
+        <v>0.09549715125895977</v>
       </c>
       <c r="K25">
         <v>0.0696724262512179</v>
@@ -7452,7 +7540,7 @@
         <v>0.03759034331635792</v>
       </c>
       <c r="F27">
-        <v>0.07143555026805827</v>
+        <v>0.07143555026805826</v>
       </c>
       <c r="G27">
         <v>0.04086681515547171</v>
@@ -7555,7 +7643,7 @@
         <v>0.08571732558627444</v>
       </c>
       <c r="K29">
-        <v>0.04342185973374151</v>
+        <v>0.0434218597337415</v>
       </c>
       <c r="L29">
         <v>0.07456327886015937</v>
@@ -7599,13 +7687,13 @@
         <v>0.09955245763120918</v>
       </c>
       <c r="K30">
-        <v>0.0737321054969358</v>
+        <v>0.07373210549693583</v>
       </c>
       <c r="L30">
-        <v>0.07772288258436581</v>
+        <v>0.07772288258436576</v>
       </c>
       <c r="M30">
-        <v>0.07096074606322152</v>
+        <v>0.07096074606322149</v>
       </c>
       <c r="N30">
         <v>0.1198427677709035</v>
@@ -7619,40 +7707,40 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.02139866416909453</v>
+        <v>0.02139866416909456</v>
       </c>
       <c r="D31">
-        <v>0.04496597762679367</v>
+        <v>0.04496597762679372</v>
       </c>
       <c r="E31">
-        <v>0.03601475924528764</v>
+        <v>0.03601475924528768</v>
       </c>
       <c r="F31">
-        <v>0.07801482750908958</v>
+        <v>0.07801482750908965</v>
       </c>
       <c r="G31">
-        <v>0.04376219132917269</v>
+        <v>0.04376219132917266</v>
       </c>
       <c r="H31">
-        <v>0.07384716957390659</v>
+        <v>0.07384716957390654</v>
       </c>
       <c r="I31">
-        <v>0.05472362584712071</v>
+        <v>0.05472362584712068</v>
       </c>
       <c r="J31">
-        <v>0.1047890113618477</v>
+        <v>0.1047890113618476</v>
       </c>
       <c r="K31">
-        <v>0.07272234513668811</v>
+        <v>0.07272234513668814</v>
       </c>
       <c r="L31">
-        <v>0.1084874830168321</v>
+        <v>0.1084874830168322</v>
       </c>
       <c r="M31">
-        <v>0.08403834387941145</v>
+        <v>0.08403834387941149</v>
       </c>
       <c r="N31">
-        <v>0.131401196042941</v>
+        <v>0.1314011960429411</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7663,7 +7751,7 @@
         <v>42370</v>
       </c>
       <c r="C32">
-        <v>0.02802417018297176</v>
+        <v>0.02802417018297177</v>
       </c>
       <c r="D32">
         <v>0.04246345173850997</v>
@@ -7672,19 +7760,19 @@
         <v>0.04166943422942914</v>
       </c>
       <c r="F32">
-        <v>0.06781689177080787</v>
+        <v>0.06781689177080784</v>
       </c>
       <c r="G32">
-        <v>0.05472729382132407</v>
+        <v>0.05472729382132408</v>
       </c>
       <c r="H32">
-        <v>0.06977520234666036</v>
+        <v>0.06977520234666035</v>
       </c>
       <c r="I32">
-        <v>0.0660555540672112</v>
+        <v>0.06605555406721117</v>
       </c>
       <c r="J32">
-        <v>0.09887094164217344</v>
+        <v>0.09887094164217347</v>
       </c>
       <c r="K32">
         <v>0.06795172830232289</v>
@@ -7710,13 +7798,13 @@
         <v>0.03463561488020499</v>
       </c>
       <c r="D33">
-        <v>0.04178408848527438</v>
+        <v>0.04178408848527439</v>
       </c>
       <c r="E33">
-        <v>0.03818613003094946</v>
+        <v>0.03818613003094945</v>
       </c>
       <c r="F33">
-        <v>0.05517913089285466</v>
+        <v>0.05517913089285464</v>
       </c>
       <c r="G33">
         <v>0.06453693066690029</v>
@@ -7819,13 +7907,13 @@
         <v>0.0939474106775525</v>
       </c>
       <c r="K35">
-        <v>0.0915620732392658</v>
+        <v>0.09156207323926578</v>
       </c>
       <c r="L35">
         <v>0.105184873057195</v>
       </c>
       <c r="M35">
-        <v>0.08794781171239191</v>
+        <v>0.08794781171239192</v>
       </c>
       <c r="N35">
         <v>0.1237655138589811</v>
@@ -7863,13 +7951,13 @@
         <v>0.11688583432936</v>
       </c>
       <c r="K36">
-        <v>0.07930858840201235</v>
+        <v>0.07930858840201233</v>
       </c>
       <c r="L36">
-        <v>0.1008259668488824</v>
+        <v>0.1008259668488823</v>
       </c>
       <c r="M36">
-        <v>0.09405940630228479</v>
+        <v>0.09405940630228482</v>
       </c>
       <c r="N36">
         <v>0.1401011874609039</v>
@@ -7883,16 +7971,16 @@
         <v>42826</v>
       </c>
       <c r="C37">
-        <v>0.03337209993691397</v>
+        <v>0.03337209993691399</v>
       </c>
       <c r="D37">
-        <v>0.04858943237380038</v>
+        <v>0.0485894323738004</v>
       </c>
       <c r="E37">
-        <v>0.04208056551979802</v>
+        <v>0.04208056551979804</v>
       </c>
       <c r="F37">
-        <v>0.06087318609332201</v>
+        <v>0.06087318609332204</v>
       </c>
       <c r="G37">
         <v>0.06594658064958563</v>
@@ -7901,19 +7989,19 @@
         <v>0.08208226359506371</v>
       </c>
       <c r="I37">
-        <v>0.06556684890768123</v>
+        <v>0.06556684890768122</v>
       </c>
       <c r="J37">
         <v>0.1009455903497532</v>
       </c>
       <c r="K37">
-        <v>0.07476679146407521</v>
+        <v>0.07476679146407524</v>
       </c>
       <c r="L37">
         <v>0.1051383926483301</v>
       </c>
       <c r="M37">
-        <v>0.08622586831251608</v>
+        <v>0.08622586831251611</v>
       </c>
       <c r="N37">
         <v>0.1228871708525722</v>
@@ -7930,37 +8018,37 @@
         <v>0.02937204771056788</v>
       </c>
       <c r="D38">
-        <v>0.04505173257072562</v>
+        <v>0.04505173257072564</v>
       </c>
       <c r="E38">
-        <v>0.04976070339128621</v>
+        <v>0.04976070339128622</v>
       </c>
       <c r="F38">
         <v>0.07108615342703746</v>
       </c>
       <c r="G38">
-        <v>0.06489991211517306</v>
+        <v>0.06489991211517315</v>
       </c>
       <c r="H38">
-        <v>0.08037308505119979</v>
+        <v>0.08037308505119992</v>
       </c>
       <c r="I38">
-        <v>0.07146163910796949</v>
+        <v>0.0714616391079696</v>
       </c>
       <c r="J38">
-        <v>0.1058620393133064</v>
+        <v>0.1058620393133065</v>
       </c>
       <c r="K38">
-        <v>0.07740678214130206</v>
+        <v>0.07740678214130217</v>
       </c>
       <c r="L38">
-        <v>0.1003785956999654</v>
+        <v>0.1003785956999655</v>
       </c>
       <c r="M38">
-        <v>0.09317166451916174</v>
+        <v>0.09317166451916188</v>
       </c>
       <c r="N38">
-        <v>0.1303488714542642</v>
+        <v>0.1303488714542644</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -8039,10 +8127,10 @@
         <v>0.09788018036134295</v>
       </c>
       <c r="K40">
-        <v>0.07383274962265651</v>
+        <v>0.07383274962265653</v>
       </c>
       <c r="L40">
-        <v>0.09289205209866255</v>
+        <v>0.09289205209866258</v>
       </c>
       <c r="M40">
         <v>0.08550347859693776</v>
@@ -8147,25 +8235,25 @@
         <v>43374</v>
       </c>
       <c r="C43">
-        <v>0.03445672784030001</v>
+        <v>0.0344567278403</v>
       </c>
       <c r="D43">
         <v>0.05197613911720193</v>
       </c>
       <c r="E43">
-        <v>0.04442144493853097</v>
+        <v>0.04442144493853096</v>
       </c>
       <c r="F43">
-        <v>0.07172399068886068</v>
+        <v>0.07172399068886064</v>
       </c>
       <c r="G43">
-        <v>0.07240816915976384</v>
+        <v>0.07240816915976382</v>
       </c>
       <c r="H43">
-        <v>0.09732324319823261</v>
+        <v>0.09732324319823264</v>
       </c>
       <c r="I43">
-        <v>0.08363009253237315</v>
+        <v>0.08363009253237316</v>
       </c>
       <c r="J43">
         <v>0.1100398079999327</v>
@@ -8191,40 +8279,40 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.03988386899589556</v>
+        <v>0.03988386899589564</v>
       </c>
       <c r="D44">
-        <v>0.05589107042511213</v>
+        <v>0.05589107042511225</v>
       </c>
       <c r="E44">
-        <v>0.0553440736679874</v>
+        <v>0.05534407366798751</v>
       </c>
       <c r="F44">
-        <v>0.06892541826744307</v>
+        <v>0.06892541826744322</v>
       </c>
       <c r="G44">
-        <v>0.06872263526140554</v>
+        <v>0.06872263526140532</v>
       </c>
       <c r="H44">
-        <v>0.0952820296895619</v>
+        <v>0.09528202968956159</v>
       </c>
       <c r="I44">
-        <v>0.08602776902806028</v>
+        <v>0.08602776902806</v>
       </c>
       <c r="J44">
-        <v>0.1155714115488727</v>
+        <v>0.1155714115488723</v>
       </c>
       <c r="K44">
-        <v>0.08272716983379719</v>
+        <v>0.08272716983379709</v>
       </c>
       <c r="L44">
-        <v>0.1117546288470896</v>
+        <v>0.1117546288470895</v>
       </c>
       <c r="M44">
-        <v>0.1007234393204842</v>
+        <v>0.1007234393204841</v>
       </c>
       <c r="N44">
-        <v>0.1458302814328102</v>
+        <v>0.1458302814328101</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8259,16 +8347,16 @@
         <v>0.1047460513455819</v>
       </c>
       <c r="K45">
-        <v>0.09417848763923237</v>
+        <v>0.09417848763923234</v>
       </c>
       <c r="L45">
         <v>0.1120295790034977</v>
       </c>
       <c r="M45">
-        <v>0.09775238405032012</v>
+        <v>0.09775238405032007</v>
       </c>
       <c r="N45">
-        <v>0.1375265885952524</v>
+        <v>0.1375265885952525</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -8329,10 +8417,10 @@
         <v>0.05787648210224183</v>
       </c>
       <c r="E47">
-        <v>0.06681884047565245</v>
+        <v>0.06681884047565244</v>
       </c>
       <c r="F47">
-        <v>0.07716937908750997</v>
+        <v>0.07716937908750998</v>
       </c>
       <c r="G47">
         <v>0.08540350393664857</v>
@@ -8367,25 +8455,25 @@
         <v>43831</v>
       </c>
       <c r="C48">
-        <v>0.04123595703891574</v>
+        <v>0.04123595703891573</v>
       </c>
       <c r="D48">
-        <v>0.06028323837259368</v>
+        <v>0.06028323837259367</v>
       </c>
       <c r="E48">
-        <v>0.04727372077732492</v>
+        <v>0.04727372077732494</v>
       </c>
       <c r="F48">
-        <v>0.07912233339847463</v>
+        <v>0.0791223333984747</v>
       </c>
       <c r="G48">
-        <v>0.06903904656950599</v>
+        <v>0.06903904656950602</v>
       </c>
       <c r="H48">
-        <v>0.1072397884115427</v>
+        <v>0.1072397884115429</v>
       </c>
       <c r="I48">
-        <v>0.06963055413039343</v>
+        <v>0.06963055413039346</v>
       </c>
       <c r="J48">
         <v>0.1156090830028267</v>
@@ -8446,16 +8534,16 @@
         <v>44013</v>
       </c>
       <c r="C50">
-        <v>0.01759364252370876</v>
+        <v>0.01759364252370875</v>
       </c>
       <c r="D50">
-        <v>0.03905136530864275</v>
+        <v>0.03905136530864273</v>
       </c>
       <c r="E50">
-        <v>0.03612452674575686</v>
+        <v>0.03612452674575684</v>
       </c>
       <c r="F50">
-        <v>0.05980596642257218</v>
+        <v>0.05980596642257214</v>
       </c>
       <c r="G50">
         <v>0.05082016702053585</v>
@@ -8470,16 +8558,16 @@
         <v>0.09357784540814232</v>
       </c>
       <c r="K50">
-        <v>0.03824999392620944</v>
+        <v>0.03824999392620941</v>
       </c>
       <c r="L50">
-        <v>0.07748398449287472</v>
+        <v>0.07748398449287466</v>
       </c>
       <c r="M50">
-        <v>0.06381165966458896</v>
+        <v>0.06381165966458892</v>
       </c>
       <c r="N50">
-        <v>0.08916151378387156</v>
+        <v>0.08916151378387151</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -8502,28 +8590,28 @@
         <v>0.05441103615732173</v>
       </c>
       <c r="G51">
-        <v>0.05791081118532831</v>
+        <v>0.05791081118532845</v>
       </c>
       <c r="H51">
-        <v>0.08031036936092249</v>
+        <v>0.08031036936092269</v>
       </c>
       <c r="I51">
-        <v>0.0573633471625697</v>
+        <v>0.05736334716256985</v>
       </c>
       <c r="J51">
-        <v>0.09748655916559551</v>
+        <v>0.09748655916559575</v>
       </c>
       <c r="K51">
-        <v>0.05231585857218827</v>
+        <v>0.0523158585721884</v>
       </c>
       <c r="L51">
-        <v>0.08047881016153596</v>
+        <v>0.08047881016153616</v>
       </c>
       <c r="M51">
-        <v>0.05103807806857062</v>
+        <v>0.05103807806857074</v>
       </c>
       <c r="N51">
-        <v>0.09128333014384483</v>
+        <v>0.09128333014384507</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -8558,16 +8646,16 @@
         <v>0.08663882119564427</v>
       </c>
       <c r="K52">
-        <v>0.04447486922526633</v>
+        <v>0.04447486922526631</v>
       </c>
       <c r="L52">
         <v>0.06572477455681182</v>
       </c>
       <c r="M52">
-        <v>0.04472796289564825</v>
+        <v>0.04472796289564826</v>
       </c>
       <c r="N52">
-        <v>0.08192584152540434</v>
+        <v>0.08192584152540436</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -8622,28 +8710,28 @@
         <v>44378</v>
       </c>
       <c r="C54">
-        <v>0.02402305038076595</v>
+        <v>0.02402305038076594</v>
       </c>
       <c r="D54">
-        <v>0.04030147679228754</v>
+        <v>0.04030147679228753</v>
       </c>
       <c r="E54">
-        <v>0.02807595736015964</v>
+        <v>0.02807595736015963</v>
       </c>
       <c r="F54">
         <v>0.04874129783551242</v>
       </c>
       <c r="G54">
-        <v>0.04554755559987797</v>
+        <v>0.04554755559987799</v>
       </c>
       <c r="H54">
-        <v>0.07462764271644093</v>
+        <v>0.07462764271644091</v>
       </c>
       <c r="I54">
-        <v>0.05411072473821647</v>
+        <v>0.05411072473821649</v>
       </c>
       <c r="J54">
-        <v>0.08578115019583196</v>
+        <v>0.08578115019583198</v>
       </c>
       <c r="K54">
         <v>0.03706291259050972</v>
@@ -8678,16 +8766,16 @@
         <v>0.04160331029001542</v>
       </c>
       <c r="G55">
-        <v>0.04731634226150078</v>
+        <v>0.0473163422615008</v>
       </c>
       <c r="H55">
-        <v>0.08149448859781833</v>
+        <v>0.0814944885978183</v>
       </c>
       <c r="I55">
-        <v>0.04765046223531402</v>
+        <v>0.04765046223531404</v>
       </c>
       <c r="J55">
-        <v>0.09043197008733705</v>
+        <v>0.09043197008733704</v>
       </c>
       <c r="K55">
         <v>0.03721480638535717</v>
@@ -8710,16 +8798,16 @@
         <v>44562</v>
       </c>
       <c r="C56">
-        <v>0.02564145812762759</v>
+        <v>0.02564145812762752</v>
       </c>
       <c r="D56">
-        <v>0.03868858161610261</v>
+        <v>0.0386885816161025</v>
       </c>
       <c r="E56">
-        <v>0.02696590146903532</v>
+        <v>0.02696590146903524</v>
       </c>
       <c r="F56">
-        <v>0.03481233182673034</v>
+        <v>0.03481233182673023</v>
       </c>
       <c r="G56">
         <v>0.0633042136780084</v>
@@ -8734,16 +8822,16 @@
         <v>0.07074516426894772</v>
       </c>
       <c r="K56">
-        <v>0.05869444261806819</v>
+        <v>0.05869444261806803</v>
       </c>
       <c r="L56">
-        <v>0.08357665211573451</v>
+        <v>0.08357665211573426</v>
       </c>
       <c r="M56">
-        <v>0.05360026396592343</v>
+        <v>0.05360026396592327</v>
       </c>
       <c r="N56">
-        <v>0.06439978073822904</v>
+        <v>0.06439978073822886</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -8910,16 +8998,16 @@
         <v>0.05912137190740881</v>
       </c>
       <c r="K60">
-        <v>0.05244677967008412</v>
+        <v>0.0524467796700841</v>
       </c>
       <c r="L60">
-        <v>0.07775415197427091</v>
+        <v>0.07775415197427095</v>
       </c>
       <c r="M60">
         <v>0.0517690736104891</v>
       </c>
       <c r="N60">
-        <v>0.06602016944426536</v>
+        <v>0.06602016944426534</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -8933,25 +9021,25 @@
         <v>0.02529074246864496</v>
       </c>
       <c r="D61">
-        <v>0.04573270217805263</v>
+        <v>0.04573270217805264</v>
       </c>
       <c r="E61">
         <v>0.02683706818478422</v>
       </c>
       <c r="F61">
-        <v>0.04363990477130327</v>
+        <v>0.04363990477130328</v>
       </c>
       <c r="G61">
-        <v>0.05291095195678933</v>
+        <v>0.05291095195678931</v>
       </c>
       <c r="H61">
-        <v>0.0735959425864063</v>
+        <v>0.07359594258640628</v>
       </c>
       <c r="I61">
         <v>0.0481937909298031</v>
       </c>
       <c r="J61">
-        <v>0.06418288881878256</v>
+        <v>0.06418288881878258</v>
       </c>
       <c r="K61">
         <v>0.04863979693958882</v>
@@ -8974,7 +9062,7 @@
         <v>45108</v>
       </c>
       <c r="C62">
-        <v>0.02077983175725133</v>
+        <v>0.02077983175725132</v>
       </c>
       <c r="D62">
         <v>0.03751690588938613</v>
@@ -8986,16 +9074,16 @@
         <v>0.03194337647738163</v>
       </c>
       <c r="G62">
-        <v>0.03993883359865155</v>
+        <v>0.03993883359865154</v>
       </c>
       <c r="H62">
-        <v>0.07645128072571281</v>
+        <v>0.07645128072571278</v>
       </c>
       <c r="I62">
-        <v>0.04657074787464908</v>
+        <v>0.04657074787464911</v>
       </c>
       <c r="J62">
-        <v>0.05695246301873011</v>
+        <v>0.05695246301873013</v>
       </c>
       <c r="K62">
         <v>0.04803687015148421</v>
@@ -9018,40 +9106,40 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.0294031787614839</v>
+        <v>0.02940317876148385</v>
       </c>
       <c r="D63">
-        <v>0.03980296819136629</v>
+        <v>0.03980296819136622</v>
       </c>
       <c r="E63">
-        <v>0.02698906665018337</v>
+        <v>0.02698906665018333</v>
       </c>
       <c r="F63">
-        <v>0.04423413692415445</v>
+        <v>0.04423413692415437</v>
       </c>
       <c r="G63">
-        <v>0.04989654597303032</v>
+        <v>0.04989654597303035</v>
       </c>
       <c r="H63">
-        <v>0.07165900323891027</v>
+        <v>0.07165900323891031</v>
       </c>
       <c r="I63">
-        <v>0.04747605331017443</v>
+        <v>0.04747605331017447</v>
       </c>
       <c r="J63">
-        <v>0.06639321111589352</v>
+        <v>0.06639321111589357</v>
       </c>
       <c r="K63">
-        <v>0.05140733692940996</v>
+        <v>0.0514073369294099</v>
       </c>
       <c r="L63">
-        <v>0.06848306883062774</v>
+        <v>0.06848306883062767</v>
       </c>
       <c r="M63">
-        <v>0.04635421071098805</v>
+        <v>0.04635421071098799</v>
       </c>
       <c r="N63">
-        <v>0.06288513462683046</v>
+        <v>0.06288513462683039</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -9238,40 +9326,84 @@
         <v>45658</v>
       </c>
       <c r="C68">
-        <v>0.02430574120423131</v>
+        <v>0.02430574129244773</v>
       </c>
       <c r="D68">
-        <v>0.03686188471140817</v>
+        <v>0.03686188546411179</v>
       </c>
       <c r="E68">
-        <v>0.02602777525454121</v>
+        <v>0.02602777434057381</v>
       </c>
       <c r="F68">
-        <v>0.04117388286918911</v>
+        <v>0.04117388268631505</v>
       </c>
       <c r="G68">
-        <v>0.04647349422193738</v>
+        <v>0.04647349428999108</v>
       </c>
       <c r="H68">
-        <v>0.07923969082609529</v>
+        <v>0.0792396917126834</v>
       </c>
       <c r="I68">
-        <v>0.04866723820861636</v>
+        <v>0.04866723691756569</v>
       </c>
       <c r="J68">
-        <v>0.06838290305546833</v>
+        <v>0.06838290204108817</v>
       </c>
       <c r="K68">
-        <v>0.04951307275037013</v>
+        <v>0.04951307263363419</v>
       </c>
       <c r="L68">
-        <v>0.07559261668619928</v>
+        <v>0.07559261741928204</v>
       </c>
       <c r="M68">
-        <v>0.04830416550658657</v>
+        <v>0.04830416434068802</v>
       </c>
       <c r="N68">
-        <v>0.07376533958970141</v>
+        <v>0.07376533933580526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C69">
+        <v>0.01645087275180452</v>
+      </c>
+      <c r="D69">
+        <v>0.03230921718764974</v>
+      </c>
+      <c r="E69">
+        <v>0.02852371334199129</v>
+      </c>
+      <c r="F69">
+        <v>0.03779472002577115</v>
+      </c>
+      <c r="G69">
+        <v>0.0358002614321251</v>
+      </c>
+      <c r="H69">
+        <v>0.06387640411918855</v>
+      </c>
+      <c r="I69">
+        <v>0.04550802242214304</v>
+      </c>
+      <c r="J69">
+        <v>0.06069794739141889</v>
+      </c>
+      <c r="K69">
+        <v>0.03732440226866305</v>
+      </c>
+      <c r="L69">
+        <v>0.06511992434686351</v>
+      </c>
+      <c r="M69">
+        <v>0.05314375319369857</v>
+      </c>
+      <c r="N69">
+        <v>0.05903473555425527</v>
       </c>
     </row>
   </sheetData>
@@ -9286,7 +9418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9795,19 +9927,19 @@
         <v>40360</v>
       </c>
       <c r="C10">
-        <v>0.0584010537890186</v>
+        <v>0.05840105378901866</v>
       </c>
       <c r="D10">
-        <v>0.009769217667071572</v>
+        <v>0.00976921766707158</v>
       </c>
       <c r="E10">
-        <v>0.009461260613171278</v>
+        <v>0.009461260613171285</v>
       </c>
       <c r="F10">
-        <v>0.0049888066639759</v>
+        <v>0.004988806663975905</v>
       </c>
       <c r="G10">
-        <v>0.01001324068917957</v>
+        <v>0.01001324068917958</v>
       </c>
       <c r="P10">
         <v>0.1245298286421534</v>
@@ -9816,7 +9948,7 @@
         <v>0.0227370891079348</v>
       </c>
       <c r="R10">
-        <v>0.02197768946313471</v>
+        <v>0.0219776894631347</v>
       </c>
       <c r="S10">
         <v>0.01157449998462655</v>
@@ -9825,19 +9957,19 @@
         <v>0.0327815647439442</v>
       </c>
       <c r="AC10">
-        <v>0.1719249560880568</v>
+        <v>0.1719249560880571</v>
       </c>
       <c r="AD10">
-        <v>0.02959071970685999</v>
+        <v>0.02959071970686002</v>
       </c>
       <c r="AE10">
-        <v>0.0309304060982329</v>
+        <v>0.03093040609823293</v>
       </c>
       <c r="AF10">
-        <v>0.01538613958995345</v>
+        <v>0.01538613958995347</v>
       </c>
       <c r="AG10">
-        <v>0.04394757018956191</v>
+        <v>0.04394757018956197</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -9907,7 +10039,7 @@
         <v>0.01130993921642587</v>
       </c>
       <c r="E12">
-        <v>0.009166657758597431</v>
+        <v>0.009166657758597433</v>
       </c>
       <c r="F12">
         <v>0.004124690571852233</v>
@@ -10143,16 +10275,16 @@
         <v>0.03626781370422389</v>
       </c>
       <c r="AC16">
-        <v>0.1809252397791828</v>
+        <v>0.1809252397791827</v>
       </c>
       <c r="AD16">
         <v>0.03166238542182696</v>
       </c>
       <c r="AE16">
-        <v>0.04627993561373742</v>
+        <v>0.04627993561373741</v>
       </c>
       <c r="AF16">
-        <v>0.02160196589766136</v>
+        <v>0.02160196589766135</v>
       </c>
       <c r="AG16">
         <v>0.05301019501943398</v>
@@ -10166,49 +10298,49 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.06450208391191518</v>
+        <v>0.0645020839119152</v>
       </c>
       <c r="D17">
-        <v>0.007913982301245051</v>
+        <v>0.007913982301245053</v>
       </c>
       <c r="E17">
         <v>0.01378779601772927</v>
       </c>
       <c r="F17">
-        <v>0.004294984674575051</v>
+        <v>0.004294984674575053</v>
       </c>
       <c r="G17">
-        <v>0.01610771845978715</v>
+        <v>0.01610771845978716</v>
       </c>
       <c r="P17">
-        <v>0.1335977261606481</v>
+        <v>0.1335977261606479</v>
       </c>
       <c r="Q17">
-        <v>0.02472261133440559</v>
+        <v>0.02472261133440555</v>
       </c>
       <c r="R17">
-        <v>0.02428110888325316</v>
+        <v>0.02428110888325312</v>
       </c>
       <c r="S17">
-        <v>0.01264233113294211</v>
+        <v>0.01264233113294209</v>
       </c>
       <c r="T17">
-        <v>0.03465133005156631</v>
+        <v>0.03465133005156625</v>
       </c>
       <c r="AC17">
-        <v>0.1709575821942264</v>
+        <v>0.1709575821942268</v>
       </c>
       <c r="AD17">
-        <v>0.03793818355311809</v>
+        <v>0.03793818355311818</v>
       </c>
       <c r="AE17">
-        <v>0.03596210403384714</v>
+        <v>0.03596210403384723</v>
       </c>
       <c r="AF17">
-        <v>0.01774605877679405</v>
+        <v>0.01774605877679409</v>
       </c>
       <c r="AG17">
-        <v>0.05921168414873949</v>
+        <v>0.05921168414873963</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -10325,7 +10457,7 @@
         <v>41275</v>
       </c>
       <c r="C20">
-        <v>0.06685722382046577</v>
+        <v>0.06685722382046579</v>
       </c>
       <c r="D20">
         <v>0.01366446745641111</v>
@@ -10537,7 +10669,7 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.08793833754158983</v>
+        <v>0.08793833754158982</v>
       </c>
       <c r="D24">
         <v>0.02285322575458035</v>
@@ -10552,34 +10684,34 @@
         <v>0.0139944892140584</v>
       </c>
       <c r="P24">
-        <v>0.1407737131306974</v>
+        <v>0.1407737131306973</v>
       </c>
       <c r="Q24">
-        <v>0.03058584957190246</v>
+        <v>0.03058584957190243</v>
       </c>
       <c r="R24">
-        <v>0.0292406931100995</v>
+        <v>0.02924069311009948</v>
       </c>
       <c r="S24">
-        <v>0.0133500194860297</v>
+        <v>0.01335001948602969</v>
       </c>
       <c r="T24">
-        <v>0.0334916610175329</v>
+        <v>0.03349166101753287</v>
       </c>
       <c r="AC24">
-        <v>0.177719681244513</v>
+        <v>0.1777196812445131</v>
       </c>
       <c r="AD24">
-        <v>0.04059247659460678</v>
+        <v>0.04059247659460679</v>
       </c>
       <c r="AE24">
-        <v>0.04186799487361681</v>
+        <v>0.04186799487361685</v>
       </c>
       <c r="AF24">
-        <v>0.02141614689149079</v>
+        <v>0.02141614689149081</v>
       </c>
       <c r="AG24">
-        <v>0.0515119968862869</v>
+        <v>0.05151199688628696</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -10605,10 +10737,10 @@
         <v>0.01631146571062431</v>
       </c>
       <c r="P25">
-        <v>0.1458419458550378</v>
+        <v>0.1458419458550377</v>
       </c>
       <c r="Q25">
-        <v>0.0290196453613231</v>
+        <v>0.02901964536132308</v>
       </c>
       <c r="R25">
         <v>0.04331244508337256</v>
@@ -10696,16 +10828,16 @@
         <v>41913</v>
       </c>
       <c r="C27">
-        <v>0.1239562809667341</v>
+        <v>0.123956280966734</v>
       </c>
       <c r="D27">
-        <v>0.01408031248481541</v>
+        <v>0.01408031248481542</v>
       </c>
       <c r="E27">
         <v>0.02376447857283551</v>
       </c>
       <c r="F27">
-        <v>0.007089008118816117</v>
+        <v>0.007089008118816116</v>
       </c>
       <c r="G27">
         <v>0.01245644476420217</v>
@@ -10832,10 +10964,10 @@
         <v>0.03585029501029993</v>
       </c>
       <c r="AC29">
-        <v>0.1752848702574074</v>
+        <v>0.1752848702574073</v>
       </c>
       <c r="AD29">
-        <v>0.03005248845633591</v>
+        <v>0.0300524884563359</v>
       </c>
       <c r="AE29">
         <v>0.02433360440047876</v>
@@ -10844,7 +10976,7 @@
         <v>0.01483193503979094</v>
       </c>
       <c r="AG29">
-        <v>0.04820815958728534</v>
+        <v>0.04820815958728533</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -10891,13 +11023,13 @@
         <v>0.02356484391112731</v>
       </c>
       <c r="AE30">
-        <v>0.03542405846183699</v>
+        <v>0.035424058461837</v>
       </c>
       <c r="AF30">
         <v>0.02207579892334343</v>
       </c>
       <c r="AG30">
-        <v>0.04812726020110394</v>
+        <v>0.04812726020110395</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -10914,43 +11046,43 @@
         <v>0.01095786849844598</v>
       </c>
       <c r="E31">
-        <v>0.01930082583917355</v>
+        <v>0.01930082583917356</v>
       </c>
       <c r="F31">
-        <v>0.00705052998691271</v>
+        <v>0.007050529986912713</v>
       </c>
       <c r="G31">
-        <v>0.01428751185064695</v>
+        <v>0.01428751185064696</v>
       </c>
       <c r="P31">
-        <v>0.1808150188515077</v>
+        <v>0.1808150188515076</v>
       </c>
       <c r="Q31">
-        <v>0.01668897126959976</v>
+        <v>0.01668897126959975</v>
       </c>
       <c r="R31">
-        <v>0.03447933313397591</v>
+        <v>0.03447933313397589</v>
       </c>
       <c r="S31">
         <v>0.01075969970040343</v>
       </c>
       <c r="T31">
-        <v>0.03437897515656104</v>
+        <v>0.03437897515656101</v>
       </c>
       <c r="AC31">
-        <v>0.2385636480990825</v>
+        <v>0.2385636480990828</v>
       </c>
       <c r="AD31">
-        <v>0.02484649559622065</v>
+        <v>0.02484649559622067</v>
       </c>
       <c r="AE31">
-        <v>0.0490633340346505</v>
+        <v>0.04906333403465055</v>
       </c>
       <c r="AF31">
-        <v>0.02509917354950883</v>
+        <v>0.02509917354950886</v>
       </c>
       <c r="AG31">
-        <v>0.05907671679641033</v>
+        <v>0.05907671679641039</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -10961,10 +11093,10 @@
         <v>42370</v>
       </c>
       <c r="C32">
-        <v>0.1016501093809877</v>
+        <v>0.1016501093809876</v>
       </c>
       <c r="D32">
-        <v>0.02040057789994212</v>
+        <v>0.02040057789994211</v>
       </c>
       <c r="E32">
         <v>0.02414335387942369</v>
@@ -10982,10 +11114,10 @@
         <v>0.1452100397371293</v>
       </c>
       <c r="Q32">
-        <v>0.03242502392352352</v>
+        <v>0.03242502392352353</v>
       </c>
       <c r="R32">
-        <v>0.04116323044557089</v>
+        <v>0.0411632304455709</v>
       </c>
       <c r="S32">
         <v>0.0200807581743125</v>
@@ -11023,7 +11155,7 @@
         <v>42461</v>
       </c>
       <c r="C33">
-        <v>0.09531203693056055</v>
+        <v>0.09531203693056058</v>
       </c>
       <c r="D33">
         <v>0.02025489725511238</v>
@@ -11186,7 +11318,7 @@
         <v>0.2074664568930495</v>
       </c>
       <c r="AD35">
-        <v>0.0371749427012418</v>
+        <v>0.03717494270124179</v>
       </c>
       <c r="AE35">
         <v>0.05154003654266295</v>
@@ -11245,19 +11377,19 @@
         <v>0.009120250216426396</v>
       </c>
       <c r="AC36">
-        <v>0.2138687414857019</v>
+        <v>0.2138687414857018</v>
       </c>
       <c r="AD36">
-        <v>0.03712391123755336</v>
+        <v>0.03712391123755334</v>
       </c>
       <c r="AE36">
-        <v>0.04916634248778039</v>
+        <v>0.04916634248778038</v>
       </c>
       <c r="AF36">
-        <v>0.02469099466676904</v>
+        <v>0.02469099466676905</v>
       </c>
       <c r="AH36">
-        <v>0.07519656348218443</v>
+        <v>0.07519656348218441</v>
       </c>
       <c r="AI36">
         <v>0.01424859565409449</v>
@@ -11271,28 +11403,28 @@
         <v>42826</v>
       </c>
       <c r="C37">
-        <v>0.1173514913256899</v>
+        <v>0.11735149132569</v>
       </c>
       <c r="D37">
-        <v>0.01898401526823574</v>
+        <v>0.01898401526823575</v>
       </c>
       <c r="E37">
-        <v>0.0159031827196215</v>
+        <v>0.01590318271962151</v>
       </c>
       <c r="F37">
-        <v>0.007868970488141704</v>
+        <v>0.007868970488141707</v>
       </c>
       <c r="H37">
-        <v>0.0193745433836136</v>
+        <v>0.01937454338361361</v>
       </c>
       <c r="I37">
-        <v>0.00543308073853188</v>
+        <v>0.005433080738531883</v>
       </c>
       <c r="P37">
-        <v>0.1767183292515956</v>
+        <v>0.1767183292515955</v>
       </c>
       <c r="Q37">
-        <v>0.02926567002082481</v>
+        <v>0.0292656700208248</v>
       </c>
       <c r="R37">
         <v>0.03068784431801094</v>
@@ -11301,28 +11433,28 @@
         <v>0.01903784836759241</v>
       </c>
       <c r="U37">
-        <v>0.050887088282607</v>
+        <v>0.05088708828260699</v>
       </c>
       <c r="V37">
-        <v>0.007944503261452957</v>
+        <v>0.007944503261452955</v>
       </c>
       <c r="AC37">
-        <v>0.2115540074826618</v>
+        <v>0.2115540074826619</v>
       </c>
       <c r="AD37">
-        <v>0.03460646531334525</v>
+        <v>0.03460646531334527</v>
       </c>
       <c r="AE37">
-        <v>0.04065711088792016</v>
+        <v>0.04065711088792017</v>
       </c>
       <c r="AF37">
-        <v>0.02688823447690269</v>
+        <v>0.02688823447690271</v>
       </c>
       <c r="AH37">
-        <v>0.06269976763148032</v>
+        <v>0.06269976763148034</v>
       </c>
       <c r="AI37">
-        <v>0.01261263748518322</v>
+        <v>0.01261263748518323</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -11333,40 +11465,40 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.1189640901503914</v>
+        <v>0.1189640901503916</v>
       </c>
       <c r="D38">
-        <v>0.01278613147198067</v>
+        <v>0.01278613147198069</v>
       </c>
       <c r="E38">
-        <v>0.02004488183133299</v>
+        <v>0.02004488183133302</v>
       </c>
       <c r="F38">
-        <v>0.01309016009300311</v>
+        <v>0.01309016009300313</v>
       </c>
       <c r="H38">
-        <v>0.02785670279240076</v>
+        <v>0.0278567027924008</v>
       </c>
       <c r="I38">
-        <v>0.002528670760508199</v>
+        <v>0.002528670760508202</v>
       </c>
       <c r="P38">
-        <v>0.1767450166940212</v>
+        <v>0.1767450166940215</v>
       </c>
       <c r="Q38">
-        <v>0.02178554067714292</v>
+        <v>0.02178554067714295</v>
       </c>
       <c r="R38">
-        <v>0.03777423507427285</v>
+        <v>0.0377742350742729</v>
       </c>
       <c r="S38">
-        <v>0.02067442332875455</v>
+        <v>0.02067442332875458</v>
       </c>
       <c r="U38">
-        <v>0.05800524619647968</v>
+        <v>0.05800524619647977</v>
       </c>
       <c r="V38">
-        <v>0.007612213616977438</v>
+        <v>0.00761221361697745</v>
       </c>
       <c r="AC38">
         <v>0.2188795374800069</v>
@@ -11493,19 +11625,19 @@
         <v>0.0114278400702766</v>
       </c>
       <c r="AC40">
-        <v>0.1921235175208453</v>
+        <v>0.1921235175208455</v>
       </c>
       <c r="AD40">
         <v>0.03552136387094913</v>
       </c>
       <c r="AE40">
-        <v>0.04711781456225197</v>
+        <v>0.04711781456225195</v>
       </c>
       <c r="AF40">
-        <v>0.02817460040596873</v>
+        <v>0.02817460040596874</v>
       </c>
       <c r="AH40">
-        <v>0.06367255808463937</v>
+        <v>0.06367255808463936</v>
       </c>
       <c r="AI40">
         <v>0.01680483505500919</v>
@@ -11661,19 +11793,19 @@
         <v>0.006949908976621139</v>
       </c>
       <c r="P43">
-        <v>0.2145177631015529</v>
+        <v>0.214517763101553</v>
       </c>
       <c r="Q43">
         <v>0.02452722148634576</v>
       </c>
       <c r="R43">
-        <v>0.03003365562810537</v>
+        <v>0.03003365562810536</v>
       </c>
       <c r="S43">
         <v>0.02328406072952071</v>
       </c>
       <c r="U43">
-        <v>0.05468562769175579</v>
+        <v>0.05468562769175578</v>
       </c>
       <c r="V43">
         <v>0.01635298425302173</v>
@@ -11705,58 +11837,58 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.1304551974884446</v>
+        <v>0.1304551974884444</v>
       </c>
       <c r="D44">
-        <v>0.01566846990331824</v>
+        <v>0.01566846990331823</v>
       </c>
       <c r="E44">
-        <v>0.0206360939944653</v>
+        <v>0.02063609399446528</v>
       </c>
       <c r="F44">
-        <v>0.01353981713030842</v>
+        <v>0.01353981713030841</v>
       </c>
       <c r="H44">
-        <v>0.03494805169080595</v>
+        <v>0.03494805169080592</v>
       </c>
       <c r="I44">
-        <v>0.004796801149095453</v>
+        <v>0.004796801149095449</v>
       </c>
       <c r="P44">
-        <v>0.2056035923146087</v>
+        <v>0.2056035923146081</v>
       </c>
       <c r="Q44">
-        <v>0.02725491265040812</v>
+        <v>0.02725491265040804</v>
       </c>
       <c r="R44">
-        <v>0.03677227025947381</v>
+        <v>0.0367722702594737</v>
       </c>
       <c r="S44">
-        <v>0.0210380796742034</v>
+        <v>0.02103807967420334</v>
       </c>
       <c r="U44">
-        <v>0.06338526094692923</v>
+        <v>0.06338526094692903</v>
       </c>
       <c r="V44">
-        <v>0.01154972968227699</v>
+        <v>0.01154972968227695</v>
       </c>
       <c r="AC44">
-        <v>0.2412800629656864</v>
+        <v>0.2412800629656869</v>
       </c>
       <c r="AD44">
-        <v>0.03072174129651126</v>
+        <v>0.03072174129651133</v>
       </c>
       <c r="AE44">
-        <v>0.05133287084088349</v>
+        <v>0.0513328708408836</v>
       </c>
       <c r="AF44">
-        <v>0.03096005315685949</v>
+        <v>0.03096005315685955</v>
       </c>
       <c r="AH44">
-        <v>0.07285405530675047</v>
+        <v>0.07285405530675064</v>
       </c>
       <c r="AI44">
-        <v>0.01388673586749013</v>
+        <v>0.01388673586749016</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -11809,13 +11941,13 @@
         <v>0.02404488452366874</v>
       </c>
       <c r="AE45">
-        <v>0.04850080611134298</v>
+        <v>0.048500806111343</v>
       </c>
       <c r="AF45">
-        <v>0.02774512042498069</v>
+        <v>0.0277451204249807</v>
       </c>
       <c r="AH45">
-        <v>0.07919090689065623</v>
+        <v>0.07919090689065622</v>
       </c>
       <c r="AI45">
         <v>0.01567615724935837</v>
@@ -11953,7 +12085,7 @@
         <v>43831</v>
       </c>
       <c r="C48">
-        <v>0.1648818735773677</v>
+        <v>0.1648818735773675</v>
       </c>
       <c r="D48">
         <v>0.01135343931601266</v>
@@ -11974,19 +12106,19 @@
         <v>0.2552340262630018</v>
       </c>
       <c r="Q48">
-        <v>0.01620445077743044</v>
+        <v>0.01620445077743043</v>
       </c>
       <c r="R48">
-        <v>0.02343437897733583</v>
+        <v>0.02343437897733584</v>
       </c>
       <c r="S48">
         <v>0.01451604753924279</v>
       </c>
       <c r="U48">
-        <v>0.04556098063000674</v>
+        <v>0.04556098063000671</v>
       </c>
       <c r="V48">
-        <v>0.006568587927251494</v>
+        <v>0.006568587927251495</v>
       </c>
       <c r="AC48">
         <v>0.3245569962705752</v>
@@ -12053,22 +12185,22 @@
         <v>44013</v>
       </c>
       <c r="C50">
-        <v>0.0389630682882514</v>
+        <v>0.03896306828825137</v>
       </c>
       <c r="D50">
-        <v>0.02618160864550534</v>
+        <v>0.02618160864550532</v>
       </c>
       <c r="E50">
-        <v>0.02132899532238657</v>
+        <v>0.02132899532238655</v>
       </c>
       <c r="F50">
-        <v>0.01621397911085306</v>
+        <v>0.01621397911085305</v>
       </c>
       <c r="H50">
-        <v>0.04811585908715126</v>
+        <v>0.04811585908715123</v>
       </c>
       <c r="I50">
-        <v>0.001771990546532916</v>
+        <v>0.001771990546532915</v>
       </c>
       <c r="P50">
         <v>0.05474824914000039</v>
@@ -12089,22 +12221,22 @@
         <v>0.01088795544252123</v>
       </c>
       <c r="AC50">
-        <v>0.06043819409140141</v>
+        <v>0.06043819409140137</v>
       </c>
       <c r="AD50">
-        <v>0.03463069593832568</v>
+        <v>0.03463069593832566</v>
       </c>
       <c r="AE50">
-        <v>0.03667403449625417</v>
+        <v>0.03667403449625414</v>
       </c>
       <c r="AF50">
-        <v>0.02905790797310455</v>
+        <v>0.02905790797310453</v>
       </c>
       <c r="AH50">
-        <v>0.1003856374494257</v>
+        <v>0.1003856374494256</v>
       </c>
       <c r="AI50">
-        <v>0.007520681919033225</v>
+        <v>0.007520681919033221</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -12115,40 +12247,40 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.04015210043639654</v>
+        <v>0.04015210043639664</v>
       </c>
       <c r="D51">
-        <v>0.01417126951007104</v>
+        <v>0.01417126951007108</v>
       </c>
       <c r="E51">
-        <v>0.02112177448436268</v>
+        <v>0.02112177448436273</v>
       </c>
       <c r="F51">
-        <v>0.02387570024470275</v>
+        <v>0.02387570024470281</v>
       </c>
       <c r="H51">
-        <v>0.04660423382848512</v>
+        <v>0.04660423382848524</v>
       </c>
       <c r="I51">
-        <v>0.006935203517173381</v>
+        <v>0.006935203517173399</v>
       </c>
       <c r="P51">
-        <v>0.05566217503994353</v>
+        <v>0.05566217503994367</v>
       </c>
       <c r="Q51">
-        <v>0.02507279996548231</v>
+        <v>0.02507279996548237</v>
       </c>
       <c r="R51">
-        <v>0.04584274885962188</v>
+        <v>0.045842748859622</v>
       </c>
       <c r="S51">
-        <v>0.04762057990718283</v>
+        <v>0.04762057990718295</v>
       </c>
       <c r="U51">
-        <v>0.1049650837182986</v>
+        <v>0.1049650837182989</v>
       </c>
       <c r="V51">
-        <v>0.01390769938388674</v>
+        <v>0.01390769938388677</v>
       </c>
       <c r="AC51">
         <v>0.05204154891964612</v>
@@ -12213,19 +12345,19 @@
         <v>0.01078137755645511</v>
       </c>
       <c r="AC52">
-        <v>0.03992368783643623</v>
+        <v>0.03992368783643621</v>
       </c>
       <c r="AD52">
-        <v>0.02151045164230834</v>
+        <v>0.02151045164230833</v>
       </c>
       <c r="AE52">
-        <v>0.03690416012242785</v>
+        <v>0.03690416012242784</v>
       </c>
       <c r="AF52">
-        <v>0.03898643394107899</v>
+        <v>0.03898643394107901</v>
       </c>
       <c r="AH52">
-        <v>0.08931036742943135</v>
+        <v>0.08931036742943131</v>
       </c>
       <c r="AI52">
         <v>0.01021834723144803</v>
@@ -12313,13 +12445,13 @@
         <v>0.01890763720590064</v>
       </c>
       <c r="H54">
-        <v>0.05250622164523374</v>
+        <v>0.05250622164523376</v>
       </c>
       <c r="I54">
         <v>0.006668526542654889</v>
       </c>
       <c r="P54">
-        <v>0.044440972345257</v>
+        <v>0.04444097234525701</v>
       </c>
       <c r="Q54">
         <v>0.02921785903800772</v>
@@ -12328,7 +12460,7 @@
         <v>0.03309356451242886</v>
       </c>
       <c r="S54">
-        <v>0.0366734493504276</v>
+        <v>0.03667344935042762</v>
       </c>
       <c r="U54">
         <v>0.1043683285900429</v>
@@ -12381,19 +12513,19 @@
         <v>0.003849684114370066</v>
       </c>
       <c r="P55">
-        <v>0.03814755123271057</v>
+        <v>0.03814755123271056</v>
       </c>
       <c r="Q55">
         <v>0.02905964914034773</v>
       </c>
       <c r="R55">
-        <v>0.04647611346892848</v>
+        <v>0.04647611346892847</v>
       </c>
       <c r="S55">
-        <v>0.04506346006977974</v>
+        <v>0.04506346006977976</v>
       </c>
       <c r="U55">
-        <v>0.09630869607792736</v>
+        <v>0.09630869607792727</v>
       </c>
       <c r="V55">
         <v>0.01183779319227635</v>
@@ -12425,22 +12557,22 @@
         <v>44562</v>
       </c>
       <c r="J56">
-        <v>0.009366207986253232</v>
+        <v>0.009366207986253205</v>
       </c>
       <c r="K56">
-        <v>0.02127415302234876</v>
+        <v>0.0212741530223487</v>
       </c>
       <c r="L56">
-        <v>0.03275136845838669</v>
+        <v>0.0327513684583866</v>
       </c>
       <c r="M56">
-        <v>0.01346607800532125</v>
+        <v>0.01346607800532121</v>
       </c>
       <c r="N56">
-        <v>0.01998112447090371</v>
+        <v>0.01998112447090365</v>
       </c>
       <c r="O56">
-        <v>0.02926934109628218</v>
+        <v>0.0292693410962821</v>
       </c>
       <c r="W56">
         <v>0.01985436653246697</v>
@@ -12461,22 +12593,22 @@
         <v>0.04696769906884739</v>
       </c>
       <c r="AJ56">
-        <v>0.01987301776487348</v>
+        <v>0.01987301776487342</v>
       </c>
       <c r="AK56">
-        <v>0.05097235558634289</v>
+        <v>0.05097235558634275</v>
       </c>
       <c r="AL56">
-        <v>0.0632660577377397</v>
+        <v>0.06326605773773954</v>
       </c>
       <c r="AM56">
-        <v>0.02856921991435526</v>
+        <v>0.02856921991435518</v>
       </c>
       <c r="AN56">
-        <v>0.05033370393549277</v>
+        <v>0.05033370393549263</v>
       </c>
       <c r="AO56">
-        <v>0.04725678449915116</v>
+        <v>0.04725678449915103</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -12712,10 +12844,10 @@
         <v>0.01919845119806867</v>
       </c>
       <c r="AK60">
-        <v>0.03808169745443195</v>
+        <v>0.03808169745443194</v>
       </c>
       <c r="AL60">
-        <v>0.06308167496896677</v>
+        <v>0.06308167496896673</v>
       </c>
       <c r="AM60">
         <v>0.0296298488226328</v>
@@ -12724,7 +12856,7 @@
         <v>0.06089898067218719</v>
       </c>
       <c r="AO60">
-        <v>0.0370995215828221</v>
+        <v>0.03709952158282211</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -12738,7 +12870,7 @@
         <v>0.01440825070619869</v>
       </c>
       <c r="K61">
-        <v>0.02344617443620015</v>
+        <v>0.02344617443620016</v>
       </c>
       <c r="L61">
         <v>0.03395073894369263</v>
@@ -12753,19 +12885,19 @@
         <v>0.02480673765120712</v>
       </c>
       <c r="W61">
-        <v>0.02108881655964029</v>
+        <v>0.0210888165596403</v>
       </c>
       <c r="X61">
-        <v>0.03801733508155439</v>
+        <v>0.0380173350815544</v>
       </c>
       <c r="Y61">
-        <v>0.05995013464103876</v>
+        <v>0.05995013464103879</v>
       </c>
       <c r="Z61">
-        <v>0.03130050875969388</v>
+        <v>0.03130050875969387</v>
       </c>
       <c r="AA61">
-        <v>0.05255239859771333</v>
+        <v>0.05255239859771331</v>
       </c>
       <c r="AB61">
         <v>0.03597438065214063</v>
@@ -12797,7 +12929,7 @@
         <v>45108</v>
       </c>
       <c r="J62">
-        <v>0.00970275025914295</v>
+        <v>0.009702750259142951</v>
       </c>
       <c r="K62">
         <v>0.01787490346205346</v>
@@ -12809,28 +12941,28 @@
         <v>0.01448760891001</v>
       </c>
       <c r="N62">
-        <v>0.02714328991275903</v>
+        <v>0.02714328991275902</v>
       </c>
       <c r="O62">
         <v>0.01532478623316799</v>
       </c>
       <c r="W62">
-        <v>0.01394817404416175</v>
+        <v>0.01394817404416176</v>
       </c>
       <c r="X62">
-        <v>0.0374766947729775</v>
+        <v>0.03747669477297749</v>
       </c>
       <c r="Y62">
-        <v>0.05483089666980134</v>
+        <v>0.05483089666980136</v>
       </c>
       <c r="Z62">
         <v>0.02655628540947065</v>
       </c>
       <c r="AA62">
-        <v>0.05549504510033597</v>
+        <v>0.055495045100336</v>
       </c>
       <c r="AB62">
-        <v>0.03160622922099632</v>
+        <v>0.03160622922099631</v>
       </c>
       <c r="AJ62">
         <v>0.01425763310280081</v>
@@ -12859,58 +12991,58 @@
         <v>45200</v>
       </c>
       <c r="J63">
-        <v>0.01024565585970227</v>
+        <v>0.01024565585970226</v>
       </c>
       <c r="K63">
-        <v>0.03131766339118452</v>
+        <v>0.03131766339118448</v>
       </c>
       <c r="L63">
-        <v>0.04185583727103551</v>
+        <v>0.04185583727103546</v>
       </c>
       <c r="M63">
-        <v>0.0176403200101094</v>
+        <v>0.01764032001010938</v>
       </c>
       <c r="N63">
-        <v>0.02222108232261466</v>
+        <v>0.02222108232261463</v>
       </c>
       <c r="O63">
-        <v>0.01714879167254161</v>
+        <v>0.0171487916725416</v>
       </c>
       <c r="W63">
-        <v>0.01659239124786225</v>
+        <v>0.01659239124786226</v>
       </c>
       <c r="X63">
-        <v>0.03817024551911027</v>
+        <v>0.03817024551911029</v>
       </c>
       <c r="Y63">
-        <v>0.06607640236835589</v>
+        <v>0.06607640236835594</v>
       </c>
       <c r="Z63">
-        <v>0.03189106419617249</v>
+        <v>0.03189106419617251</v>
       </c>
       <c r="AA63">
-        <v>0.0505440491551373</v>
+        <v>0.05054404915513733</v>
       </c>
       <c r="AB63">
-        <v>0.03215066115137031</v>
+        <v>0.03215066115137033</v>
       </c>
       <c r="AJ63">
-        <v>0.01781562619072101</v>
+        <v>0.01781562619072098</v>
       </c>
       <c r="AK63">
-        <v>0.04028457988610144</v>
+        <v>0.04028457988610137</v>
       </c>
       <c r="AL63">
-        <v>0.05855211677315923</v>
+        <v>0.05855211677315914</v>
       </c>
       <c r="AM63">
-        <v>0.02768551643209684</v>
+        <v>0.02768551643209679</v>
       </c>
       <c r="AN63">
-        <v>0.05369216549415942</v>
+        <v>0.05369216549415932</v>
       </c>
       <c r="AO63">
-        <v>0.03109974632161826</v>
+        <v>0.03109974632161821</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -13169,58 +13301,120 @@
         <v>45658</v>
       </c>
       <c r="J68">
-        <v>0.01118167073815465</v>
+        <v>0.01118167110085132</v>
       </c>
       <c r="K68">
-        <v>0.02039512451560098</v>
+        <v>0.02039512428186329</v>
       </c>
       <c r="L68">
-        <v>0.03089968143241547</v>
+        <v>0.03089968135318439</v>
       </c>
       <c r="M68">
-        <v>0.01312917295750166</v>
+        <v>0.0131291722524971</v>
       </c>
       <c r="N68">
-        <v>0.03204773930162101</v>
+        <v>0.03204773936497188</v>
       </c>
       <c r="O68">
-        <v>0.02071589509407604</v>
+        <v>0.02071589543008037</v>
       </c>
       <c r="W68">
-        <v>0.01966647574867489</v>
+        <v>0.01966647570889893</v>
       </c>
       <c r="X68">
-        <v>0.03425972617571575</v>
+        <v>0.03425972618462243</v>
       </c>
       <c r="Y68">
-        <v>0.06030624268863367</v>
+        <v>0.06030624270322169</v>
       </c>
       <c r="Z68">
-        <v>0.0316166655669277</v>
+        <v>0.03161666430551526</v>
       </c>
       <c r="AA68">
-        <v>0.06359956390417931</v>
+        <v>0.0635995637406081</v>
       </c>
       <c r="AB68">
-        <v>0.03331465222798609</v>
+        <v>0.03331465231846185</v>
       </c>
       <c r="AJ68">
-        <v>0.01962432577161343</v>
+        <v>0.0196243257556485</v>
       </c>
       <c r="AK68">
-        <v>0.0391712959534507</v>
+        <v>0.03917129631207072</v>
       </c>
       <c r="AL68">
-        <v>0.06168248113960342</v>
+        <v>0.06168248172251588</v>
       </c>
       <c r="AM68">
-        <v>0.02609555090258339</v>
+        <v>0.02609554993790635</v>
       </c>
       <c r="AN68">
-        <v>0.06679404745185576</v>
+        <v>0.06679404707286812</v>
       </c>
       <c r="AO68">
-        <v>0.03380749331375085</v>
+        <v>0.03380749292839992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45748</v>
+      </c>
+      <c r="J69">
+        <v>0.007484752754241163</v>
+      </c>
+      <c r="K69">
+        <v>0.01765504561313198</v>
+      </c>
+      <c r="L69">
+        <v>0.02856294545620045</v>
+      </c>
+      <c r="M69">
+        <v>0.01463047127293729</v>
+      </c>
+      <c r="N69">
+        <v>0.02695827417000529</v>
+      </c>
+      <c r="O69">
+        <v>0.01978703404070053</v>
+      </c>
+      <c r="W69">
+        <v>0.01149896870560995</v>
+      </c>
+      <c r="X69">
+        <v>0.03224894062649746</v>
+      </c>
+      <c r="Y69">
+        <v>0.05635463222708439</v>
+      </c>
+      <c r="Z69">
+        <v>0.02675495580186253</v>
+      </c>
+      <c r="AA69">
+        <v>0.05069605846570356</v>
+      </c>
+      <c r="AB69">
+        <v>0.02832907953811772</v>
+      </c>
+      <c r="AJ69">
+        <v>0.01673601058268302</v>
+      </c>
+      <c r="AK69">
+        <v>0.03035132130433971</v>
+      </c>
+      <c r="AL69">
+        <v>0.05675547076518592</v>
+      </c>
+      <c r="AM69">
+        <v>0.03158905867705904</v>
+      </c>
+      <c r="AN69">
+        <v>0.04991726769800931</v>
+      </c>
+      <c r="AO69">
+        <v>0.02927368633620344</v>
       </c>
     </row>
   </sheetData>
@@ -13235,7 +13429,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13648,46 +13842,46 @@
         <v>40360</v>
       </c>
       <c r="C10">
-        <v>0.008514939333436465</v>
+        <v>0.008514939333436472</v>
       </c>
       <c r="D10">
-        <v>0.01721289593345392</v>
+        <v>0.01721289593345394</v>
       </c>
       <c r="E10">
-        <v>0.01534904809059304</v>
+        <v>0.01534904809059305</v>
       </c>
       <c r="F10">
-        <v>0.01444713900088188</v>
+        <v>0.01444713900088189</v>
       </c>
       <c r="G10">
-        <v>0.03710955706405163</v>
+        <v>0.03710955706405167</v>
       </c>
       <c r="H10">
-        <v>0.01584636700964914</v>
+        <v>0.01584636700964915</v>
       </c>
       <c r="I10">
-        <v>0.04909792009417331</v>
+        <v>0.04909792009417334</v>
       </c>
       <c r="J10">
-        <v>0.03733796261274469</v>
+        <v>0.03733796261274473</v>
       </c>
       <c r="K10">
-        <v>0.03471276294090686</v>
+        <v>0.03471276294090689</v>
       </c>
       <c r="L10">
-        <v>0.07660565928431944</v>
+        <v>0.0766056592843195</v>
       </c>
       <c r="M10">
-        <v>0.01904941319783871</v>
+        <v>0.01904941319783873</v>
       </c>
       <c r="N10">
-        <v>0.06985207812445846</v>
+        <v>0.06985207812445854</v>
       </c>
       <c r="O10">
-        <v>0.04894955409673167</v>
+        <v>0.04894955409673171</v>
       </c>
       <c r="P10">
-        <v>0.04893149639309564</v>
+        <v>0.04893149639309569</v>
       </c>
       <c r="Q10">
         <v>0.1049972498605408</v>
@@ -13996,10 +14190,10 @@
         <v>0.09435559237552241</v>
       </c>
       <c r="M16">
-        <v>0.02378538756988314</v>
+        <v>0.02378538756988315</v>
       </c>
       <c r="N16">
-        <v>0.08394310171504057</v>
+        <v>0.08394310171504056</v>
       </c>
       <c r="O16">
         <v>0.05094474620923117</v>
@@ -14019,46 +14213,46 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.006078796997376413</v>
+        <v>0.006078796997376415</v>
       </c>
       <c r="D17">
-        <v>0.02340013855445584</v>
+        <v>0.02340013855445585</v>
       </c>
       <c r="E17">
-        <v>0.02583399711294017</v>
+        <v>0.02583399711294018</v>
       </c>
       <c r="F17">
-        <v>0.01530762242791759</v>
+        <v>0.0153076224279176</v>
       </c>
       <c r="G17">
-        <v>0.03598601027256161</v>
+        <v>0.03598601027256162</v>
       </c>
       <c r="H17">
-        <v>0.02188183807439823</v>
+        <v>0.02188183807439824</v>
       </c>
       <c r="I17">
-        <v>0.06524317731206385</v>
+        <v>0.06524317731206386</v>
       </c>
       <c r="J17">
-        <v>0.04249918871381379</v>
+        <v>0.04249918871381381</v>
       </c>
       <c r="K17">
-        <v>0.03269152712035619</v>
+        <v>0.0326915271203562</v>
       </c>
       <c r="L17">
-        <v>0.06757937634218267</v>
+        <v>0.0675793763421827</v>
       </c>
       <c r="M17">
         <v>0.0286361134763028</v>
       </c>
       <c r="N17">
-        <v>0.0834124273784418</v>
+        <v>0.08341242737844183</v>
       </c>
       <c r="O17">
-        <v>0.06310687512906821</v>
+        <v>0.06310687512906824</v>
       </c>
       <c r="P17">
-        <v>0.04557698978745826</v>
+        <v>0.04557698978745827</v>
       </c>
       <c r="Q17">
         <v>0.1010832069354542</v>
@@ -14087,16 +14281,16 @@
         <v>0.03054469937672661</v>
       </c>
       <c r="H18">
-        <v>0.01967538772499247</v>
+        <v>0.01967538772499248</v>
       </c>
       <c r="I18">
-        <v>0.0569831452315671</v>
+        <v>0.05698314523156711</v>
       </c>
       <c r="J18">
-        <v>0.04271053167714618</v>
+        <v>0.04271053167714617</v>
       </c>
       <c r="K18">
-        <v>0.03526111075687051</v>
+        <v>0.03526111075687052</v>
       </c>
       <c r="L18">
         <v>0.08413594752538747</v>
@@ -14187,7 +14381,7 @@
         <v>0.01430231030014809</v>
       </c>
       <c r="F20">
-        <v>0.01915607616536588</v>
+        <v>0.01915607616536587</v>
       </c>
       <c r="G20">
         <v>0.03913197930976432</v>
@@ -14390,7 +14584,7 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.007373797253622008</v>
+        <v>0.007373797253622007</v>
       </c>
       <c r="D24">
         <v>0.03324425554630139</v>
@@ -14402,7 +14596,7 @@
         <v>0.01977141962880062</v>
       </c>
       <c r="G24">
-        <v>0.04610250284693552</v>
+        <v>0.04610250284693551</v>
       </c>
       <c r="H24">
         <v>0.01519074657956238</v>
@@ -14417,7 +14611,7 @@
         <v>0.03551192800779338</v>
       </c>
       <c r="L24">
-        <v>0.08521383860097644</v>
+        <v>0.08521383860097642</v>
       </c>
       <c r="M24">
         <v>0.02350807790258909</v>
@@ -14429,10 +14623,10 @@
         <v>0.06889723252796981</v>
       </c>
       <c r="P24">
-        <v>0.052961737237157</v>
+        <v>0.05296173723715698</v>
       </c>
       <c r="Q24">
-        <v>0.1048892841524008</v>
+        <v>0.1048892841524007</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -14464,7 +14658,7 @@
         <v>0.0680288927549076</v>
       </c>
       <c r="J25">
-        <v>0.04758492722681418</v>
+        <v>0.04758492722681416</v>
       </c>
       <c r="K25">
         <v>0.0451548743306151</v>
@@ -14552,7 +14746,7 @@
         <v>0.01418115111740176</v>
       </c>
       <c r="D27">
-        <v>0.05080490650482323</v>
+        <v>0.05080490650482322</v>
       </c>
       <c r="E27">
         <v>0.03089267268877068</v>
@@ -14561,7 +14755,7 @@
         <v>0.02813397849158987</v>
       </c>
       <c r="G27">
-        <v>0.0573338161048178</v>
+        <v>0.05733381610481779</v>
       </c>
       <c r="H27">
         <v>0.02595941689146366</v>
@@ -14738,16 +14932,16 @@
         <v>0.09199996684510169</v>
       </c>
       <c r="M30">
-        <v>0.01732538460900866</v>
+        <v>0.01732538460900867</v>
       </c>
       <c r="N30">
-        <v>0.07820655404077759</v>
+        <v>0.07820655404077764</v>
       </c>
       <c r="O30">
-        <v>0.06575884004663138</v>
+        <v>0.06575884004663135</v>
       </c>
       <c r="P30">
-        <v>0.05092153552035391</v>
+        <v>0.0509215355203539</v>
       </c>
       <c r="Q30">
         <v>0.1300461876986551</v>
@@ -14761,49 +14955,49 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.01739198654286126</v>
+        <v>0.01739198654286127</v>
       </c>
       <c r="D31">
-        <v>0.03039929739227183</v>
+        <v>0.03039929739227184</v>
       </c>
       <c r="E31">
-        <v>0.05087436251033511</v>
+        <v>0.05087436251033513</v>
       </c>
       <c r="F31">
-        <v>0.02490049532010884</v>
+        <v>0.02490049532010885</v>
       </c>
       <c r="G31">
-        <v>0.05682808678468835</v>
+        <v>0.05682808678468836</v>
       </c>
       <c r="H31">
-        <v>0.02805795087349647</v>
+        <v>0.02805795087349648</v>
       </c>
       <c r="I31">
-        <v>0.05528043432079809</v>
+        <v>0.05528043432079811</v>
       </c>
       <c r="J31">
-        <v>0.06201511686610058</v>
+        <v>0.0620151168661006</v>
       </c>
       <c r="K31">
-        <v>0.03971628748841681</v>
+        <v>0.03971628748841682</v>
       </c>
       <c r="L31">
-        <v>0.09205220856323541</v>
+        <v>0.09205220856323544</v>
       </c>
       <c r="M31">
-        <v>0.0370519614890271</v>
+        <v>0.03705196148902712</v>
       </c>
       <c r="N31">
-        <v>0.08605518262350027</v>
+        <v>0.0860551826235003</v>
       </c>
       <c r="O31">
-        <v>0.06984405796717534</v>
+        <v>0.06984405796717537</v>
       </c>
       <c r="P31">
-        <v>0.04624210317717054</v>
+        <v>0.04624210317717056</v>
       </c>
       <c r="Q31">
-        <v>0.1574560628189996</v>
+        <v>0.1574560628189997</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -14820,13 +15014,13 @@
         <v>0.04916598834854779</v>
       </c>
       <c r="E32">
-        <v>0.03829584739383101</v>
+        <v>0.03829584739383102</v>
       </c>
       <c r="F32">
         <v>0.02499494171876253</v>
       </c>
       <c r="G32">
-        <v>0.04927119213933641</v>
+        <v>0.04927119213933642</v>
       </c>
       <c r="H32">
         <v>0.02907240972318464</v>
@@ -14835,13 +15029,13 @@
         <v>0.07690872862759805</v>
       </c>
       <c r="J32">
-        <v>0.06706512462105442</v>
+        <v>0.06706512462105436</v>
       </c>
       <c r="K32">
-        <v>0.0460375656949823</v>
+        <v>0.04603756569498232</v>
       </c>
       <c r="L32">
-        <v>0.07034516321054968</v>
+        <v>0.0703451632105497</v>
       </c>
       <c r="M32">
         <v>0.03634721612650055</v>
@@ -14870,7 +15064,7 @@
         <v>0.01219760610836281</v>
       </c>
       <c r="D33">
-        <v>0.03707875812706066</v>
+        <v>0.03707875812706068</v>
       </c>
       <c r="E33">
         <v>0.03707522242945536</v>
@@ -15003,7 +15197,7 @@
         <v>0.08329062132117541</v>
       </c>
       <c r="M35">
-        <v>0.03596657565295267</v>
+        <v>0.03596657565295268</v>
       </c>
       <c r="N35">
         <v>0.102296610565964</v>
@@ -15012,7 +15206,7 @@
         <v>0.09103242790028246</v>
       </c>
       <c r="P35">
-        <v>0.07193570595980912</v>
+        <v>0.07193570595980914</v>
       </c>
       <c r="Q35">
         <v>0.1072289517888254</v>
@@ -15065,7 +15259,7 @@
         <v>0.1004122479781717</v>
       </c>
       <c r="P36">
-        <v>0.07943883344990474</v>
+        <v>0.07943883344990472</v>
       </c>
       <c r="Q36">
         <v>0.1021375028761774</v>
@@ -15079,46 +15273,46 @@
         <v>42826</v>
       </c>
       <c r="C37">
-        <v>0.01899463683929668</v>
+        <v>0.01899463683929669</v>
       </c>
       <c r="D37">
-        <v>0.03635787530551818</v>
+        <v>0.03635787530551819</v>
       </c>
       <c r="E37">
-        <v>0.04031571573256221</v>
+        <v>0.04031571573256223</v>
       </c>
       <c r="F37">
-        <v>0.0360714922360014</v>
+        <v>0.03607149223600142</v>
       </c>
       <c r="G37">
-        <v>0.05317556381045587</v>
+        <v>0.05317556381045589</v>
       </c>
       <c r="H37">
-        <v>0.02898679183254566</v>
+        <v>0.02898679183254567</v>
       </c>
       <c r="I37">
-        <v>0.06311981503937297</v>
+        <v>0.063119815039373</v>
       </c>
       <c r="J37">
-        <v>0.07253603931906165</v>
+        <v>0.07253603931906169</v>
       </c>
       <c r="K37">
-        <v>0.06674350345357802</v>
+        <v>0.06674350345357805</v>
       </c>
       <c r="L37">
-        <v>0.08315513385752527</v>
+        <v>0.08315513385752533</v>
       </c>
       <c r="M37">
-        <v>0.04087939865474512</v>
+        <v>0.04087939865474514</v>
       </c>
       <c r="N37">
-        <v>0.08303601438159146</v>
+        <v>0.08303601438159149</v>
       </c>
       <c r="O37">
-        <v>0.09554620045173493</v>
+        <v>0.09554620045173497</v>
       </c>
       <c r="P37">
-        <v>0.0686363039577803</v>
+        <v>0.06863630395778032</v>
       </c>
       <c r="Q37">
         <v>0.1009203058316418</v>
@@ -15132,49 +15326,49 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.01783140095120816</v>
+        <v>0.01783140095120819</v>
       </c>
       <c r="D38">
-        <v>0.04215197116738207</v>
+        <v>0.04215197116738214</v>
       </c>
       <c r="E38">
-        <v>0.04999701636455214</v>
+        <v>0.04999701636455221</v>
       </c>
       <c r="F38">
-        <v>0.03610863681884838</v>
+        <v>0.03610863681884844</v>
       </c>
       <c r="G38">
-        <v>0.04918161179762643</v>
+        <v>0.04918161179762652</v>
       </c>
       <c r="H38">
-        <v>0.02572717706358583</v>
+        <v>0.02572717706358587</v>
       </c>
       <c r="I38">
-        <v>0.07828265855839185</v>
+        <v>0.07828265855839196</v>
       </c>
       <c r="J38">
-        <v>0.07629765047990435</v>
+        <v>0.07629765047990447</v>
       </c>
       <c r="K38">
-        <v>0.06165737733952718</v>
+        <v>0.06165737733952727</v>
       </c>
       <c r="L38">
-        <v>0.08063181214623953</v>
+        <v>0.08063181214623964</v>
       </c>
       <c r="M38">
-        <v>0.03201679385087256</v>
+        <v>0.03201679385087261</v>
       </c>
       <c r="N38">
-        <v>0.1073937062731935</v>
+        <v>0.1073937062731937</v>
       </c>
       <c r="O38">
-        <v>0.09164750566983988</v>
+        <v>0.09164750566984002</v>
       </c>
       <c r="P38">
-        <v>0.07070311097141886</v>
+        <v>0.07070311097141897</v>
       </c>
       <c r="Q38">
-        <v>0.09954479704936857</v>
+        <v>0.09954479704936872</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -15271,16 +15465,16 @@
         <v>0.02917609253485907</v>
       </c>
       <c r="N40">
-        <v>0.09392520382357651</v>
+        <v>0.09392520382357654</v>
       </c>
       <c r="O40">
-        <v>0.09018339829458678</v>
+        <v>0.09018339829458689</v>
       </c>
       <c r="P40">
-        <v>0.06920115617798134</v>
+        <v>0.06920115617798132</v>
       </c>
       <c r="Q40">
-        <v>0.1009288386686601</v>
+        <v>0.10092883866866</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -15400,16 +15594,16 @@
         <v>0.01916292526943563</v>
       </c>
       <c r="D43">
-        <v>0.04409021687813476</v>
+        <v>0.04409021687813477</v>
       </c>
       <c r="E43">
         <v>0.0487154461361724</v>
       </c>
       <c r="F43">
-        <v>0.0413973100070117</v>
+        <v>0.04139731000701171</v>
       </c>
       <c r="G43">
-        <v>0.04921240429413911</v>
+        <v>0.04921240429413912</v>
       </c>
       <c r="H43">
         <v>0.03243347554288622</v>
@@ -15418,13 +15612,13 @@
         <v>0.08500234296556428</v>
       </c>
       <c r="J43">
-        <v>0.08577351825612536</v>
+        <v>0.08577351825612539</v>
       </c>
       <c r="K43">
-        <v>0.06623856292083251</v>
+        <v>0.06623856292083247</v>
       </c>
       <c r="L43">
-        <v>0.09395341320489391</v>
+        <v>0.09395341320489396</v>
       </c>
       <c r="M43">
         <v>0.03744657328386274</v>
@@ -15450,49 +15644,49 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.01815252964048415</v>
+        <v>0.01815252964048414</v>
       </c>
       <c r="D44">
-        <v>0.06111116958038256</v>
+        <v>0.0611111695803825</v>
       </c>
       <c r="E44">
-        <v>0.04248637032807005</v>
+        <v>0.04248637032807001</v>
       </c>
       <c r="F44">
-        <v>0.03796784456575015</v>
+        <v>0.03796784456575011</v>
       </c>
       <c r="G44">
-        <v>0.06032651724175124</v>
+        <v>0.06032651724175118</v>
       </c>
       <c r="H44">
-        <v>0.02370661724695699</v>
+        <v>0.02370661724695696</v>
       </c>
       <c r="I44">
-        <v>0.09317122132985516</v>
+        <v>0.09317122132985506</v>
       </c>
       <c r="J44">
-        <v>0.07487557373290615</v>
+        <v>0.07487557373290608</v>
       </c>
       <c r="K44">
-        <v>0.07146520861289518</v>
+        <v>0.07146520861289511</v>
       </c>
       <c r="L44">
-        <v>0.1023852246052862</v>
+        <v>0.1023852246052861</v>
       </c>
       <c r="M44">
-        <v>0.03194471287831609</v>
+        <v>0.03194471287831606</v>
       </c>
       <c r="N44">
-        <v>0.1199346169080687</v>
+        <v>0.1199346169080686</v>
       </c>
       <c r="O44">
-        <v>0.0904489483011294</v>
+        <v>0.09044894830112932</v>
       </c>
       <c r="P44">
-        <v>0.08190657382091918</v>
+        <v>0.08190657382091909</v>
       </c>
       <c r="Q44">
-        <v>0.1168006675257482</v>
+        <v>0.116800667525748</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -15536,13 +15730,13 @@
         <v>0.01695767772658834</v>
       </c>
       <c r="N45">
-        <v>0.1224347009068034</v>
+        <v>0.1224347009068035</v>
       </c>
       <c r="O45">
         <v>0.1017073640476295</v>
       </c>
       <c r="P45">
-        <v>0.08187136175710005</v>
+        <v>0.08187136175710007</v>
       </c>
       <c r="Q45">
         <v>0.1185159348501812</v>
@@ -15668,7 +15862,7 @@
         <v>0.06382306271363418</v>
       </c>
       <c r="E48">
-        <v>0.04800683880288738</v>
+        <v>0.04800683880288739</v>
       </c>
       <c r="F48">
         <v>0.05081559051789578</v>
@@ -15680,16 +15874,16 @@
         <v>0.01543137099749393</v>
       </c>
       <c r="I48">
-        <v>0.09541754639057531</v>
+        <v>0.09541754639057537</v>
       </c>
       <c r="J48">
-        <v>0.0843449361289947</v>
+        <v>0.08434493612899464</v>
       </c>
       <c r="K48">
         <v>0.08210453786103233</v>
       </c>
       <c r="L48">
-        <v>0.08422008073617272</v>
+        <v>0.08422008073617274</v>
       </c>
       <c r="M48">
         <v>0.02162593276998746</v>
@@ -15750,49 +15944,49 @@
         <v>44013</v>
       </c>
       <c r="C50">
-        <v>0.01207766152933731</v>
+        <v>0.0120776615293373</v>
       </c>
       <c r="D50">
-        <v>0.04077556969317023</v>
+        <v>0.0407755696931702</v>
       </c>
       <c r="E50">
-        <v>0.03795111991236787</v>
+        <v>0.03795111991236784</v>
       </c>
       <c r="F50">
-        <v>0.02191518706480153</v>
+        <v>0.02191518706480152</v>
       </c>
       <c r="G50">
-        <v>0.03985596280100361</v>
+        <v>0.03985596280100358</v>
       </c>
       <c r="H50">
-        <v>0.02543011897742039</v>
+        <v>0.02543011897742037</v>
       </c>
       <c r="I50">
-        <v>0.07841203508917717</v>
+        <v>0.07841203508917712</v>
       </c>
       <c r="J50">
-        <v>0.06504996553644206</v>
+        <v>0.06504996553644202</v>
       </c>
       <c r="K50">
-        <v>0.03971445388827417</v>
+        <v>0.03971445388827415</v>
       </c>
       <c r="L50">
-        <v>0.08112946505912907</v>
+        <v>0.08112946505912902</v>
       </c>
       <c r="M50">
-        <v>0.0256769447690737</v>
+        <v>0.02567694476907369</v>
       </c>
       <c r="N50">
-        <v>0.06554654521658908</v>
+        <v>0.06554654521658904</v>
       </c>
       <c r="O50">
-        <v>0.05923783994967794</v>
+        <v>0.0592378399496779</v>
       </c>
       <c r="P50">
-        <v>0.0480418099305453</v>
+        <v>0.04804180993054527</v>
       </c>
       <c r="Q50">
-        <v>0.07020401200165866</v>
+        <v>0.07020401200165861</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -15803,49 +15997,49 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.008527173909927627</v>
+        <v>0.008527173909927648</v>
       </c>
       <c r="D51">
-        <v>0.04472418465757463</v>
+        <v>0.04472418465757474</v>
       </c>
       <c r="E51">
-        <v>0.04063560726457569</v>
+        <v>0.04063560726457579</v>
       </c>
       <c r="F51">
-        <v>0.02034891474324312</v>
+        <v>0.02034891474324317</v>
       </c>
       <c r="G51">
-        <v>0.03862440144587045</v>
+        <v>0.03862440144587054</v>
       </c>
       <c r="H51">
-        <v>0.02239076172755081</v>
+        <v>0.02239076172755086</v>
       </c>
       <c r="I51">
-        <v>0.08709437160380772</v>
+        <v>0.08709437160380794</v>
       </c>
       <c r="J51">
-        <v>0.08134246726103493</v>
+        <v>0.08134246726103514</v>
       </c>
       <c r="K51">
-        <v>0.03396594609579896</v>
+        <v>0.03396594609579905</v>
       </c>
       <c r="L51">
-        <v>0.06827754018622356</v>
+        <v>0.06827754018622374</v>
       </c>
       <c r="M51">
-        <v>0.01927300354644668</v>
+        <v>0.01927300354644673</v>
       </c>
       <c r="N51">
-        <v>0.07516591902239285</v>
+        <v>0.07516591902239303</v>
       </c>
       <c r="O51">
-        <v>0.08010118812335468</v>
+        <v>0.08010118812335487</v>
       </c>
       <c r="P51">
-        <v>0.03297693471641788</v>
+        <v>0.03297693471641796</v>
       </c>
       <c r="Q51">
-        <v>0.06759903153752755</v>
+        <v>0.06759903153752772</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -15889,13 +16083,13 @@
         <v>0.02173699623386918</v>
       </c>
       <c r="N52">
-        <v>0.06658741495936936</v>
+        <v>0.06658741495936933</v>
       </c>
       <c r="O52">
         <v>0.0654802939876121</v>
       </c>
       <c r="P52">
-        <v>0.0306477719408437</v>
+        <v>0.03064777194084371</v>
       </c>
       <c r="Q52">
         <v>0.05240097108143642</v>
@@ -15965,31 +16159,31 @@
         <v>0.01419032766080458</v>
       </c>
       <c r="D54">
-        <v>0.04126658927694161</v>
+        <v>0.04126658927694159</v>
       </c>
       <c r="E54">
-        <v>0.03788626555409095</v>
+        <v>0.03788626555409094</v>
       </c>
       <c r="F54">
         <v>0.01487672756919076</v>
       </c>
       <c r="G54">
-        <v>0.03292187230769765</v>
+        <v>0.03292187230769764</v>
       </c>
       <c r="H54">
         <v>0.02248512523257253</v>
       </c>
       <c r="I54">
-        <v>0.07588505856561092</v>
+        <v>0.07588505856561094</v>
       </c>
       <c r="J54">
-        <v>0.06777776099301258</v>
+        <v>0.06777776099301261</v>
       </c>
       <c r="K54">
         <v>0.0284827354805902</v>
       </c>
       <c r="L54">
-        <v>0.06543639297858109</v>
+        <v>0.06543639297858107</v>
       </c>
       <c r="M54">
         <v>0.01853849061763292</v>
@@ -16033,16 +16227,16 @@
         <v>0.02483804799690869</v>
       </c>
       <c r="I55">
-        <v>0.07319398211469093</v>
+        <v>0.0731939821146909</v>
       </c>
       <c r="J55">
-        <v>0.0704016124252942</v>
+        <v>0.07040161242529422</v>
       </c>
       <c r="K55">
         <v>0.03523958163540741</v>
       </c>
       <c r="L55">
-        <v>0.06322003900966895</v>
+        <v>0.06322003900966894</v>
       </c>
       <c r="M55">
         <v>0.02226171175439078</v>
@@ -16068,49 +16262,49 @@
         <v>44562</v>
       </c>
       <c r="C56">
-        <v>0.01048923065369165</v>
+        <v>0.01048923065369162</v>
       </c>
       <c r="D56">
-        <v>0.03223915589187772</v>
+        <v>0.03223915589187763</v>
       </c>
       <c r="E56">
-        <v>0.03184591412194398</v>
+        <v>0.03184591412194389</v>
       </c>
       <c r="F56">
-        <v>0.01972198914036452</v>
+        <v>0.01972198914036447</v>
       </c>
       <c r="G56">
-        <v>0.03181198323161794</v>
+        <v>0.03181198323161785</v>
       </c>
       <c r="H56">
-        <v>0.02287107770798903</v>
+        <v>0.02287107770798896</v>
       </c>
       <c r="I56">
-        <v>0.07683125466322138</v>
+        <v>0.07683125466322116</v>
       </c>
       <c r="J56">
-        <v>0.05857216280530021</v>
+        <v>0.05857216280530004</v>
       </c>
       <c r="K56">
-        <v>0.04078608893271893</v>
+        <v>0.04078608893271882</v>
       </c>
       <c r="L56">
-        <v>0.06565099736452686</v>
+        <v>0.06565099736452666</v>
       </c>
       <c r="M56">
-        <v>0.01962170688465658</v>
+        <v>0.01962170688465653</v>
       </c>
       <c r="N56">
-        <v>0.07295095330824904</v>
+        <v>0.07295095330824883</v>
       </c>
       <c r="O56">
-        <v>0.0647601358105912</v>
+        <v>0.06476013581059102</v>
       </c>
       <c r="P56">
-        <v>0.03836714413179537</v>
+        <v>0.03836714413179525</v>
       </c>
       <c r="Q56">
-        <v>0.06457119930266297</v>
+        <v>0.06457119930266279</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -16313,16 +16507,16 @@
         <v>0.02168272510113991</v>
       </c>
       <c r="N60">
-        <v>0.06786442297645287</v>
+        <v>0.06786442297645286</v>
       </c>
       <c r="O60">
-        <v>0.06092904836000788</v>
+        <v>0.06092904836000786</v>
       </c>
       <c r="P60">
-        <v>0.03621063607342039</v>
+        <v>0.0362106360734204</v>
       </c>
       <c r="Q60">
-        <v>0.06130334218808849</v>
+        <v>0.0613033421880885</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -16336,31 +16530,31 @@
         <v>0.01264426761240763</v>
       </c>
       <c r="D61">
-        <v>0.03558646373281498</v>
+        <v>0.03558646373281499</v>
       </c>
       <c r="E61">
-        <v>0.03581345344267915</v>
+        <v>0.03581345344267914</v>
       </c>
       <c r="F61">
         <v>0.01915532851781957</v>
       </c>
       <c r="G61">
-        <v>0.03830090429706377</v>
+        <v>0.03830090429706379</v>
       </c>
       <c r="H61">
-        <v>0.02584434110276142</v>
+        <v>0.02584434110276143</v>
       </c>
       <c r="I61">
-        <v>0.06052185076643172</v>
+        <v>0.06052185076643173</v>
       </c>
       <c r="J61">
-        <v>0.05823172928604141</v>
+        <v>0.05823172928604138</v>
       </c>
       <c r="K61">
         <v>0.03156600792208959</v>
       </c>
       <c r="L61">
-        <v>0.06271964521445714</v>
+        <v>0.06271964521445711</v>
       </c>
       <c r="M61">
         <v>0.02591350532579785</v>
@@ -16401,19 +16595,19 @@
         <v>0.02922883300030826</v>
       </c>
       <c r="H62">
-        <v>0.0208067111401131</v>
+        <v>0.02080671114011311</v>
       </c>
       <c r="I62">
-        <v>0.06115425139744066</v>
+        <v>0.06115425139744068</v>
       </c>
       <c r="J62">
-        <v>0.05945875669243438</v>
+        <v>0.05945875669243435</v>
       </c>
       <c r="K62">
         <v>0.02961112393919624</v>
       </c>
       <c r="L62">
-        <v>0.04888248204855914</v>
+        <v>0.04888248204855915</v>
       </c>
       <c r="M62">
         <v>0.02113289394991666</v>
@@ -16439,49 +16633,49 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.01431106810391954</v>
+        <v>0.01431106810391952</v>
       </c>
       <c r="D63">
-        <v>0.03344181207100409</v>
+        <v>0.03344181207100405</v>
       </c>
       <c r="E63">
-        <v>0.03179240970317365</v>
+        <v>0.03179240970317362</v>
       </c>
       <c r="F63">
-        <v>0.02466394678752597</v>
+        <v>0.02466394678752594</v>
       </c>
       <c r="G63">
-        <v>0.03622011386156474</v>
+        <v>0.03622011386156471</v>
       </c>
       <c r="H63">
-        <v>0.01769656466027705</v>
+        <v>0.01769656466027703</v>
       </c>
       <c r="I63">
-        <v>0.06744942504214324</v>
+        <v>0.06744942504214317</v>
       </c>
       <c r="J63">
-        <v>0.05211584500892231</v>
+        <v>0.05211584500892225</v>
       </c>
       <c r="K63">
-        <v>0.0350697047385334</v>
+        <v>0.03506970473853336</v>
       </c>
       <c r="L63">
-        <v>0.06309327418813292</v>
+        <v>0.06309327418813286</v>
       </c>
       <c r="M63">
-        <v>0.01859929970012779</v>
+        <v>0.01859929970012776</v>
       </c>
       <c r="N63">
-        <v>0.06435563742367581</v>
+        <v>0.06435563742367574</v>
       </c>
       <c r="O63">
-        <v>0.05108974905681749</v>
+        <v>0.05108974905681744</v>
       </c>
       <c r="P63">
-        <v>0.03926904893631189</v>
+        <v>0.03926904893631185</v>
       </c>
       <c r="Q63">
-        <v>0.05581601598092321</v>
+        <v>0.05581601598092315</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -16704,49 +16898,102 @@
         <v>45658</v>
       </c>
       <c r="C68">
-        <v>0.01003850514749846</v>
+        <v>0.01003850484551443</v>
       </c>
       <c r="D68">
-        <v>0.03202649873044057</v>
+        <v>0.03202649894338144</v>
       </c>
       <c r="E68">
-        <v>0.03811336707131414</v>
+        <v>0.0381133664503561</v>
       </c>
       <c r="F68">
-        <v>0.01665143464827615</v>
+        <v>0.01665143471893748</v>
       </c>
       <c r="G68">
-        <v>0.03153947844184048</v>
+        <v>0.03153947882525891</v>
       </c>
       <c r="H68">
-        <v>0.02096698081800484</v>
+        <v>0.02096698034864239</v>
       </c>
       <c r="I68">
-        <v>0.06192857932969745</v>
+        <v>0.06192857844434605</v>
       </c>
       <c r="J68">
-        <v>0.06672110527898251</v>
+        <v>0.06672110454344038</v>
       </c>
       <c r="K68">
-        <v>0.03018427330503698</v>
+        <v>0.03018427345940485</v>
       </c>
       <c r="L68">
-        <v>0.06296238758039564</v>
+        <v>0.06296238816549464</v>
       </c>
       <c r="M68">
-        <v>0.01892361608955606</v>
+        <v>0.01892361580101</v>
       </c>
       <c r="N68">
-        <v>0.06347483392624929</v>
+        <v>0.06347483308460747</v>
       </c>
       <c r="O68">
-        <v>0.0718554029506244</v>
+        <v>0.0718554020015689</v>
       </c>
       <c r="P68">
-        <v>0.03173636645927914</v>
+        <v>0.03173636662426874</v>
       </c>
       <c r="Q68">
-        <v>0.06118497510714862</v>
+        <v>0.06118497621795442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C69">
+        <v>0.01112513742008319</v>
+      </c>
+      <c r="D69">
+        <v>0.02599100992229858</v>
+      </c>
+      <c r="E69">
+        <v>0.02920345686059587</v>
+      </c>
+      <c r="F69">
+        <v>0.01565420623464306</v>
+      </c>
+      <c r="G69">
+        <v>0.03310471286959601</v>
+      </c>
+      <c r="H69">
+        <v>0.02124382153341222</v>
+      </c>
+      <c r="I69">
+        <v>0.05083805395439397</v>
+      </c>
+      <c r="J69">
+        <v>0.05157156248206608</v>
+      </c>
+      <c r="K69">
+        <v>0.03260064330030878</v>
+      </c>
+      <c r="L69">
+        <v>0.04962855409469454</v>
+      </c>
+      <c r="M69">
+        <v>0.02413913610747955</v>
+      </c>
+      <c r="N69">
+        <v>0.05014390648722584</v>
+      </c>
+      <c r="O69">
+        <v>0.04859707494528441</v>
+      </c>
+      <c r="P69">
+        <v>0.03370072064398155</v>
+      </c>
+      <c r="Q69">
+        <v>0.05804197717950906</v>
       </c>
     </row>
   </sheetData>

--- a/weight_adjusted_dk_by_category.xlsx
+++ b/weight_adjusted_dk_by_category.xlsx
@@ -978,22 +978,22 @@
         <v>0.0261636603843753</v>
       </c>
       <c r="I10">
-        <v>0.03441115048558141</v>
+        <v>0.0344111504855814</v>
       </c>
       <c r="J10">
-        <v>0.02786742912473334</v>
+        <v>0.02786742912473333</v>
       </c>
       <c r="K10">
-        <v>0.03161562274431219</v>
+        <v>0.03161562274431218</v>
       </c>
       <c r="L10">
-        <v>0.03110415048997383</v>
+        <v>0.03110415048997382</v>
       </c>
       <c r="M10">
         <v>0.02944040152524149</v>
       </c>
       <c r="N10">
-        <v>0.0591619175719514</v>
+        <v>0.05916191757195138</v>
       </c>
       <c r="O10">
         <v>0.04473869282723608</v>
@@ -1412,22 +1412,22 @@
         <v>0.02544844543324715</v>
       </c>
       <c r="I17">
-        <v>0.02945757253000238</v>
+        <v>0.02945757253000232</v>
       </c>
       <c r="J17">
-        <v>0.03291889070983222</v>
+        <v>0.03291889070983216</v>
       </c>
       <c r="K17">
-        <v>0.03292906357737031</v>
+        <v>0.03292906357737025</v>
       </c>
       <c r="L17">
-        <v>0.03312896042449348</v>
+        <v>0.03312896042449341</v>
       </c>
       <c r="M17">
-        <v>0.03699210687207728</v>
+        <v>0.0369921068720772</v>
       </c>
       <c r="N17">
-        <v>0.06446851344903964</v>
+        <v>0.06446851344903952</v>
       </c>
       <c r="O17">
         <v>0.03893970236224157</v>
@@ -1846,22 +1846,22 @@
         <v>0.03547875490980839</v>
       </c>
       <c r="I24">
-        <v>0.04024023400455259</v>
+        <v>0.04024023400455255</v>
       </c>
       <c r="J24">
-        <v>0.03619691449671982</v>
+        <v>0.03619691449671979</v>
       </c>
       <c r="K24">
-        <v>0.0333354182583212</v>
+        <v>0.03333541825832117</v>
       </c>
       <c r="L24">
-        <v>0.03742963694703171</v>
+        <v>0.03742963694703168</v>
       </c>
       <c r="M24">
-        <v>0.03117055707760708</v>
+        <v>0.03117055707760705</v>
       </c>
       <c r="N24">
-        <v>0.06906917553202947</v>
+        <v>0.0690691755320294</v>
       </c>
       <c r="O24">
         <v>0.04799083713452296</v>
@@ -2280,22 +2280,22 @@
         <v>0.04890286315705822</v>
       </c>
       <c r="I31">
-        <v>0.03828325707994967</v>
+        <v>0.03828325707994965</v>
       </c>
       <c r="J31">
-        <v>0.03805248467503126</v>
+        <v>0.03805248467503123</v>
       </c>
       <c r="K31">
-        <v>0.03765716594166098</v>
+        <v>0.03765716594166096</v>
       </c>
       <c r="L31">
-        <v>0.04457473434428293</v>
+        <v>0.0445747343442829</v>
       </c>
       <c r="M31">
-        <v>0.03884872588670352</v>
+        <v>0.0388487258867035</v>
       </c>
       <c r="N31">
-        <v>0.07970563018441935</v>
+        <v>0.0797056301844193</v>
       </c>
       <c r="O31">
         <v>0.05194111177280585</v>
@@ -2714,22 +2714,22 @@
         <v>0.05162622339919293</v>
       </c>
       <c r="I38">
-        <v>0.04347079461927138</v>
+        <v>0.04347079461927145</v>
       </c>
       <c r="J38">
-        <v>0.0504074085334675</v>
+        <v>0.05040740853346758</v>
       </c>
       <c r="K38">
-        <v>0.03976947788541872</v>
+        <v>0.03976947788541878</v>
       </c>
       <c r="L38">
-        <v>0.0572226355221518</v>
+        <v>0.05722263552215189</v>
       </c>
       <c r="M38">
-        <v>0.04252079224918554</v>
+        <v>0.04252079224918561</v>
       </c>
       <c r="N38">
-        <v>0.08920556677815386</v>
+        <v>0.089205566778154</v>
       </c>
       <c r="O38">
         <v>0.05596061216476105</v>
@@ -3086,22 +3086,22 @@
         <v>0.05772527537400176</v>
       </c>
       <c r="I44">
-        <v>0.05168854234797064</v>
+        <v>0.05168854234797048</v>
       </c>
       <c r="J44">
-        <v>0.05506446794882901</v>
+        <v>0.05506446794882883</v>
       </c>
       <c r="K44">
-        <v>0.05819475666640396</v>
+        <v>0.05819475666640378</v>
       </c>
       <c r="L44">
-        <v>0.0534098020082959</v>
+        <v>0.05340980200829573</v>
       </c>
       <c r="M44">
-        <v>0.05302261734395435</v>
+        <v>0.05302261734395418</v>
       </c>
       <c r="N44">
-        <v>0.09422365921244659</v>
+        <v>0.0942236592124463</v>
       </c>
       <c r="O44">
         <v>0.0612619795957861</v>
@@ -3496,22 +3496,22 @@
         <v>0.02952712280291519</v>
       </c>
       <c r="I51">
-        <v>0.0335009105790027</v>
+        <v>0.03350091057900279</v>
       </c>
       <c r="J51">
-        <v>0.03953075799870746</v>
+        <v>0.03953075799870756</v>
       </c>
       <c r="K51">
-        <v>0.04680130577649616</v>
+        <v>0.04680130577649628</v>
       </c>
       <c r="L51">
-        <v>0.05130392005266703</v>
+        <v>0.05130392005266715</v>
       </c>
       <c r="M51">
-        <v>0.04884718964602951</v>
+        <v>0.04884718964602963</v>
       </c>
       <c r="N51">
-        <v>0.07308700282151315</v>
+        <v>0.07308700282151333</v>
       </c>
       <c r="O51">
         <v>0.02735433137481898</v>
@@ -4240,22 +4240,22 @@
         <v>0.01645959162905423</v>
       </c>
       <c r="I63">
-        <v>0.04552762445813475</v>
+        <v>0.04552762445813478</v>
       </c>
       <c r="J63">
-        <v>0.03691426930207466</v>
+        <v>0.03691426930207468</v>
       </c>
       <c r="K63">
-        <v>0.04071339519503274</v>
+        <v>0.04071339519503276</v>
       </c>
       <c r="L63">
-        <v>0.04117344155465967</v>
+        <v>0.0411734415546597</v>
       </c>
       <c r="M63">
-        <v>0.04347895485537848</v>
+        <v>0.0434789548553785</v>
       </c>
       <c r="N63">
-        <v>0.02761712827272828</v>
+        <v>0.02761712827272829</v>
       </c>
       <c r="O63">
         <v>0.05265937073087196</v>
@@ -4881,7 +4881,7 @@
         <v>0.05081340193959259</v>
       </c>
       <c r="E10">
-        <v>0.1083135227309886</v>
+        <v>0.1083135227309885</v>
       </c>
       <c r="F10">
         <v>0.1052871492108051</v>
@@ -5063,10 +5063,10 @@
         <v>0.0564085504986231</v>
       </c>
       <c r="E17">
-        <v>0.1102001308230767</v>
+        <v>0.1102001308230765</v>
       </c>
       <c r="F17">
-        <v>0.1196949767397385</v>
+        <v>0.1196949767397383</v>
       </c>
       <c r="G17">
         <v>0.1609347644523384</v>
@@ -5245,10 +5245,10 @@
         <v>0.07460629736820848</v>
       </c>
       <c r="E24">
-        <v>0.1213540296324396</v>
+        <v>0.1213540296324395</v>
       </c>
       <c r="F24">
-        <v>0.1260879066838222</v>
+        <v>0.1260879066838221</v>
       </c>
       <c r="G24">
         <v>0.166909809437012</v>
@@ -5427,10 +5427,10 @@
         <v>0.09009701101339665</v>
       </c>
       <c r="E31">
-        <v>0.1410742786579338</v>
+        <v>0.1410742786579337</v>
       </c>
       <c r="F31">
-        <v>0.1360477194541139</v>
+        <v>0.1360477194541138</v>
       </c>
       <c r="G31">
         <v>0.2094211178656051</v>
@@ -5609,10 +5609,10 @@
         <v>0.08986341695832241</v>
       </c>
       <c r="E38">
-        <v>0.1744587738875957</v>
+        <v>0.174458773887596</v>
       </c>
       <c r="F38">
-        <v>0.1481379017000529</v>
+        <v>0.1481379017000531</v>
       </c>
       <c r="G38">
         <v>0.2210740794291416</v>
@@ -5765,10 +5765,10 @@
         <v>0.1021450450164439</v>
       </c>
       <c r="E44">
-        <v>0.2043829074363588</v>
+        <v>0.2043829074363581</v>
       </c>
       <c r="F44">
-        <v>0.1612209380915414</v>
+        <v>0.1612209380915409</v>
       </c>
       <c r="G44">
         <v>0.2426836227248018</v>
@@ -5944,10 +5944,10 @@
         <v>0.07093414308730633</v>
       </c>
       <c r="E51">
-        <v>0.1535435980469124</v>
+        <v>0.1535435980469128</v>
       </c>
       <c r="F51">
-        <v>0.1395274888275033</v>
+        <v>0.1395274888275036</v>
       </c>
       <c r="G51">
         <v>0.1432400798835881</v>
@@ -6256,10 +6256,10 @@
         <v>0.08647598745967557</v>
       </c>
       <c r="E63">
-        <v>0.09527948065550836</v>
+        <v>0.09527948065550843</v>
       </c>
       <c r="F63">
-        <v>0.1401453329825</v>
+        <v>0.1401453329825001</v>
       </c>
       <c r="G63">
         <v>0.08985179832897647</v>
@@ -6792,7 +6792,7 @@
         <v>0.01782100130454707</v>
       </c>
       <c r="F10">
-        <v>0.03607001898987159</v>
+        <v>0.03607001898987158</v>
       </c>
       <c r="G10">
         <v>0.04366303934578403</v>
@@ -7091,16 +7091,16 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.01043787073744136</v>
+        <v>0.01043787073744134</v>
       </c>
       <c r="D17">
-        <v>0.02306545121245325</v>
+        <v>0.0230654512124532</v>
       </c>
       <c r="E17">
-        <v>0.02295711017317276</v>
+        <v>0.02295711017317271</v>
       </c>
       <c r="F17">
-        <v>0.05014613324218452</v>
+        <v>0.05014613324218441</v>
       </c>
       <c r="G17">
         <v>0.03247789690205662</v>
@@ -7399,16 +7399,16 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.0236334266316163</v>
+        <v>0.02363342663161628</v>
       </c>
       <c r="D24">
-        <v>0.03395532470005568</v>
+        <v>0.03395532470005565</v>
       </c>
       <c r="E24">
-        <v>0.02551846893238083</v>
+        <v>0.02551846893238081</v>
       </c>
       <c r="F24">
-        <v>0.06215701612288535</v>
+        <v>0.06215701612288529</v>
       </c>
       <c r="G24">
         <v>0.0529371739508628</v>
@@ -7707,16 +7707,16 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.02139866416909456</v>
+        <v>0.02139866416909454</v>
       </c>
       <c r="D31">
-        <v>0.04496597762679372</v>
+        <v>0.04496597762679368</v>
       </c>
       <c r="E31">
-        <v>0.03601475924528768</v>
+        <v>0.03601475924528766</v>
       </c>
       <c r="F31">
-        <v>0.07801482750908965</v>
+        <v>0.07801482750908961</v>
       </c>
       <c r="G31">
         <v>0.04376219132917266</v>
@@ -8015,16 +8015,16 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.02937204771056788</v>
+        <v>0.02937204771056793</v>
       </c>
       <c r="D38">
-        <v>0.04505173257072564</v>
+        <v>0.04505173257072571</v>
       </c>
       <c r="E38">
-        <v>0.04976070339128622</v>
+        <v>0.0497607033912863</v>
       </c>
       <c r="F38">
-        <v>0.07108615342703746</v>
+        <v>0.07108615342703757</v>
       </c>
       <c r="G38">
         <v>0.06489991211517315</v>
@@ -8279,16 +8279,16 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.03988386899589564</v>
+        <v>0.03988386899589551</v>
       </c>
       <c r="D44">
-        <v>0.05589107042511225</v>
+        <v>0.05589107042511207</v>
       </c>
       <c r="E44">
-        <v>0.05534407366798751</v>
+        <v>0.05534407366798734</v>
       </c>
       <c r="F44">
-        <v>0.06892541826744322</v>
+        <v>0.068925418267443</v>
       </c>
       <c r="G44">
         <v>0.06872263526140532</v>
@@ -8578,16 +8578,16 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.02515858548417828</v>
+        <v>0.02515858548417834</v>
       </c>
       <c r="D51">
-        <v>0.03893102667202124</v>
+        <v>0.03893102667202133</v>
       </c>
       <c r="E51">
-        <v>0.03435963370767028</v>
+        <v>0.03435963370767037</v>
       </c>
       <c r="F51">
-        <v>0.05441103615732173</v>
+        <v>0.05441103615732187</v>
       </c>
       <c r="G51">
         <v>0.05791081118532845</v>
@@ -9106,16 +9106,16 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.02940317876148385</v>
+        <v>0.02940317876148387</v>
       </c>
       <c r="D63">
-        <v>0.03980296819136622</v>
+        <v>0.03980296819136624</v>
       </c>
       <c r="E63">
-        <v>0.02698906665018333</v>
+        <v>0.02698906665018334</v>
       </c>
       <c r="F63">
-        <v>0.04423413692415437</v>
+        <v>0.0442341369241544</v>
       </c>
       <c r="G63">
         <v>0.04989654597303035</v>
@@ -9930,13 +9930,13 @@
         <v>0.05840105378901866</v>
       </c>
       <c r="D10">
-        <v>0.00976921766707158</v>
+        <v>0.009769217667071584</v>
       </c>
       <c r="E10">
-        <v>0.009461260613171285</v>
+        <v>0.009461260613171289</v>
       </c>
       <c r="F10">
-        <v>0.004988806663975905</v>
+        <v>0.004988806663975906</v>
       </c>
       <c r="G10">
         <v>0.01001324068917958</v>
@@ -10298,19 +10298,19 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.0645020839119152</v>
+        <v>0.06450208391191534</v>
       </c>
       <c r="D17">
-        <v>0.007913982301245053</v>
+        <v>0.007913982301245069</v>
       </c>
       <c r="E17">
-        <v>0.01378779601772927</v>
+        <v>0.0137877960177293</v>
       </c>
       <c r="F17">
-        <v>0.004294984674575053</v>
+        <v>0.004294984674575061</v>
       </c>
       <c r="G17">
-        <v>0.01610771845978716</v>
+        <v>0.01610771845978719</v>
       </c>
       <c r="P17">
         <v>0.1335977261606479</v>
@@ -10669,19 +10669,19 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.08793833754158982</v>
+        <v>0.0879383375415899</v>
       </c>
       <c r="D24">
-        <v>0.02285322575458035</v>
+        <v>0.02285322575458037</v>
       </c>
       <c r="E24">
-        <v>0.01492586825519381</v>
+        <v>0.01492586825519382</v>
       </c>
       <c r="F24">
-        <v>0.005552315621515716</v>
+        <v>0.005552315621515721</v>
       </c>
       <c r="G24">
-        <v>0.0139944892140584</v>
+        <v>0.01399448921405841</v>
       </c>
       <c r="P24">
         <v>0.1407737131306973</v>
@@ -11040,19 +11040,19 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.1287974923750862</v>
+        <v>0.1287974923750863</v>
       </c>
       <c r="D31">
-        <v>0.01095786849844598</v>
+        <v>0.01095786849844599</v>
       </c>
       <c r="E31">
-        <v>0.01930082583917356</v>
+        <v>0.01930082583917357</v>
       </c>
       <c r="F31">
-        <v>0.007050529986912713</v>
+        <v>0.007050529986912717</v>
       </c>
       <c r="G31">
-        <v>0.01428751185064696</v>
+        <v>0.01428751185064697</v>
       </c>
       <c r="P31">
         <v>0.1808150188515076</v>
@@ -11465,22 +11465,22 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.1189640901503916</v>
+        <v>0.1189640901503914</v>
       </c>
       <c r="D38">
-        <v>0.01278613147198069</v>
+        <v>0.01278613147198067</v>
       </c>
       <c r="E38">
-        <v>0.02004488183133302</v>
+        <v>0.02004488183133299</v>
       </c>
       <c r="F38">
-        <v>0.01309016009300313</v>
+        <v>0.01309016009300311</v>
       </c>
       <c r="H38">
-        <v>0.0278567027924008</v>
+        <v>0.02785670279240076</v>
       </c>
       <c r="I38">
-        <v>0.002528670760508202</v>
+        <v>0.002528670760508199</v>
       </c>
       <c r="P38">
         <v>0.1767450166940215</v>
@@ -11837,22 +11837,22 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.1304551974884444</v>
+        <v>0.1304551974884448</v>
       </c>
       <c r="D44">
-        <v>0.01566846990331823</v>
+        <v>0.01566846990331828</v>
       </c>
       <c r="E44">
-        <v>0.02063609399446528</v>
+        <v>0.02063609399446534</v>
       </c>
       <c r="F44">
-        <v>0.01353981713030841</v>
+        <v>0.01353981713030845</v>
       </c>
       <c r="H44">
-        <v>0.03494805169080592</v>
+        <v>0.03494805169080602</v>
       </c>
       <c r="I44">
-        <v>0.004796801149095449</v>
+        <v>0.004796801149095463</v>
       </c>
       <c r="P44">
         <v>0.2056035923146081</v>
@@ -12247,22 +12247,22 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.04015210043639664</v>
+        <v>0.04015210043639654</v>
       </c>
       <c r="D51">
-        <v>0.01417126951007108</v>
+        <v>0.01417126951007104</v>
       </c>
       <c r="E51">
-        <v>0.02112177448436273</v>
+        <v>0.02112177448436268</v>
       </c>
       <c r="F51">
-        <v>0.02387570024470281</v>
+        <v>0.02387570024470275</v>
       </c>
       <c r="H51">
-        <v>0.04660423382848524</v>
+        <v>0.04660423382848512</v>
       </c>
       <c r="I51">
-        <v>0.006935203517173399</v>
+        <v>0.006935203517173381</v>
       </c>
       <c r="P51">
         <v>0.05566217503994367</v>
@@ -12994,19 +12994,19 @@
         <v>0.01024565585970226</v>
       </c>
       <c r="K63">
-        <v>0.03131766339118448</v>
+        <v>0.03131766339118446</v>
       </c>
       <c r="L63">
-        <v>0.04185583727103546</v>
+        <v>0.04185583727103544</v>
       </c>
       <c r="M63">
-        <v>0.01764032001010938</v>
+        <v>0.01764032001010937</v>
       </c>
       <c r="N63">
-        <v>0.02222108232261463</v>
+        <v>0.02222108232261462</v>
       </c>
       <c r="O63">
-        <v>0.0171487916725416</v>
+        <v>0.01714879167254158</v>
       </c>
       <c r="W63">
         <v>0.01659239124786226</v>
@@ -13872,19 +13872,19 @@
         <v>0.0766056592843195</v>
       </c>
       <c r="M10">
-        <v>0.01904941319783873</v>
+        <v>0.01904941319783874</v>
       </c>
       <c r="N10">
-        <v>0.06985207812445854</v>
+        <v>0.06985207812445857</v>
       </c>
       <c r="O10">
-        <v>0.04894955409673171</v>
+        <v>0.04894955409673172</v>
       </c>
       <c r="P10">
-        <v>0.04893149639309569</v>
+        <v>0.04893149639309571</v>
       </c>
       <c r="Q10">
-        <v>0.1049972498605408</v>
+        <v>0.1049972498605409</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -14243,19 +14243,19 @@
         <v>0.0675793763421827</v>
       </c>
       <c r="M17">
-        <v>0.0286361134763028</v>
+        <v>0.02863611347630286</v>
       </c>
       <c r="N17">
-        <v>0.08341242737844183</v>
+        <v>0.083412427378442</v>
       </c>
       <c r="O17">
-        <v>0.06310687512906824</v>
+        <v>0.06310687512906836</v>
       </c>
       <c r="P17">
-        <v>0.04557698978745827</v>
+        <v>0.04557698978745836</v>
       </c>
       <c r="Q17">
-        <v>0.1010832069354542</v>
+        <v>0.1010832069354544</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -14614,19 +14614,19 @@
         <v>0.08521383860097642</v>
       </c>
       <c r="M24">
-        <v>0.02350807790258909</v>
+        <v>0.02350807790258911</v>
       </c>
       <c r="N24">
-        <v>0.08285196467039735</v>
+        <v>0.08285196467039742</v>
       </c>
       <c r="O24">
-        <v>0.06889723252796981</v>
+        <v>0.06889723252796988</v>
       </c>
       <c r="P24">
-        <v>0.05296173723715698</v>
+        <v>0.05296173723715702</v>
       </c>
       <c r="Q24">
-        <v>0.1048892841524007</v>
+        <v>0.1048892841524008</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -14985,19 +14985,19 @@
         <v>0.09205220856323544</v>
       </c>
       <c r="M31">
-        <v>0.03705196148902712</v>
+        <v>0.03705196148902715</v>
       </c>
       <c r="N31">
-        <v>0.0860551826235003</v>
+        <v>0.08605518262350036</v>
       </c>
       <c r="O31">
-        <v>0.06984405796717537</v>
+        <v>0.06984405796717541</v>
       </c>
       <c r="P31">
-        <v>0.04624210317717056</v>
+        <v>0.04624210317717059</v>
       </c>
       <c r="Q31">
-        <v>0.1574560628189997</v>
+        <v>0.1574560628189998</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -15356,19 +15356,19 @@
         <v>0.08063181214623964</v>
       </c>
       <c r="M38">
-        <v>0.03201679385087261</v>
+        <v>0.03201679385087256</v>
       </c>
       <c r="N38">
-        <v>0.1073937062731937</v>
+        <v>0.1073937062731935</v>
       </c>
       <c r="O38">
-        <v>0.09164750566984002</v>
+        <v>0.09164750566983988</v>
       </c>
       <c r="P38">
-        <v>0.07070311097141897</v>
+        <v>0.07070311097141886</v>
       </c>
       <c r="Q38">
-        <v>0.09954479704936872</v>
+        <v>0.09954479704936857</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -15674,19 +15674,19 @@
         <v>0.1023852246052861</v>
       </c>
       <c r="M44">
-        <v>0.03194471287831606</v>
+        <v>0.03194471287831616</v>
       </c>
       <c r="N44">
-        <v>0.1199346169080686</v>
+        <v>0.1199346169080689</v>
       </c>
       <c r="O44">
-        <v>0.09044894830112932</v>
+        <v>0.09044894830112959</v>
       </c>
       <c r="P44">
-        <v>0.08190657382091909</v>
+        <v>0.08190657382091936</v>
       </c>
       <c r="Q44">
-        <v>0.116800667525748</v>
+        <v>0.1168006675257484</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -16027,19 +16027,19 @@
         <v>0.06827754018622374</v>
       </c>
       <c r="M51">
-        <v>0.01927300354644673</v>
+        <v>0.01927300354644668</v>
       </c>
       <c r="N51">
-        <v>0.07516591902239303</v>
+        <v>0.07516591902239285</v>
       </c>
       <c r="O51">
-        <v>0.08010118812335487</v>
+        <v>0.08010118812335468</v>
       </c>
       <c r="P51">
-        <v>0.03297693471641796</v>
+        <v>0.03297693471641788</v>
       </c>
       <c r="Q51">
-        <v>0.06759903153752772</v>
+        <v>0.06759903153752755</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -16663,19 +16663,19 @@
         <v>0.06309327418813286</v>
       </c>
       <c r="M63">
-        <v>0.01859929970012776</v>
+        <v>0.01859929970012775</v>
       </c>
       <c r="N63">
-        <v>0.06435563742367574</v>
+        <v>0.0643556374236757</v>
       </c>
       <c r="O63">
-        <v>0.05108974905681744</v>
+        <v>0.0510897490568174</v>
       </c>
       <c r="P63">
-        <v>0.03926904893631185</v>
+        <v>0.03926904893631182</v>
       </c>
       <c r="Q63">
-        <v>0.05581601598092315</v>
+        <v>0.05581601598092312</v>
       </c>
     </row>
     <row r="64" spans="1:17">

--- a/weight_adjusted_dk_by_category.xlsx
+++ b/weight_adjusted_dk_by_category.xlsx
@@ -978,40 +978,40 @@
         <v>0.0261636603843753</v>
       </c>
       <c r="I10">
-        <v>0.0344111504855814</v>
+        <v>0.03441115048558141</v>
       </c>
       <c r="J10">
-        <v>0.02786742912473333</v>
+        <v>0.02786742912473334</v>
       </c>
       <c r="K10">
-        <v>0.03161562274431218</v>
+        <v>0.03161562274431219</v>
       </c>
       <c r="L10">
-        <v>0.03110415048997382</v>
+        <v>0.03110415048997383</v>
       </c>
       <c r="M10">
         <v>0.02944040152524149</v>
       </c>
       <c r="N10">
-        <v>0.05916191757195138</v>
+        <v>0.0591619175719514</v>
       </c>
       <c r="O10">
-        <v>0.04473869282723608</v>
+        <v>0.04473869282723609</v>
       </c>
       <c r="P10">
-        <v>0.04354249197286267</v>
+        <v>0.04354249197286268</v>
       </c>
       <c r="Q10">
-        <v>0.04301833052137468</v>
+        <v>0.04301833052137469</v>
       </c>
       <c r="R10">
-        <v>0.0449129252650212</v>
+        <v>0.04491292526502121</v>
       </c>
       <c r="S10">
-        <v>0.04339949448190738</v>
+        <v>0.04339949448190739</v>
       </c>
       <c r="T10">
-        <v>0.07216785660426345</v>
+        <v>0.07216785660426346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1412,40 +1412,40 @@
         <v>0.02544844543324715</v>
       </c>
       <c r="I17">
-        <v>0.02945757253000232</v>
+        <v>0.02945757253000238</v>
       </c>
       <c r="J17">
-        <v>0.03291889070983216</v>
+        <v>0.03291889070983222</v>
       </c>
       <c r="K17">
-        <v>0.03292906357737025</v>
+        <v>0.03292906357737031</v>
       </c>
       <c r="L17">
-        <v>0.03312896042449341</v>
+        <v>0.03312896042449348</v>
       </c>
       <c r="M17">
-        <v>0.0369921068720772</v>
+        <v>0.03699210687207728</v>
       </c>
       <c r="N17">
-        <v>0.06446851344903952</v>
+        <v>0.06446851344903964</v>
       </c>
       <c r="O17">
-        <v>0.03893970236224157</v>
+        <v>0.03893970236224165</v>
       </c>
       <c r="P17">
-        <v>0.04837605429055945</v>
+        <v>0.04837605429055954</v>
       </c>
       <c r="Q17">
-        <v>0.04472297755763691</v>
+        <v>0.044722977557637</v>
       </c>
       <c r="R17">
-        <v>0.04601391444821857</v>
+        <v>0.04601391444821866</v>
       </c>
       <c r="S17">
-        <v>0.05310135126199506</v>
+        <v>0.05310135126199517</v>
       </c>
       <c r="T17">
-        <v>0.09066161278607372</v>
+        <v>0.0906616127860739</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1846,40 +1846,40 @@
         <v>0.03547875490980839</v>
       </c>
       <c r="I24">
-        <v>0.04024023400455255</v>
+        <v>0.04024023400455259</v>
       </c>
       <c r="J24">
-        <v>0.03619691449671979</v>
+        <v>0.03619691449671982</v>
       </c>
       <c r="K24">
-        <v>0.03333541825832117</v>
+        <v>0.0333354182583212</v>
       </c>
       <c r="L24">
-        <v>0.03742963694703168</v>
+        <v>0.03742963694703171</v>
       </c>
       <c r="M24">
-        <v>0.03117055707760705</v>
+        <v>0.03117055707760708</v>
       </c>
       <c r="N24">
-        <v>0.0690691755320294</v>
+        <v>0.06906917553202947</v>
       </c>
       <c r="O24">
-        <v>0.04799083713452296</v>
+        <v>0.04799083713452301</v>
       </c>
       <c r="P24">
-        <v>0.04399132637441082</v>
+        <v>0.04399132637441086</v>
       </c>
       <c r="Q24">
-        <v>0.0464570245047902</v>
+        <v>0.04645702450479024</v>
       </c>
       <c r="R24">
-        <v>0.0546368520705204</v>
+        <v>0.05463685207052046</v>
       </c>
       <c r="S24">
-        <v>0.04620961903355877</v>
+        <v>0.04620961903355881</v>
       </c>
       <c r="T24">
-        <v>0.09382263737271085</v>
+        <v>0.09382263737271093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2280,40 +2280,40 @@
         <v>0.04890286315705822</v>
       </c>
       <c r="I31">
-        <v>0.03828325707994965</v>
+        <v>0.03828325707994967</v>
       </c>
       <c r="J31">
-        <v>0.03805248467503123</v>
+        <v>0.03805248467503126</v>
       </c>
       <c r="K31">
-        <v>0.03765716594166096</v>
+        <v>0.03765716594166098</v>
       </c>
       <c r="L31">
-        <v>0.0445747343442829</v>
+        <v>0.04457473434428293</v>
       </c>
       <c r="M31">
-        <v>0.0388487258867035</v>
+        <v>0.03884872588670352</v>
       </c>
       <c r="N31">
-        <v>0.0797056301844193</v>
+        <v>0.07970563018441935</v>
       </c>
       <c r="O31">
-        <v>0.05194111177280585</v>
+        <v>0.05194111177280589</v>
       </c>
       <c r="P31">
-        <v>0.05514085012886071</v>
+        <v>0.05514085012886075</v>
       </c>
       <c r="Q31">
-        <v>0.055718545288193</v>
+        <v>0.05571854528819304</v>
       </c>
       <c r="R31">
-        <v>0.06850832894797845</v>
+        <v>0.06850832894797851</v>
       </c>
       <c r="S31">
-        <v>0.05007200812237359</v>
+        <v>0.05007200812237363</v>
       </c>
       <c r="T31">
-        <v>0.1152685238156614</v>
+        <v>0.1152685238156615</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2714,40 +2714,40 @@
         <v>0.05162622339919293</v>
       </c>
       <c r="I38">
-        <v>0.04347079461927145</v>
+        <v>0.04347079461927138</v>
       </c>
       <c r="J38">
-        <v>0.05040740853346758</v>
+        <v>0.0504074085334675</v>
       </c>
       <c r="K38">
-        <v>0.03976947788541878</v>
+        <v>0.03976947788541872</v>
       </c>
       <c r="L38">
-        <v>0.05722263552215189</v>
+        <v>0.0572226355221518</v>
       </c>
       <c r="M38">
-        <v>0.04252079224918561</v>
+        <v>0.04252079224918554</v>
       </c>
       <c r="N38">
-        <v>0.089205566778154</v>
+        <v>0.08920556677815386</v>
       </c>
       <c r="O38">
-        <v>0.05596061216476105</v>
+        <v>0.05596061216476096</v>
       </c>
       <c r="P38">
-        <v>0.06082172754392233</v>
+        <v>0.06082172754392223</v>
       </c>
       <c r="Q38">
-        <v>0.05980277717877173</v>
+        <v>0.05980277717877164</v>
       </c>
       <c r="R38">
-        <v>0.06301417311904485</v>
+        <v>0.06301417311904477</v>
       </c>
       <c r="S38">
-        <v>0.05355279779542214</v>
+        <v>0.05355279779542206</v>
       </c>
       <c r="T38">
-        <v>0.1081538260127719</v>
+        <v>0.1081538260127718</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3086,40 +3086,40 @@
         <v>0.05772527537400176</v>
       </c>
       <c r="I44">
-        <v>0.05168854234797048</v>
+        <v>0.05168854234797064</v>
       </c>
       <c r="J44">
-        <v>0.05506446794882883</v>
+        <v>0.05506446794882901</v>
       </c>
       <c r="K44">
-        <v>0.05819475666640378</v>
+        <v>0.05819475666640396</v>
       </c>
       <c r="L44">
-        <v>0.05340980200829573</v>
+        <v>0.0534098020082959</v>
       </c>
       <c r="M44">
-        <v>0.05302261734395418</v>
+        <v>0.05302261734395435</v>
       </c>
       <c r="N44">
-        <v>0.0942236592124463</v>
+        <v>0.09422365921244659</v>
       </c>
       <c r="O44">
-        <v>0.0612619795957861</v>
+        <v>0.06126197959578629</v>
       </c>
       <c r="P44">
-        <v>0.06523012979218566</v>
+        <v>0.06523012979218587</v>
       </c>
       <c r="Q44">
-        <v>0.06363413744233509</v>
+        <v>0.0636341374423353</v>
       </c>
       <c r="R44">
-        <v>0.06667435160033625</v>
+        <v>0.06667435160033645</v>
       </c>
       <c r="S44">
-        <v>0.06630011199575019</v>
+        <v>0.06630011199575039</v>
       </c>
       <c r="T44">
-        <v>0.1179348090077877</v>
+        <v>0.1179348090077881</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3496,40 +3496,40 @@
         <v>0.02952712280291519</v>
       </c>
       <c r="I51">
-        <v>0.03350091057900279</v>
+        <v>0.0335009105790027</v>
       </c>
       <c r="J51">
-        <v>0.03953075799870756</v>
+        <v>0.03953075799870746</v>
       </c>
       <c r="K51">
-        <v>0.04680130577649628</v>
+        <v>0.04680130577649616</v>
       </c>
       <c r="L51">
-        <v>0.05130392005266715</v>
+        <v>0.05130392005266703</v>
       </c>
       <c r="M51">
-        <v>0.04884718964602963</v>
+        <v>0.04884718964602951</v>
       </c>
       <c r="N51">
-        <v>0.07308700282151333</v>
+        <v>0.07308700282151315</v>
       </c>
       <c r="O51">
-        <v>0.02735433137481898</v>
+        <v>0.02735433137481891</v>
       </c>
       <c r="P51">
-        <v>0.03715686229110867</v>
+        <v>0.03715686229110858</v>
       </c>
       <c r="Q51">
-        <v>0.04823363318280063</v>
+        <v>0.04823363318280052</v>
       </c>
       <c r="R51">
-        <v>0.05071402706837244</v>
+        <v>0.05071402706837232</v>
       </c>
       <c r="S51">
-        <v>0.04529001571120673</v>
+        <v>0.04529001571120661</v>
       </c>
       <c r="T51">
-        <v>0.06636720731783287</v>
+        <v>0.0663672073178327</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3788,7 +3788,7 @@
         <v>44562</v>
       </c>
       <c r="C56">
-        <v>0.01395712652575811</v>
+        <v>0.01697058762357247</v>
       </c>
       <c r="D56">
         <v>0.02546367038712467</v>
@@ -3803,10 +3803,10 @@
         <v>0.01587900595084899</v>
       </c>
       <c r="H56">
-        <v>0.01697058762357247</v>
+        <v>0.01395712652575811</v>
       </c>
       <c r="I56">
-        <v>0.04589677038290506</v>
+        <v>0.02343537772701334</v>
       </c>
       <c r="J56">
         <v>0.04063851282873224</v>
@@ -3821,10 +3821,10 @@
         <v>0.04705830515316863</v>
       </c>
       <c r="N56">
-        <v>0.02343537772701334</v>
+        <v>0.04589677038290506</v>
       </c>
       <c r="O56">
-        <v>0.0450634013225381</v>
+        <v>0.02182975985909922</v>
       </c>
       <c r="P56">
         <v>0.03959684725610473</v>
@@ -3839,7 +3839,7 @@
         <v>0.04708565671863727</v>
       </c>
       <c r="T56">
-        <v>0.02182975985909922</v>
+        <v>0.0450634013225381</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -3850,7 +3850,7 @@
         <v>44652</v>
       </c>
       <c r="C57">
-        <v>0.007654229928250104</v>
+        <v>0.01734257298825324</v>
       </c>
       <c r="D57">
         <v>0.02493892299798833</v>
@@ -3865,10 +3865,10 @@
         <v>0.01804763502701255</v>
       </c>
       <c r="H57">
-        <v>0.01734257298825324</v>
+        <v>0.007654229928250104</v>
       </c>
       <c r="I57">
-        <v>0.0324459377540133</v>
+        <v>0.02323638041751691</v>
       </c>
       <c r="J57">
         <v>0.03594677154097226</v>
@@ -3883,10 +3883,10 @@
         <v>0.04734801247177776</v>
       </c>
       <c r="N57">
-        <v>0.02323638041751691</v>
+        <v>0.0324459377540133</v>
       </c>
       <c r="O57">
-        <v>0.03506589338468539</v>
+        <v>0.02244581725378909</v>
       </c>
       <c r="P57">
         <v>0.0319381383882239</v>
@@ -3901,7 +3901,7 @@
         <v>0.04746831490219959</v>
       </c>
       <c r="T57">
-        <v>0.02244581725378909</v>
+        <v>0.03506589338468539</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -3912,7 +3912,7 @@
         <v>44743</v>
       </c>
       <c r="C58">
-        <v>0.005634171682457871</v>
+        <v>0.01777522759113854</v>
       </c>
       <c r="D58">
         <v>0.01683629011531506</v>
@@ -3927,10 +3927,10 @@
         <v>0.01437626021194639</v>
       </c>
       <c r="H58">
-        <v>0.01777522759113854</v>
+        <v>0.005634171682457871</v>
       </c>
       <c r="I58">
-        <v>0.02914318882777539</v>
+        <v>0.02020847938942683</v>
       </c>
       <c r="J58">
         <v>0.0222865628727063</v>
@@ -3945,10 +3945,10 @@
         <v>0.0433031417147466</v>
       </c>
       <c r="N58">
-        <v>0.02020847938942683</v>
+        <v>0.02914318882777539</v>
       </c>
       <c r="O58">
-        <v>0.03097349470054596</v>
+        <v>0.01949448368886109</v>
       </c>
       <c r="P58">
         <v>0.03118159496575994</v>
@@ -3963,7 +3963,7 @@
         <v>0.04165841202349845</v>
       </c>
       <c r="T58">
-        <v>0.01949448368886109</v>
+        <v>0.03097349470054596</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -3974,7 +3974,7 @@
         <v>44835</v>
       </c>
       <c r="C59">
-        <v>0.01063173720310201</v>
+        <v>0.01836952876547727</v>
       </c>
       <c r="D59">
         <v>0.02199383433519805</v>
@@ -3989,10 +3989,10 @@
         <v>0.02149670981092158</v>
       </c>
       <c r="H59">
-        <v>0.01836952876547727</v>
+        <v>0.01063173720310201</v>
       </c>
       <c r="I59">
-        <v>0.03283670367714688</v>
+        <v>0.02839685107381276</v>
       </c>
       <c r="J59">
         <v>0.0380115111875922</v>
@@ -4007,10 +4007,10 @@
         <v>0.0472587341130882</v>
       </c>
       <c r="N59">
-        <v>0.02839685107381276</v>
+        <v>0.03283670367714688</v>
       </c>
       <c r="O59">
-        <v>0.03247704005493587</v>
+        <v>0.026896259122204</v>
       </c>
       <c r="P59">
         <v>0.03661425887271091</v>
@@ -4025,7 +4025,7 @@
         <v>0.05245122992073912</v>
       </c>
       <c r="T59">
-        <v>0.026896259122204</v>
+        <v>0.03247704005493587</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4036,7 +4036,7 @@
         <v>44927</v>
       </c>
       <c r="C60">
-        <v>0.01356617204162661</v>
+        <v>0.01563004308265065</v>
       </c>
       <c r="D60">
         <v>0.0194240524054711</v>
@@ -4051,10 +4051,10 @@
         <v>0.02424784674567405</v>
       </c>
       <c r="H60">
-        <v>0.01563004308265065</v>
+        <v>0.01356617204162661</v>
       </c>
       <c r="I60">
-        <v>0.03697165530381524</v>
+        <v>0.02309412861117902</v>
       </c>
       <c r="J60">
         <v>0.03607160206186091</v>
@@ -4069,10 +4069,10 @@
         <v>0.04755503342919905</v>
       </c>
       <c r="N60">
-        <v>0.02309412861117902</v>
+        <v>0.03697165530381524</v>
       </c>
       <c r="O60">
-        <v>0.04673293479364642</v>
+        <v>0.02257671181805252</v>
       </c>
       <c r="P60">
         <v>0.03431549264859245</v>
@@ -4087,7 +4087,7 @@
         <v>0.04831614948428081</v>
       </c>
       <c r="T60">
-        <v>0.02257671181805252</v>
+        <v>0.04673293479364642</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4098,7 +4098,7 @@
         <v>45017</v>
       </c>
       <c r="C61">
-        <v>0.0182320557206724</v>
+        <v>0.02106213480152713</v>
       </c>
       <c r="D61">
         <v>0.02359548936643892</v>
@@ -4113,10 +4113,10 @@
         <v>0.01994373099612343</v>
       </c>
       <c r="H61">
-        <v>0.02106213480152713</v>
+        <v>0.0182320557206724</v>
       </c>
       <c r="I61">
-        <v>0.04138755383001246</v>
+        <v>0.02745803846242088</v>
       </c>
       <c r="J61">
         <v>0.03540327243311179</v>
@@ -4131,10 +4131,10 @@
         <v>0.0411622815229856</v>
       </c>
       <c r="N61">
-        <v>0.02745803846242088</v>
+        <v>0.04138755383001246</v>
       </c>
       <c r="O61">
-        <v>0.04198231138664128</v>
+        <v>0.02826160966873241</v>
       </c>
       <c r="P61">
         <v>0.03031404726958206</v>
@@ -4149,7 +4149,7 @@
         <v>0.0446657137881567</v>
       </c>
       <c r="T61">
-        <v>0.02826160966873241</v>
+        <v>0.04198231138664128</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4160,7 +4160,7 @@
         <v>45108</v>
       </c>
       <c r="C62">
-        <v>0.01686875258416164</v>
+        <v>0.01134846269204515</v>
       </c>
       <c r="D62">
         <v>0.02303893752782357</v>
@@ -4175,10 +4175,10 @@
         <v>0.01701307599206881</v>
       </c>
       <c r="H62">
-        <v>0.01134846269204515</v>
+        <v>0.01686875258416164</v>
       </c>
       <c r="I62">
-        <v>0.04154569015510107</v>
+        <v>0.02362860495960389</v>
       </c>
       <c r="J62">
         <v>0.03100020008506292</v>
@@ -4193,10 +4193,10 @@
         <v>0.03286455331052335</v>
       </c>
       <c r="N62">
-        <v>0.02362860495960389</v>
+        <v>0.04154569015510107</v>
       </c>
       <c r="O62">
-        <v>0.04327933608426089</v>
+        <v>0.02072063601799183</v>
       </c>
       <c r="P62">
         <v>0.03341323646233266</v>
@@ -4211,7 +4211,7 @@
         <v>0.03605922910713396</v>
       </c>
       <c r="T62">
-        <v>0.02072063601799183</v>
+        <v>0.04327933608426089</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4222,7 +4222,7 @@
         <v>45200</v>
       </c>
       <c r="C63">
-        <v>0.0216265922643035</v>
+        <v>0.01645959162905423</v>
       </c>
       <c r="D63">
         <v>0.02452721711643486</v>
@@ -4237,43 +4237,43 @@
         <v>0.02597819024149807</v>
       </c>
       <c r="H63">
-        <v>0.01645959162905423</v>
+        <v>0.0216265922643035</v>
       </c>
       <c r="I63">
-        <v>0.04552762445813478</v>
+        <v>0.02761712827272828</v>
       </c>
       <c r="J63">
-        <v>0.03691426930207468</v>
+        <v>0.03691426930207466</v>
       </c>
       <c r="K63">
-        <v>0.04071339519503276</v>
+        <v>0.04071339519503274</v>
       </c>
       <c r="L63">
-        <v>0.0411734415546597</v>
+        <v>0.04117344155465967</v>
       </c>
       <c r="M63">
-        <v>0.0434789548553785</v>
+        <v>0.04347895485537848</v>
       </c>
       <c r="N63">
-        <v>0.02761712827272829</v>
+        <v>0.04552762445813475</v>
       </c>
       <c r="O63">
-        <v>0.05265937073087196</v>
+        <v>0.02137582536135984</v>
       </c>
       <c r="P63">
-        <v>0.03454742024327721</v>
+        <v>0.03454742024327719</v>
       </c>
       <c r="Q63">
-        <v>0.0350278542870445</v>
+        <v>0.03502785428704448</v>
       </c>
       <c r="R63">
-        <v>0.04208824449743498</v>
+        <v>0.04208824449743495</v>
       </c>
       <c r="S63">
-        <v>0.04343103597786743</v>
+        <v>0.04343103597786739</v>
       </c>
       <c r="T63">
-        <v>0.02137582536135985</v>
+        <v>0.05265937073087193</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4284,7 +4284,7 @@
         <v>45292</v>
       </c>
       <c r="C64">
-        <v>0.01671787386893104</v>
+        <v>0.01774004469723573</v>
       </c>
       <c r="D64">
         <v>0.02567770391236192</v>
@@ -4299,10 +4299,10 @@
         <v>0.02329780013014329</v>
       </c>
       <c r="H64">
-        <v>0.01774004469723573</v>
+        <v>0.01671787386893104</v>
       </c>
       <c r="I64">
-        <v>0.04476662431057595</v>
+        <v>0.03026508198924955</v>
       </c>
       <c r="J64">
         <v>0.03786819261004358</v>
@@ -4317,10 +4317,10 @@
         <v>0.04735220792028528</v>
       </c>
       <c r="N64">
-        <v>0.03026508198924955</v>
+        <v>0.04476662431057595</v>
       </c>
       <c r="O64">
-        <v>0.04638661422246446</v>
+        <v>0.02794661721420867</v>
       </c>
       <c r="P64">
         <v>0.03826070231037913</v>
@@ -4335,7 +4335,7 @@
         <v>0.04915641347111425</v>
       </c>
       <c r="T64">
-        <v>0.02794661721420867</v>
+        <v>0.04638661422246446</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4346,7 +4346,7 @@
         <v>45383</v>
       </c>
       <c r="C65">
-        <v>0.01660717866774027</v>
+        <v>0.018735581655942</v>
       </c>
       <c r="D65">
         <v>0.02144396500046999</v>
@@ -4361,10 +4361,10 @@
         <v>0.01933566264195898</v>
       </c>
       <c r="H65">
-        <v>0.018735581655942</v>
+        <v>0.01660717866774027</v>
       </c>
       <c r="I65">
-        <v>0.03413967524010927</v>
+        <v>0.02573978707437294</v>
       </c>
       <c r="J65">
         <v>0.03568976464358362</v>
@@ -4379,10 +4379,10 @@
         <v>0.04097427809395101</v>
       </c>
       <c r="N65">
-        <v>0.02573978707437294</v>
+        <v>0.03413967524010927</v>
       </c>
       <c r="O65">
-        <v>0.04979783411450245</v>
+        <v>0.0266647888369123</v>
       </c>
       <c r="P65">
         <v>0.03457672591879481</v>
@@ -4397,7 +4397,7 @@
         <v>0.04389135865272673</v>
       </c>
       <c r="T65">
-        <v>0.0266647888369123</v>
+        <v>0.04979783411450245</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4408,7 +4408,7 @@
         <v>45474</v>
       </c>
       <c r="C66">
-        <v>0.0185941882330405</v>
+        <v>0.01713162530419742</v>
       </c>
       <c r="D66">
         <v>0.01448713126155519</v>
@@ -4423,10 +4423,10 @@
         <v>0.02315503966124697</v>
       </c>
       <c r="H66">
-        <v>0.01713162530419742</v>
+        <v>0.0185941882330405</v>
       </c>
       <c r="I66">
-        <v>0.03364008429948544</v>
+        <v>0.02637722872502085</v>
       </c>
       <c r="J66">
         <v>0.0227702700638273</v>
@@ -4441,10 +4441,10 @@
         <v>0.04290706723167347</v>
       </c>
       <c r="N66">
-        <v>0.02637722872502085</v>
+        <v>0.03364008429948544</v>
       </c>
       <c r="O66">
-        <v>0.04001873122376006</v>
+        <v>0.02478590146295064</v>
       </c>
       <c r="P66">
         <v>0.02801400955870335</v>
@@ -4459,7 +4459,7 @@
         <v>0.04080926492056391</v>
       </c>
       <c r="T66">
-        <v>0.02478590146295064</v>
+        <v>0.04001873122376006</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4470,7 +4470,7 @@
         <v>45566</v>
       </c>
       <c r="C67">
-        <v>0.01735873031588629</v>
+        <v>0.008886925927044721</v>
       </c>
       <c r="D67">
         <v>0.02128268915077062</v>
@@ -4485,10 +4485,10 @@
         <v>0.01718249995484502</v>
       </c>
       <c r="H67">
-        <v>0.008886925927044721</v>
+        <v>0.01735873031588629</v>
       </c>
       <c r="I67">
-        <v>0.04192038076646795</v>
+        <v>0.01686321864462318</v>
       </c>
       <c r="J67">
         <v>0.03025929420520957</v>
@@ -4503,10 +4503,10 @@
         <v>0.03663127776254787</v>
       </c>
       <c r="N67">
-        <v>0.01686321864462318</v>
+        <v>0.04192038076646795</v>
       </c>
       <c r="O67">
-        <v>0.03984931102612947</v>
+        <v>0.01958736281759154</v>
       </c>
       <c r="P67">
         <v>0.02366671320890276</v>
@@ -4521,7 +4521,7 @@
         <v>0.04138029063207774</v>
       </c>
       <c r="T67">
-        <v>0.01958736281759154</v>
+        <v>0.03984931102612947</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4532,7 +4532,7 @@
         <v>45658</v>
       </c>
       <c r="C68">
-        <v>0.01399932045105246</v>
+        <v>0.01631945307889348</v>
       </c>
       <c r="D68">
         <v>0.02170925817222094</v>
@@ -4547,10 +4547,10 @@
         <v>0.01979216039300457</v>
       </c>
       <c r="H68">
-        <v>0.01631945307889348</v>
+        <v>0.01399932045105246</v>
       </c>
       <c r="I68">
-        <v>0.03912311083187545</v>
+        <v>0.02573825078024461</v>
       </c>
       <c r="J68">
         <v>0.03628974876501358</v>
@@ -4565,10 +4565,10 @@
         <v>0.04426067088954246</v>
       </c>
       <c r="N68">
-        <v>0.02573825078024461</v>
+        <v>0.03912311083187545</v>
       </c>
       <c r="O68">
-        <v>0.04488901529367714</v>
+        <v>0.02352445822288532</v>
       </c>
       <c r="P68">
         <v>0.03395522667578389</v>
@@ -4583,7 +4583,7 @@
         <v>0.04641795164350397</v>
       </c>
       <c r="T68">
-        <v>0.02352445822288532</v>
+        <v>0.04488901529367714</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4594,7 +4594,7 @@
         <v>45748</v>
       </c>
       <c r="C69">
-        <v>0.01213838712924318</v>
+        <v>0.01367998632291664</v>
       </c>
       <c r="D69">
         <v>0.02129235422958572</v>
@@ -4609,10 +4609,10 @@
         <v>0.01936177148964015</v>
       </c>
       <c r="H69">
-        <v>0.01367998632291664</v>
+        <v>0.01213838712924318</v>
       </c>
       <c r="I69">
-        <v>0.03441897732496967</v>
+        <v>0.02044620362852128</v>
       </c>
       <c r="J69">
         <v>0.03623313515753619</v>
@@ -4627,10 +4627,10 @@
         <v>0.03688733395573792</v>
       </c>
       <c r="N69">
-        <v>0.02044620362852128</v>
+        <v>0.03441897732496967</v>
       </c>
       <c r="O69">
-        <v>0.04818450452264023</v>
+        <v>0.01715957690133406</v>
       </c>
       <c r="P69">
         <v>0.03123249257850106</v>
@@ -4645,7 +4645,7 @@
         <v>0.04212494154048522</v>
       </c>
       <c r="T69">
-        <v>0.01715957690133406</v>
+        <v>0.04818450452264023</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4890,7 @@
         <v>0.1523933533985329</v>
       </c>
       <c r="H10">
-        <v>0.1393864382741325</v>
+        <v>0.1393864382741326</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5069,10 +5069,10 @@
         <v>0.1196949767397383</v>
       </c>
       <c r="G17">
-        <v>0.1609347644523384</v>
+        <v>0.1609347644523387</v>
       </c>
       <c r="H17">
-        <v>0.1608808482543868</v>
+        <v>0.1608808482543871</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5251,10 +5251,10 @@
         <v>0.1260879066838221</v>
       </c>
       <c r="G24">
-        <v>0.166909809437012</v>
+        <v>0.1669098094370122</v>
       </c>
       <c r="H24">
-        <v>0.1661984870535023</v>
+        <v>0.1661984870535024</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5433,10 +5433,10 @@
         <v>0.1360477194541138</v>
       </c>
       <c r="G31">
-        <v>0.2094211178656051</v>
+        <v>0.2094211178656053</v>
       </c>
       <c r="H31">
-        <v>0.187228250210268</v>
+        <v>0.1872282502102681</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5615,10 +5615,10 @@
         <v>0.1481379017000531</v>
       </c>
       <c r="G38">
-        <v>0.2210740794291416</v>
+        <v>0.2210740794291412</v>
       </c>
       <c r="H38">
-        <v>0.1802318343855522</v>
+        <v>0.1802318343855519</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5771,10 +5771,10 @@
         <v>0.1612209380915409</v>
       </c>
       <c r="G44">
-        <v>0.2426836227248018</v>
+        <v>0.2426836227248025</v>
       </c>
       <c r="H44">
-        <v>0.1983518967093791</v>
+        <v>0.1983518967093797</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5950,10 +5950,10 @@
         <v>0.1395274888275036</v>
       </c>
       <c r="G51">
-        <v>0.1432400798835881</v>
+        <v>0.1432400798835877</v>
       </c>
       <c r="H51">
-        <v>0.131875997062552</v>
+        <v>0.1318759970625517</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6262,10 +6262,10 @@
         <v>0.1401453329825001</v>
       </c>
       <c r="G63">
-        <v>0.08985179832897647</v>
+        <v>0.08985179832897641</v>
       </c>
       <c r="H63">
-        <v>0.1392779527688793</v>
+        <v>0.1392779527688792</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -9930,13 +9930,13 @@
         <v>0.05840105378901866</v>
       </c>
       <c r="D10">
-        <v>0.009769217667071584</v>
+        <v>0.00976921766707158</v>
       </c>
       <c r="E10">
-        <v>0.009461260613171289</v>
+        <v>0.009461260613171285</v>
       </c>
       <c r="F10">
-        <v>0.004988806663975906</v>
+        <v>0.004988806663975905</v>
       </c>
       <c r="G10">
         <v>0.01001324068917958</v>
@@ -9957,10 +9957,10 @@
         <v>0.0327815647439442</v>
       </c>
       <c r="AC10">
-        <v>0.1719249560880571</v>
+        <v>0.171924956088057</v>
       </c>
       <c r="AD10">
-        <v>0.02959071970686002</v>
+        <v>0.02959071970686001</v>
       </c>
       <c r="AE10">
         <v>0.03093040609823293</v>
@@ -9969,7 +9969,7 @@
         <v>0.01538613958995347</v>
       </c>
       <c r="AG10">
-        <v>0.04394757018956197</v>
+        <v>0.04394757018956196</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -10298,19 +10298,19 @@
         <v>41000</v>
       </c>
       <c r="C17">
-        <v>0.06450208391191534</v>
+        <v>0.0645020839119152</v>
       </c>
       <c r="D17">
-        <v>0.007913982301245069</v>
+        <v>0.007913982301245053</v>
       </c>
       <c r="E17">
-        <v>0.0137877960177293</v>
+        <v>0.01378779601772927</v>
       </c>
       <c r="F17">
-        <v>0.004294984674575061</v>
+        <v>0.004294984674575053</v>
       </c>
       <c r="G17">
-        <v>0.01610771845978719</v>
+        <v>0.01610771845978716</v>
       </c>
       <c r="P17">
         <v>0.1335977261606479</v>
@@ -10328,19 +10328,19 @@
         <v>0.03465133005156625</v>
       </c>
       <c r="AC17">
-        <v>0.1709575821942268</v>
+        <v>0.1709575821942264</v>
       </c>
       <c r="AD17">
-        <v>0.03793818355311818</v>
+        <v>0.03793818355311811</v>
       </c>
       <c r="AE17">
-        <v>0.03596210403384723</v>
+        <v>0.03596210403384716</v>
       </c>
       <c r="AF17">
-        <v>0.01774605877679409</v>
+        <v>0.01774605877679405</v>
       </c>
       <c r="AG17">
-        <v>0.05921168414873963</v>
+        <v>0.05921168414873951</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -10669,19 +10669,19 @@
         <v>41640</v>
       </c>
       <c r="C24">
-        <v>0.0879383375415899</v>
+        <v>0.08793833754158982</v>
       </c>
       <c r="D24">
-        <v>0.02285322575458037</v>
+        <v>0.02285322575458035</v>
       </c>
       <c r="E24">
-        <v>0.01492586825519382</v>
+        <v>0.01492586825519381</v>
       </c>
       <c r="F24">
-        <v>0.005552315621515721</v>
+        <v>0.005552315621515716</v>
       </c>
       <c r="G24">
-        <v>0.01399448921405841</v>
+        <v>0.0139944892140584</v>
       </c>
       <c r="P24">
         <v>0.1407737131306973</v>
@@ -10699,19 +10699,19 @@
         <v>0.03349166101753287</v>
       </c>
       <c r="AC24">
-        <v>0.1777196812445131</v>
+        <v>0.1777196812445129</v>
       </c>
       <c r="AD24">
-        <v>0.04059247659460679</v>
+        <v>0.04059247659460676</v>
       </c>
       <c r="AE24">
-        <v>0.04186799487361685</v>
+        <v>0.04186799487361681</v>
       </c>
       <c r="AF24">
-        <v>0.02141614689149081</v>
+        <v>0.02141614689149079</v>
       </c>
       <c r="AG24">
-        <v>0.05151199688628696</v>
+        <v>0.05151199688628692</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -11040,19 +11040,19 @@
         <v>42278</v>
       </c>
       <c r="C31">
-        <v>0.1287974923750863</v>
+        <v>0.1287974923750862</v>
       </c>
       <c r="D31">
-        <v>0.01095786849844599</v>
+        <v>0.01095786849844598</v>
       </c>
       <c r="E31">
-        <v>0.01930082583917357</v>
+        <v>0.01930082583917356</v>
       </c>
       <c r="F31">
-        <v>0.007050529986912717</v>
+        <v>0.007050529986912713</v>
       </c>
       <c r="G31">
-        <v>0.01428751185064697</v>
+        <v>0.01428751185064696</v>
       </c>
       <c r="P31">
         <v>0.1808150188515076</v>
@@ -11070,19 +11070,19 @@
         <v>0.03437897515656101</v>
       </c>
       <c r="AC31">
-        <v>0.2385636480990828</v>
+        <v>0.2385636480990826</v>
       </c>
       <c r="AD31">
-        <v>0.02484649559622067</v>
+        <v>0.02484649559622066</v>
       </c>
       <c r="AE31">
-        <v>0.04906333403465055</v>
+        <v>0.04906333403465052</v>
       </c>
       <c r="AF31">
-        <v>0.02509917354950886</v>
+        <v>0.02509917354950884</v>
       </c>
       <c r="AG31">
-        <v>0.05907671679641039</v>
+        <v>0.05907671679641035</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -11465,22 +11465,22 @@
         <v>42917</v>
       </c>
       <c r="C38">
-        <v>0.1189640901503914</v>
+        <v>0.1189640901503916</v>
       </c>
       <c r="D38">
-        <v>0.01278613147198067</v>
+        <v>0.01278613147198069</v>
       </c>
       <c r="E38">
-        <v>0.02004488183133299</v>
+        <v>0.02004488183133302</v>
       </c>
       <c r="F38">
-        <v>0.01309016009300311</v>
+        <v>0.01309016009300313</v>
       </c>
       <c r="H38">
-        <v>0.02785670279240076</v>
+        <v>0.0278567027924008</v>
       </c>
       <c r="I38">
-        <v>0.002528670760508199</v>
+        <v>0.002528670760508202</v>
       </c>
       <c r="P38">
         <v>0.1767450166940215</v>
@@ -11501,22 +11501,22 @@
         <v>0.00761221361697745</v>
       </c>
       <c r="AC38">
-        <v>0.2188795374800069</v>
+        <v>0.2188795374800072</v>
       </c>
       <c r="AD38">
-        <v>0.02784687741088077</v>
+        <v>0.02784687741088081</v>
       </c>
       <c r="AE38">
-        <v>0.04799301878255591</v>
+        <v>0.04799301878255598</v>
       </c>
       <c r="AF38">
-        <v>0.03050515122272173</v>
+        <v>0.03050515122272178</v>
       </c>
       <c r="AH38">
-        <v>0.06795329374503233</v>
+        <v>0.06795329374503242</v>
       </c>
       <c r="AI38">
-        <v>0.008128035173495599</v>
+        <v>0.008128035173495611</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -11837,22 +11837,22 @@
         <v>43466</v>
       </c>
       <c r="C44">
-        <v>0.1304551974884448</v>
+        <v>0.1304551974884444</v>
       </c>
       <c r="D44">
-        <v>0.01566846990331828</v>
+        <v>0.01566846990331823</v>
       </c>
       <c r="E44">
-        <v>0.02063609399446534</v>
+        <v>0.02063609399446528</v>
       </c>
       <c r="F44">
-        <v>0.01353981713030845</v>
+        <v>0.01353981713030841</v>
       </c>
       <c r="H44">
-        <v>0.03494805169080602</v>
+        <v>0.03494805169080592</v>
       </c>
       <c r="I44">
-        <v>0.004796801149095463</v>
+        <v>0.004796801149095449</v>
       </c>
       <c r="P44">
         <v>0.2056035923146081</v>
@@ -11873,22 +11873,22 @@
         <v>0.01154972968227695</v>
       </c>
       <c r="AC44">
-        <v>0.2412800629656869</v>
+        <v>0.2412800629656861</v>
       </c>
       <c r="AD44">
-        <v>0.03072174129651133</v>
+        <v>0.03072174129651123</v>
       </c>
       <c r="AE44">
-        <v>0.0513328708408836</v>
+        <v>0.05133287084088343</v>
       </c>
       <c r="AF44">
-        <v>0.03096005315685955</v>
+        <v>0.03096005315685946</v>
       </c>
       <c r="AH44">
-        <v>0.07285405530675064</v>
+        <v>0.0728540553067504</v>
       </c>
       <c r="AI44">
-        <v>0.01388673586749016</v>
+        <v>0.01388673586749012</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -12247,22 +12247,22 @@
         <v>44105</v>
       </c>
       <c r="C51">
-        <v>0.04015210043639654</v>
+        <v>0.04015210043639664</v>
       </c>
       <c r="D51">
-        <v>0.01417126951007104</v>
+        <v>0.01417126951007108</v>
       </c>
       <c r="E51">
-        <v>0.02112177448436268</v>
+        <v>0.02112177448436273</v>
       </c>
       <c r="F51">
-        <v>0.02387570024470275</v>
+        <v>0.02387570024470281</v>
       </c>
       <c r="H51">
-        <v>0.04660423382848512</v>
+        <v>0.04660423382848524</v>
       </c>
       <c r="I51">
-        <v>0.006935203517173381</v>
+        <v>0.006935203517173399</v>
       </c>
       <c r="P51">
         <v>0.05566217503994367</v>
@@ -12283,22 +12283,22 @@
         <v>0.01390769938388677</v>
       </c>
       <c r="AC51">
-        <v>0.05204154891964612</v>
+        <v>0.05204154891964625</v>
       </c>
       <c r="AD51">
-        <v>0.02575966107315286</v>
+        <v>0.02575966107315292</v>
       </c>
       <c r="AE51">
-        <v>0.03706208770141937</v>
+        <v>0.03706208770141947</v>
       </c>
       <c r="AF51">
-        <v>0.04516276662259084</v>
+        <v>0.04516276662259095</v>
       </c>
       <c r="AH51">
-        <v>0.101370950311894</v>
+        <v>0.1013709503118943</v>
       </c>
       <c r="AI51">
-        <v>0.01371906231743638</v>
+        <v>0.01371906231743641</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -12994,19 +12994,19 @@
         <v>0.01024565585970226</v>
       </c>
       <c r="K63">
-        <v>0.03131766339118446</v>
+        <v>0.03131766339118448</v>
       </c>
       <c r="L63">
-        <v>0.04185583727103544</v>
+        <v>0.04185583727103546</v>
       </c>
       <c r="M63">
-        <v>0.01764032001010937</v>
+        <v>0.01764032001010938</v>
       </c>
       <c r="N63">
-        <v>0.02222108232261462</v>
+        <v>0.02222108232261463</v>
       </c>
       <c r="O63">
-        <v>0.01714879167254158</v>
+        <v>0.0171487916725416</v>
       </c>
       <c r="W63">
         <v>0.01659239124786226</v>
@@ -13027,22 +13027,22 @@
         <v>0.03215066115137033</v>
       </c>
       <c r="AJ63">
-        <v>0.01781562619072098</v>
+        <v>0.01781562619072099</v>
       </c>
       <c r="AK63">
-        <v>0.04028457988610137</v>
+        <v>0.04028457988610139</v>
       </c>
       <c r="AL63">
-        <v>0.05855211677315914</v>
+        <v>0.05855211677315917</v>
       </c>
       <c r="AM63">
-        <v>0.02768551643209679</v>
+        <v>0.02768551643209681</v>
       </c>
       <c r="AN63">
-        <v>0.05369216549415932</v>
+        <v>0.05369216549415936</v>
       </c>
       <c r="AO63">
-        <v>0.03109974632161821</v>
+        <v>0.03109974632161823</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -13857,19 +13857,19 @@
         <v>0.03710955706405167</v>
       </c>
       <c r="H10">
-        <v>0.01584636700964915</v>
+        <v>0.01584636700964916</v>
       </c>
       <c r="I10">
-        <v>0.04909792009417334</v>
+        <v>0.04909792009417335</v>
       </c>
       <c r="J10">
         <v>0.03733796261274473</v>
       </c>
       <c r="K10">
-        <v>0.03471276294090689</v>
+        <v>0.0347127629409069</v>
       </c>
       <c r="L10">
-        <v>0.0766056592843195</v>
+        <v>0.07660565928431952</v>
       </c>
       <c r="M10">
         <v>0.01904941319783874</v>
@@ -14228,19 +14228,19 @@
         <v>0.03598601027256162</v>
       </c>
       <c r="H17">
-        <v>0.02188183807439824</v>
+        <v>0.02188183807439829</v>
       </c>
       <c r="I17">
-        <v>0.06524317731206386</v>
+        <v>0.06524317731206399</v>
       </c>
       <c r="J17">
-        <v>0.04249918871381381</v>
+        <v>0.04249918871381389</v>
       </c>
       <c r="K17">
-        <v>0.0326915271203562</v>
+        <v>0.03269152712035626</v>
       </c>
       <c r="L17">
-        <v>0.0675793763421827</v>
+        <v>0.06757937634218283</v>
       </c>
       <c r="M17">
         <v>0.02863611347630286</v>
@@ -14599,19 +14599,19 @@
         <v>0.04610250284693551</v>
       </c>
       <c r="H24">
-        <v>0.01519074657956238</v>
+        <v>0.01519074657956239</v>
       </c>
       <c r="I24">
-        <v>0.05741655509785683</v>
+        <v>0.05741655509785688</v>
       </c>
       <c r="J24">
-        <v>0.05410886803007253</v>
+        <v>0.05410886803007257</v>
       </c>
       <c r="K24">
-        <v>0.03551192800779338</v>
+        <v>0.0355119280077934</v>
       </c>
       <c r="L24">
-        <v>0.08521383860097642</v>
+        <v>0.08521383860097649</v>
       </c>
       <c r="M24">
         <v>0.02350807790258911</v>
@@ -14970,19 +14970,19 @@
         <v>0.05682808678468836</v>
       </c>
       <c r="H31">
-        <v>0.02805795087349648</v>
+        <v>0.0280579508734965</v>
       </c>
       <c r="I31">
-        <v>0.05528043432079811</v>
+        <v>0.05528043432079815</v>
       </c>
       <c r="J31">
-        <v>0.0620151168661006</v>
+        <v>0.06201511686610064</v>
       </c>
       <c r="K31">
-        <v>0.03971628748841682</v>
+        <v>0.03971628748841685</v>
       </c>
       <c r="L31">
-        <v>0.09205220856323544</v>
+        <v>0.09205220856323551</v>
       </c>
       <c r="M31">
         <v>0.03705196148902715</v>
@@ -15341,19 +15341,19 @@
         <v>0.04918161179762652</v>
       </c>
       <c r="H38">
-        <v>0.02572717706358587</v>
+        <v>0.02572717706358583</v>
       </c>
       <c r="I38">
-        <v>0.07828265855839196</v>
+        <v>0.07828265855839185</v>
       </c>
       <c r="J38">
-        <v>0.07629765047990447</v>
+        <v>0.07629765047990435</v>
       </c>
       <c r="K38">
-        <v>0.06165737733952727</v>
+        <v>0.06165737733952718</v>
       </c>
       <c r="L38">
-        <v>0.08063181214623964</v>
+        <v>0.08063181214623953</v>
       </c>
       <c r="M38">
         <v>0.03201679385087256</v>
@@ -15659,19 +15659,19 @@
         <v>0.06032651724175118</v>
       </c>
       <c r="H44">
-        <v>0.02370661724695696</v>
+        <v>0.02370661724695704</v>
       </c>
       <c r="I44">
-        <v>0.09317122132985506</v>
+        <v>0.09317122132985535</v>
       </c>
       <c r="J44">
-        <v>0.07487557373290608</v>
+        <v>0.07487557373290632</v>
       </c>
       <c r="K44">
-        <v>0.07146520861289511</v>
+        <v>0.07146520861289533</v>
       </c>
       <c r="L44">
-        <v>0.1023852246052861</v>
+        <v>0.1023852246052864</v>
       </c>
       <c r="M44">
         <v>0.03194471287831616</v>
@@ -16012,19 +16012,19 @@
         <v>0.03862440144587054</v>
       </c>
       <c r="H51">
-        <v>0.02239076172755086</v>
+        <v>0.02239076172755081</v>
       </c>
       <c r="I51">
-        <v>0.08709437160380794</v>
+        <v>0.08709437160380772</v>
       </c>
       <c r="J51">
-        <v>0.08134246726103514</v>
+        <v>0.08134246726103493</v>
       </c>
       <c r="K51">
-        <v>0.03396594609579905</v>
+        <v>0.03396594609579896</v>
       </c>
       <c r="L51">
-        <v>0.06827754018622374</v>
+        <v>0.06827754018622356</v>
       </c>
       <c r="M51">
         <v>0.01927300354644668</v>
@@ -16648,19 +16648,19 @@
         <v>0.03622011386156471</v>
       </c>
       <c r="H63">
-        <v>0.01769656466027703</v>
+        <v>0.01769656466027702</v>
       </c>
       <c r="I63">
-        <v>0.06744942504214317</v>
+        <v>0.06744942504214313</v>
       </c>
       <c r="J63">
-        <v>0.05211584500892225</v>
+        <v>0.05211584500892222</v>
       </c>
       <c r="K63">
-        <v>0.03506970473853336</v>
+        <v>0.03506970473853334</v>
       </c>
       <c r="L63">
-        <v>0.06309327418813286</v>
+        <v>0.06309327418813282</v>
       </c>
       <c r="M63">
         <v>0.01859929970012775</v>
